--- a/src/fonts/ICON16x16.xlsx
+++ b/src/fonts/ICON16x16.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="23530"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="G:\Data\work\Teensy40\VSCode\Mp3FilePlayer\src\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\work\Teensy40\VSCode\Teensy40_MP3_Player\src\fonts\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{21419BCB-58EA-4A6E-8B2E-AAF72404E3DF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0E35F29D-1A4E-4F8B-ABE8-BE5E4BCBA47B}" xr6:coauthVersionLast="46" xr6:coauthVersionMax="46" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{7E682170-0FA3-4D33-A3CA-4458C6F2D2D4}"/>
+    <workbookView xWindow="1290" yWindow="1065" windowWidth="23940" windowHeight="14175" xr2:uid="{7E682170-0FA3-4D33-A3CA-4458C6F2D2D4}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="2" r:id="rId1"/>
@@ -506,42 +506,329 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{94F949ED-4E88-4139-A003-24C46D6923AF}">
-  <dimension ref="J12:AI153"/>
+  <dimension ref="J3:AI198"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A109" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="AI138" sqref="AI138:AI139"/>
-    </sheetView>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
   <sheetData>
+    <row r="3" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J3" s="2"/>
+      <c r="K3" s="3"/>
+      <c r="L3" s="3"/>
+      <c r="M3" s="3"/>
+      <c r="N3" s="3"/>
+      <c r="O3" s="3"/>
+      <c r="P3" s="3"/>
+      <c r="Q3" s="3"/>
+      <c r="R3" s="3"/>
+      <c r="S3" s="3"/>
+      <c r="T3" s="3"/>
+      <c r="U3" s="3"/>
+      <c r="V3" s="3"/>
+      <c r="W3" s="3"/>
+      <c r="X3" s="3"/>
+      <c r="Y3" s="4"/>
+      <c r="AE3" t="str">
+        <f>DEC2HEX(J3*128+K3*64+L3*32+M3*16+N3*8+O3*4+P3*2+Q3*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AF3" t="str">
+        <f>DEC2HEX(R3*128+S3*64+T3*32+U3*16+V3*8+W3*4+X3*2+Y3*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI3" t="str">
+        <f>"0x"&amp;AE3&amp;",0x"&amp;AF3&amp;",0x"&amp;AE4&amp;",0x"&amp;AF4&amp;",0x"&amp;AE5&amp;",0x"&amp;AF5&amp;",0x"&amp;AE6&amp;",0x"&amp;AF6&amp;",0x"&amp;AE7&amp;",0x"&amp;AF7&amp;",0x"&amp;AE8&amp;",0x"&amp;AF8&amp;",0x"&amp;AE9&amp;",0x"&amp;AF9&amp;",0x"&amp;AE10&amp;",0x"&amp;AF10&amp;","</f>
+        <v>0x00,0x00,0x01,0x00,0x01,0x80,0x01,0xE0,0x01,0xF0,0x01,0x78,0x01,0x18,0x01,0x08,</v>
+      </c>
+    </row>
+    <row r="4" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J4" s="5"/>
+      <c r="K4" s="1"/>
+      <c r="L4" s="1"/>
+      <c r="M4" s="1"/>
+      <c r="N4" s="1"/>
+      <c r="O4" s="1"/>
+      <c r="P4" s="1"/>
+      <c r="Q4" s="10">
+        <v>1</v>
+      </c>
+      <c r="R4" s="1"/>
+      <c r="S4" s="1"/>
+      <c r="T4" s="1"/>
+      <c r="U4" s="1"/>
+      <c r="W4" s="1"/>
+      <c r="X4" s="1"/>
+      <c r="Y4" s="6"/>
+      <c r="AE4" t="str">
+        <f t="shared" ref="AE4:AE18" si="0">DEC2HEX(J4*128+K4*64+L4*32+M4*16+N4*8+O4*4+P4*2+Q4*1, 2)</f>
+        <v>01</v>
+      </c>
+      <c r="AF4" t="str">
+        <f t="shared" ref="AF4:AF18" si="1">DEC2HEX(R4*128+S4*64+T4*32+U4*16+V4*8+W4*4+X4*2+Y4*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI4" t="str">
+        <f>"0x"&amp;AE11&amp;",0x"&amp;AF11&amp;",0x"&amp;AE12&amp;",0x"&amp;AF12&amp;",0x"&amp;AE13&amp;",0x"&amp;AF13&amp;",0x"&amp;AE14&amp;",0x"&amp;AF14&amp;",0x"&amp;AE15&amp;",0x"&amp;AF15&amp;",0x"&amp;AE16&amp;",0x"&amp;AF16&amp;",0x"&amp;AE17&amp;",0x"&amp;AF17&amp;",0x"&amp;AE18&amp;",0x"&amp;AF18&amp;","</f>
+        <v>0x01,0x08,0x01,0x08,0x0F,0x00,0x1E,0x00,0x3F,0x00,0x3E,0x00,0x1C,0x00,0x00,0x00,</v>
+      </c>
+    </row>
+    <row r="5" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J5" s="5"/>
+      <c r="K5" s="1"/>
+      <c r="L5" s="1"/>
+      <c r="M5" s="1"/>
+      <c r="N5" s="1"/>
+      <c r="O5" s="1"/>
+      <c r="P5" s="1"/>
+      <c r="Q5" s="10">
+        <v>1</v>
+      </c>
+      <c r="R5" s="10">
+        <v>1</v>
+      </c>
+      <c r="S5" s="1"/>
+      <c r="T5" s="1"/>
+      <c r="U5" s="1"/>
+      <c r="V5" s="1"/>
+      <c r="W5" s="1"/>
+      <c r="X5" s="1"/>
+      <c r="Y5" s="6"/>
+      <c r="AE5" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="AF5" t="str">
+        <f t="shared" si="1"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="6" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J6" s="5"/>
+      <c r="K6" s="1"/>
+      <c r="L6" s="1"/>
+      <c r="M6" s="1"/>
+      <c r="N6" s="1"/>
+      <c r="O6" s="1"/>
+      <c r="P6" s="1"/>
+      <c r="Q6" s="10">
+        <v>1</v>
+      </c>
+      <c r="R6" s="10">
+        <v>1</v>
+      </c>
+      <c r="S6" s="10">
+        <v>1</v>
+      </c>
+      <c r="T6" s="10">
+        <v>1</v>
+      </c>
+      <c r="U6" s="1"/>
+      <c r="V6" s="1"/>
+      <c r="W6" s="1"/>
+      <c r="X6" s="1"/>
+      <c r="Y6" s="6"/>
+      <c r="AE6" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="AF6" t="str">
+        <f t="shared" si="1"/>
+        <v>E0</v>
+      </c>
+    </row>
+    <row r="7" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J7" s="5"/>
+      <c r="K7" s="1"/>
+      <c r="L7" s="1"/>
+      <c r="M7" s="1"/>
+      <c r="N7" s="1"/>
+      <c r="O7" s="1"/>
+      <c r="P7" s="1"/>
+      <c r="Q7" s="10">
+        <v>1</v>
+      </c>
+      <c r="R7" s="10">
+        <v>1</v>
+      </c>
+      <c r="S7" s="10">
+        <v>1</v>
+      </c>
+      <c r="T7" s="10">
+        <v>1</v>
+      </c>
+      <c r="U7" s="10">
+        <v>1</v>
+      </c>
+      <c r="V7" s="1"/>
+      <c r="W7" s="1"/>
+      <c r="X7" s="1"/>
+      <c r="Y7" s="6"/>
+      <c r="AE7" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="AF7" t="str">
+        <f t="shared" si="1"/>
+        <v>F0</v>
+      </c>
+    </row>
+    <row r="8" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J8" s="5"/>
+      <c r="K8" s="1"/>
+      <c r="L8" s="1"/>
+      <c r="M8" s="1"/>
+      <c r="N8" s="1"/>
+      <c r="O8" s="1"/>
+      <c r="P8" s="1"/>
+      <c r="Q8" s="10">
+        <v>1</v>
+      </c>
+      <c r="R8" s="1"/>
+      <c r="S8" s="10">
+        <v>1</v>
+      </c>
+      <c r="T8" s="10">
+        <v>1</v>
+      </c>
+      <c r="U8" s="10">
+        <v>1</v>
+      </c>
+      <c r="V8" s="10">
+        <v>1</v>
+      </c>
+      <c r="W8" s="1"/>
+      <c r="X8" s="1"/>
+      <c r="Y8" s="6"/>
+      <c r="AE8" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="AF8" t="str">
+        <f t="shared" si="1"/>
+        <v>78</v>
+      </c>
+    </row>
+    <row r="9" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J9" s="5"/>
+      <c r="K9" s="1"/>
+      <c r="L9" s="1"/>
+      <c r="M9" s="1"/>
+      <c r="N9" s="1"/>
+      <c r="O9" s="1"/>
+      <c r="P9" s="1"/>
+      <c r="Q9" s="10">
+        <v>1</v>
+      </c>
+      <c r="R9" s="1"/>
+      <c r="S9" s="1"/>
+      <c r="T9" s="1"/>
+      <c r="U9" s="10">
+        <v>1</v>
+      </c>
+      <c r="V9" s="10">
+        <v>1</v>
+      </c>
+      <c r="W9" s="1"/>
+      <c r="X9" s="1"/>
+      <c r="Y9" s="6"/>
+      <c r="AE9" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="AF9" t="str">
+        <f t="shared" si="1"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="10" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J10" s="5"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
+      <c r="P10" s="1"/>
+      <c r="Q10" s="10">
+        <v>1</v>
+      </c>
+      <c r="R10" s="1"/>
+      <c r="S10" s="1"/>
+      <c r="T10" s="1"/>
+      <c r="U10" s="1"/>
+      <c r="V10" s="10">
+        <v>1</v>
+      </c>
+      <c r="W10" s="1"/>
+      <c r="X10" s="1"/>
+      <c r="Y10" s="6"/>
+      <c r="AE10" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="AF10" t="str">
+        <f t="shared" si="1"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="11" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J11" s="5"/>
+      <c r="K11" s="1"/>
+      <c r="L11" s="1"/>
+      <c r="M11" s="1"/>
+      <c r="N11" s="1"/>
+      <c r="O11" s="1"/>
+      <c r="P11" s="1"/>
+      <c r="Q11" s="10">
+        <v>1</v>
+      </c>
+      <c r="R11" s="1"/>
+      <c r="S11" s="1"/>
+      <c r="T11" s="1"/>
+      <c r="U11" s="1"/>
+      <c r="V11" s="10">
+        <v>1</v>
+      </c>
+      <c r="W11" s="1"/>
+      <c r="X11" s="1"/>
+      <c r="Y11" s="6"/>
+      <c r="AE11" t="str">
+        <f t="shared" si="0"/>
+        <v>01</v>
+      </c>
+      <c r="AF11" t="str">
+        <f t="shared" si="1"/>
+        <v>08</v>
+      </c>
+    </row>
     <row r="12" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J12" s="2"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="4"/>
+      <c r="J12" s="5"/>
+      <c r="K12" s="1"/>
+      <c r="L12" s="1"/>
+      <c r="M12" s="1"/>
+      <c r="N12" s="1"/>
+      <c r="O12" s="1"/>
+      <c r="P12" s="1"/>
+      <c r="Q12" s="10">
+        <v>1</v>
+      </c>
+      <c r="R12" s="1"/>
+      <c r="S12" s="1"/>
+      <c r="T12" s="1"/>
+      <c r="U12" s="1"/>
+      <c r="V12" s="10">
+        <v>1</v>
+      </c>
+      <c r="W12" s="1"/>
+      <c r="X12" s="1"/>
+      <c r="Y12" s="6"/>
       <c r="AE12" t="str">
-        <f>DEC2HEX(J12*128+K12*64+L12*32+M12*16+N12*8+O12*4+P12*2+Q12*1, 2)</f>
-        <v>00</v>
+        <f t="shared" si="0"/>
+        <v>01</v>
       </c>
       <c r="AF12" t="str">
-        <f>DEC2HEX(R12*128+S12*64+T12*32+U12*16+V12*8+W12*4+X12*2+Y12*1, 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AI12" t="str">
-        <f>"0x"&amp;AE12&amp;",0x"&amp;AF12&amp;",0x"&amp;AE13&amp;",0x"&amp;AF13&amp;",0x"&amp;AE14&amp;",0x"&amp;AF14&amp;",0x"&amp;AE15&amp;",0x"&amp;AF15&amp;",0x"&amp;AE16&amp;",0x"&amp;AF16&amp;",0x"&amp;AE17&amp;",0x"&amp;AF17&amp;",0x"&amp;AE18&amp;",0x"&amp;AF18&amp;",0x"&amp;AE19&amp;",0x"&amp;AF19&amp;","</f>
-        <v>0x00,0x00,0x01,0x00,0x01,0x80,0x01,0xE0,0x01,0xF0,0x01,0x78,0x01,0x18,0x01,0x08,</v>
+        <f t="shared" si="1"/>
+        <v>08</v>
       </c>
     </row>
     <row r="13" spans="10:35" x14ac:dyDescent="0.4">
@@ -549,9 +836,15 @@
       <c r="K13" s="1"/>
       <c r="L13" s="1"/>
       <c r="M13" s="1"/>
-      <c r="N13" s="1"/>
-      <c r="O13" s="1"/>
-      <c r="P13" s="1"/>
+      <c r="N13" s="10">
+        <v>1</v>
+      </c>
+      <c r="O13" s="10">
+        <v>1</v>
+      </c>
+      <c r="P13" s="10">
+        <v>1</v>
+      </c>
       <c r="Q13" s="10">
         <v>1</v>
       </c>
@@ -559,36 +852,37 @@
       <c r="S13" s="1"/>
       <c r="T13" s="1"/>
       <c r="U13" s="1"/>
+      <c r="V13" s="1"/>
       <c r="W13" s="1"/>
       <c r="X13" s="1"/>
       <c r="Y13" s="6"/>
       <c r="AE13" t="str">
-        <f t="shared" ref="AE13:AE27" si="0">DEC2HEX(J13*128+K13*64+L13*32+M13*16+N13*8+O13*4+P13*2+Q13*1, 2)</f>
-        <v>01</v>
+        <f t="shared" si="0"/>
+        <v>0F</v>
       </c>
       <c r="AF13" t="str">
-        <f t="shared" ref="AF13:AF27" si="1">DEC2HEX(R13*128+S13*64+T13*32+U13*16+V13*8+W13*4+X13*2+Y13*1, 2)</f>
+        <f t="shared" si="1"/>
         <v>00</v>
-      </c>
-      <c r="AI13" t="str">
-        <f>"0x"&amp;AE20&amp;",0x"&amp;AF20&amp;",0x"&amp;AE21&amp;",0x"&amp;AF21&amp;",0x"&amp;AE22&amp;",0x"&amp;AF22&amp;",0x"&amp;AE23&amp;",0x"&amp;AF23&amp;",0x"&amp;AE24&amp;",0x"&amp;AF24&amp;",0x"&amp;AE25&amp;",0x"&amp;AF25&amp;",0x"&amp;AE26&amp;",0x"&amp;AF26&amp;",0x"&amp;AE27&amp;",0x"&amp;AF27&amp;","</f>
-        <v>0x01,0x08,0x01,0x08,0x0F,0x00,0x1E,0x00,0x3F,0x00,0x3E,0x00,0x1C,0x00,0x00,0x00,</v>
       </c>
     </row>
     <row r="14" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J14" s="5"/>
       <c r="K14" s="1"/>
       <c r="L14" s="1"/>
-      <c r="M14" s="1"/>
-      <c r="N14" s="1"/>
-      <c r="O14" s="1"/>
-      <c r="P14" s="1"/>
-      <c r="Q14" s="10">
-        <v>1</v>
-      </c>
-      <c r="R14" s="10">
-        <v>1</v>
-      </c>
+      <c r="M14" s="10">
+        <v>1</v>
+      </c>
+      <c r="N14" s="10">
+        <v>1</v>
+      </c>
+      <c r="O14" s="10">
+        <v>1</v>
+      </c>
+      <c r="P14" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q14" s="1"/>
+      <c r="R14" s="1"/>
       <c r="S14" s="1"/>
       <c r="T14" s="1"/>
       <c r="U14" s="1"/>
@@ -598,33 +892,37 @@
       <c r="Y14" s="6"/>
       <c r="AE14" t="str">
         <f t="shared" si="0"/>
-        <v>01</v>
+        <v>1E</v>
       </c>
       <c r="AF14" t="str">
         <f t="shared" si="1"/>
-        <v>80</v>
+        <v>00</v>
       </c>
     </row>
     <row r="15" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J15" s="5"/>
       <c r="K15" s="1"/>
-      <c r="L15" s="1"/>
-      <c r="M15" s="1"/>
-      <c r="N15" s="1"/>
-      <c r="O15" s="1"/>
-      <c r="P15" s="1"/>
+      <c r="L15" s="10">
+        <v>1</v>
+      </c>
+      <c r="M15" s="10">
+        <v>1</v>
+      </c>
+      <c r="N15" s="10">
+        <v>1</v>
+      </c>
+      <c r="O15" s="10">
+        <v>1</v>
+      </c>
+      <c r="P15" s="10">
+        <v>1</v>
+      </c>
       <c r="Q15" s="10">
         <v>1</v>
       </c>
-      <c r="R15" s="10">
-        <v>1</v>
-      </c>
-      <c r="S15" s="10">
-        <v>1</v>
-      </c>
-      <c r="T15" s="10">
-        <v>1</v>
-      </c>
+      <c r="R15" s="1"/>
+      <c r="S15" s="1"/>
+      <c r="T15" s="1"/>
       <c r="U15" s="1"/>
       <c r="V15" s="1"/>
       <c r="W15" s="1"/>
@@ -632,205 +930,135 @@
       <c r="Y15" s="6"/>
       <c r="AE15" t="str">
         <f t="shared" si="0"/>
-        <v>01</v>
+        <v>3F</v>
       </c>
       <c r="AF15" t="str">
         <f t="shared" si="1"/>
-        <v>E0</v>
+        <v>00</v>
       </c>
     </row>
     <row r="16" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J16" s="5"/>
       <c r="K16" s="1"/>
-      <c r="L16" s="1"/>
-      <c r="M16" s="1"/>
-      <c r="N16" s="1"/>
-      <c r="O16" s="1"/>
-      <c r="P16" s="1"/>
-      <c r="Q16" s="10">
-        <v>1</v>
-      </c>
-      <c r="R16" s="10">
-        <v>1</v>
-      </c>
-      <c r="S16" s="10">
-        <v>1</v>
-      </c>
-      <c r="T16" s="10">
-        <v>1</v>
-      </c>
-      <c r="U16" s="10">
-        <v>1</v>
-      </c>
+      <c r="L16" s="10">
+        <v>1</v>
+      </c>
+      <c r="M16" s="10">
+        <v>1</v>
+      </c>
+      <c r="N16" s="10">
+        <v>1</v>
+      </c>
+      <c r="O16" s="10">
+        <v>1</v>
+      </c>
+      <c r="P16" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q16" s="1"/>
+      <c r="R16" s="1"/>
+      <c r="S16" s="1"/>
+      <c r="T16" s="1"/>
+      <c r="U16" s="1"/>
       <c r="V16" s="1"/>
       <c r="W16" s="1"/>
       <c r="X16" s="1"/>
       <c r="Y16" s="6"/>
       <c r="AE16" t="str">
         <f t="shared" si="0"/>
-        <v>01</v>
+        <v>3E</v>
       </c>
       <c r="AF16" t="str">
         <f t="shared" si="1"/>
-        <v>F0</v>
+        <v>00</v>
       </c>
     </row>
     <row r="17" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J17" s="5"/>
       <c r="K17" s="1"/>
       <c r="L17" s="1"/>
-      <c r="M17" s="1"/>
-      <c r="N17" s="1"/>
-      <c r="O17" s="1"/>
+      <c r="M17" s="10">
+        <v>1</v>
+      </c>
+      <c r="N17" s="10">
+        <v>1</v>
+      </c>
+      <c r="O17" s="10">
+        <v>1</v>
+      </c>
       <c r="P17" s="1"/>
-      <c r="Q17" s="10">
-        <v>1</v>
-      </c>
+      <c r="Q17" s="1"/>
       <c r="R17" s="1"/>
-      <c r="S17" s="10">
-        <v>1</v>
-      </c>
-      <c r="T17" s="10">
-        <v>1</v>
-      </c>
-      <c r="U17" s="10">
-        <v>1</v>
-      </c>
-      <c r="V17" s="10">
-        <v>1</v>
-      </c>
+      <c r="S17" s="1"/>
+      <c r="T17" s="1"/>
+      <c r="U17" s="1"/>
+      <c r="V17" s="1"/>
       <c r="W17" s="1"/>
       <c r="X17" s="1"/>
       <c r="Y17" s="6"/>
       <c r="AE17" t="str">
         <f t="shared" si="0"/>
-        <v>01</v>
+        <v>1C</v>
       </c>
       <c r="AF17" t="str">
         <f t="shared" si="1"/>
-        <v>78</v>
+        <v>00</v>
       </c>
     </row>
     <row r="18" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J18" s="5"/>
-      <c r="K18" s="1"/>
-      <c r="L18" s="1"/>
-      <c r="M18" s="1"/>
-      <c r="N18" s="1"/>
-      <c r="O18" s="1"/>
-      <c r="P18" s="1"/>
-      <c r="Q18" s="10">
-        <v>1</v>
-      </c>
-      <c r="R18" s="1"/>
-      <c r="S18" s="1"/>
-      <c r="T18" s="1"/>
-      <c r="U18" s="10">
-        <v>1</v>
-      </c>
-      <c r="V18" s="10">
-        <v>1</v>
-      </c>
-      <c r="W18" s="1"/>
-      <c r="X18" s="1"/>
-      <c r="Y18" s="6"/>
+      <c r="J18" s="7"/>
+      <c r="K18" s="8"/>
+      <c r="L18" s="8"/>
+      <c r="M18" s="8"/>
+      <c r="N18" s="8"/>
+      <c r="O18" s="8"/>
+      <c r="P18" s="8"/>
+      <c r="Q18" s="8"/>
+      <c r="R18" s="8"/>
+      <c r="S18" s="8"/>
+      <c r="T18" s="8"/>
+      <c r="U18" s="8"/>
+      <c r="V18" s="8"/>
+      <c r="W18" s="8"/>
+      <c r="X18" s="8"/>
+      <c r="Y18" s="9"/>
       <c r="AE18" t="str">
         <f t="shared" si="0"/>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="AF18" t="str">
         <f t="shared" si="1"/>
-        <v>18</v>
-      </c>
-    </row>
-    <row r="19" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J19" s="5"/>
-      <c r="K19" s="1"/>
-      <c r="L19" s="1"/>
-      <c r="M19" s="1"/>
-      <c r="N19" s="1"/>
-      <c r="O19" s="1"/>
-      <c r="P19" s="1"/>
-      <c r="Q19" s="10">
-        <v>1</v>
-      </c>
-      <c r="R19" s="1"/>
-      <c r="S19" s="1"/>
-      <c r="T19" s="1"/>
-      <c r="U19" s="1"/>
-      <c r="V19" s="10">
-        <v>1</v>
-      </c>
-      <c r="W19" s="1"/>
-      <c r="X19" s="1"/>
-      <c r="Y19" s="6"/>
-      <c r="AE19" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-      <c r="AF19" t="str">
-        <f t="shared" si="1"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="20" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J20" s="5"/>
-      <c r="K20" s="1"/>
-      <c r="L20" s="1"/>
-      <c r="M20" s="1"/>
-      <c r="N20" s="1"/>
-      <c r="O20" s="1"/>
-      <c r="P20" s="1"/>
-      <c r="Q20" s="10">
-        <v>1</v>
-      </c>
-      <c r="R20" s="1"/>
-      <c r="S20" s="1"/>
-      <c r="T20" s="1"/>
-      <c r="U20" s="1"/>
-      <c r="V20" s="10">
-        <v>1</v>
-      </c>
-      <c r="W20" s="1"/>
-      <c r="X20" s="1"/>
-      <c r="Y20" s="6"/>
-      <c r="AE20" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
-      </c>
-      <c r="AF20" t="str">
-        <f t="shared" si="1"/>
-        <v>08</v>
+        <v>00</v>
       </c>
     </row>
     <row r="21" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J21" s="5"/>
-      <c r="K21" s="1"/>
-      <c r="L21" s="1"/>
-      <c r="M21" s="1"/>
-      <c r="N21" s="1"/>
-      <c r="O21" s="1"/>
-      <c r="P21" s="1"/>
-      <c r="Q21" s="10">
-        <v>1</v>
-      </c>
-      <c r="R21" s="1"/>
-      <c r="S21" s="1"/>
-      <c r="T21" s="1"/>
-      <c r="U21" s="1"/>
-      <c r="V21" s="10">
-        <v>1</v>
-      </c>
-      <c r="W21" s="1"/>
-      <c r="X21" s="1"/>
-      <c r="Y21" s="6"/>
+      <c r="J21" s="2"/>
+      <c r="K21" s="3"/>
+      <c r="L21" s="3"/>
+      <c r="M21" s="3"/>
+      <c r="N21" s="3"/>
+      <c r="O21" s="3"/>
+      <c r="P21" s="3"/>
+      <c r="Q21" s="3"/>
+      <c r="R21" s="3"/>
+      <c r="S21" s="3"/>
+      <c r="T21" s="3"/>
+      <c r="U21" s="3"/>
+      <c r="V21" s="3"/>
+      <c r="W21" s="3"/>
+      <c r="X21" s="3"/>
+      <c r="Y21" s="4"/>
       <c r="AE21" t="str">
-        <f t="shared" si="0"/>
-        <v>01</v>
+        <f>DEC2HEX(J21*128+K21*64+L21*32+M21*16+N21*8+O21*4+P21*2+Q21*1, 2)</f>
+        <v>00</v>
       </c>
       <c r="AF21" t="str">
-        <f t="shared" si="1"/>
-        <v>08</v>
+        <f>DEC2HEX(R21*128+S21*64+T21*32+U21*16+V21*8+W21*4+X21*2+Y21*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI21" t="str">
+        <f>"0x"&amp;AE21&amp;",0x"&amp;AF21&amp;",0x"&amp;AE22&amp;",0x"&amp;AF22&amp;",0x"&amp;AE23&amp;",0x"&amp;AF23&amp;",0x"&amp;AE24&amp;",0x"&amp;AF24&amp;",0x"&amp;AE25&amp;",0x"&amp;AF25&amp;",0x"&amp;AE26&amp;",0x"&amp;AF26&amp;",0x"&amp;AE27&amp;",0x"&amp;AF27&amp;",0x"&amp;AE28&amp;",0x"&amp;AF28&amp;","</f>
+        <v>0x00,0x00,0x0F,0x80,0x1F,0xE0,0x3F,0xF0,0x35,0x78,0x60,0x38,0x48,0x9C,0x42,0x1C,</v>
       </c>
     </row>
     <row r="22" spans="10:35" x14ac:dyDescent="0.4">
@@ -850,7 +1078,9 @@
       <c r="Q22" s="10">
         <v>1</v>
       </c>
-      <c r="R22" s="1"/>
+      <c r="R22" s="10">
+        <v>1</v>
+      </c>
       <c r="S22" s="1"/>
       <c r="T22" s="1"/>
       <c r="U22" s="1"/>
@@ -859,12 +1089,16 @@
       <c r="X22" s="1"/>
       <c r="Y22" s="6"/>
       <c r="AE22" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" ref="AE22:AE36" si="2">DEC2HEX(J22*128+K22*64+L22*32+M22*16+N22*8+O22*4+P22*2+Q22*1, 2)</f>
         <v>0F</v>
       </c>
       <c r="AF22" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
+        <f t="shared" ref="AF22:AF36" si="3">DEC2HEX(R22*128+S22*64+T22*32+U22*16+V22*8+W22*4+X22*2+Y22*1, 2)</f>
+        <v>80</v>
+      </c>
+      <c r="AI22" t="str">
+        <f>"0x"&amp;AE29&amp;",0x"&amp;AF29&amp;",0x"&amp;AE30&amp;",0x"&amp;AF30&amp;",0x"&amp;AE31&amp;",0x"&amp;AF31&amp;",0x"&amp;AE32&amp;",0x"&amp;AF32&amp;",0x"&amp;AE33&amp;",0x"&amp;AF33&amp;",0x"&amp;AE34&amp;",0x"&amp;AF34&amp;",0x"&amp;AE35&amp;",0x"&amp;AF35&amp;",0x"&amp;AE36&amp;",0x"&amp;AF36&amp;","</f>
+        <v>0x40,0x1E,0x21,0x3E,0x27,0x3E,0x10,0x5C,0x08,0x8E,0x38,0xE4,0x5F,0xD0,0x00,0x00,</v>
       </c>
     </row>
     <row r="23" spans="10:35" x14ac:dyDescent="0.4">
@@ -883,22 +1117,30 @@
       <c r="P23" s="10">
         <v>1</v>
       </c>
-      <c r="Q23" s="1"/>
-      <c r="R23" s="1"/>
-      <c r="S23" s="1"/>
-      <c r="T23" s="1"/>
+      <c r="Q23" s="10">
+        <v>1</v>
+      </c>
+      <c r="R23" s="10">
+        <v>1</v>
+      </c>
+      <c r="S23" s="10">
+        <v>1</v>
+      </c>
+      <c r="T23" s="10">
+        <v>1</v>
+      </c>
       <c r="U23" s="1"/>
       <c r="V23" s="1"/>
       <c r="W23" s="1"/>
       <c r="X23" s="1"/>
       <c r="Y23" s="6"/>
       <c r="AE23" t="str">
-        <f t="shared" si="0"/>
-        <v>1E</v>
+        <f t="shared" si="2"/>
+        <v>1F</v>
       </c>
       <c r="AF23" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
+        <f t="shared" si="3"/>
+        <v>E0</v>
       </c>
     </row>
     <row r="24" spans="10:35" x14ac:dyDescent="0.4">
@@ -922,21 +1164,29 @@
       <c r="Q24" s="10">
         <v>1</v>
       </c>
-      <c r="R24" s="1"/>
-      <c r="S24" s="1"/>
-      <c r="T24" s="1"/>
-      <c r="U24" s="1"/>
+      <c r="R24" s="10">
+        <v>1</v>
+      </c>
+      <c r="S24" s="10">
+        <v>1</v>
+      </c>
+      <c r="T24" s="10">
+        <v>1</v>
+      </c>
+      <c r="U24" s="10">
+        <v>1</v>
+      </c>
       <c r="V24" s="1"/>
       <c r="W24" s="1"/>
       <c r="X24" s="1"/>
       <c r="Y24" s="6"/>
       <c r="AE24" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
         <v>3F</v>
       </c>
       <c r="AF24" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
+        <f t="shared" si="3"/>
+        <v>F0</v>
       </c>
     </row>
     <row r="25" spans="10:35" x14ac:dyDescent="0.4">
@@ -948,129 +1198,232 @@
       <c r="M25" s="10">
         <v>1</v>
       </c>
-      <c r="N25" s="10">
-        <v>1</v>
-      </c>
+      <c r="N25" s="1"/>
       <c r="O25" s="10">
         <v>1</v>
       </c>
-      <c r="P25" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q25" s="1"/>
+      <c r="P25" s="1"/>
+      <c r="Q25" s="10">
+        <v>1</v>
+      </c>
       <c r="R25" s="1"/>
-      <c r="S25" s="1"/>
-      <c r="T25" s="1"/>
-      <c r="U25" s="1"/>
-      <c r="V25" s="1"/>
+      <c r="S25" s="10">
+        <v>1</v>
+      </c>
+      <c r="T25" s="10">
+        <v>1</v>
+      </c>
+      <c r="U25" s="10">
+        <v>1</v>
+      </c>
+      <c r="V25" s="10">
+        <v>1</v>
+      </c>
       <c r="W25" s="1"/>
       <c r="X25" s="1"/>
       <c r="Y25" s="6"/>
       <c r="AE25" t="str">
-        <f t="shared" si="0"/>
-        <v>3E</v>
+        <f t="shared" si="2"/>
+        <v>35</v>
       </c>
       <c r="AF25" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
+        <f t="shared" si="3"/>
+        <v>78</v>
       </c>
     </row>
     <row r="26" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J26" s="5"/>
-      <c r="K26" s="1"/>
-      <c r="L26" s="1"/>
-      <c r="M26" s="10">
-        <v>1</v>
-      </c>
-      <c r="N26" s="10">
-        <v>1</v>
-      </c>
-      <c r="O26" s="10">
-        <v>1</v>
-      </c>
+      <c r="K26" s="10">
+        <v>1</v>
+      </c>
+      <c r="L26" s="10">
+        <v>1</v>
+      </c>
+      <c r="M26" s="1"/>
+      <c r="N26" s="1"/>
+      <c r="O26" s="1"/>
       <c r="P26" s="1"/>
       <c r="Q26" s="1"/>
       <c r="R26" s="1"/>
       <c r="S26" s="1"/>
-      <c r="T26" s="1"/>
-      <c r="U26" s="1"/>
-      <c r="V26" s="1"/>
+      <c r="T26" s="10">
+        <v>1</v>
+      </c>
+      <c r="U26" s="10">
+        <v>1</v>
+      </c>
+      <c r="V26" s="10">
+        <v>1</v>
+      </c>
       <c r="W26" s="1"/>
       <c r="X26" s="1"/>
       <c r="Y26" s="6"/>
       <c r="AE26" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="2"/>
+        <v>60</v>
+      </c>
+      <c r="AF26" t="str">
+        <f t="shared" si="3"/>
+        <v>38</v>
+      </c>
+    </row>
+    <row r="27" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J27" s="5"/>
+      <c r="K27" s="10">
+        <v>1</v>
+      </c>
+      <c r="L27" s="1"/>
+      <c r="M27" s="1"/>
+      <c r="N27" s="10">
+        <v>1</v>
+      </c>
+      <c r="O27" s="1"/>
+      <c r="P27" s="1"/>
+      <c r="Q27" s="1"/>
+      <c r="R27" s="10">
+        <v>1</v>
+      </c>
+      <c r="S27" s="1"/>
+      <c r="T27" s="1"/>
+      <c r="U27" s="10">
+        <v>1</v>
+      </c>
+      <c r="V27" s="10">
+        <v>1</v>
+      </c>
+      <c r="W27" s="10">
+        <v>1</v>
+      </c>
+      <c r="X27" s="1"/>
+      <c r="Y27" s="6"/>
+      <c r="AE27" t="str">
+        <f t="shared" si="2"/>
+        <v>48</v>
+      </c>
+      <c r="AF27" t="str">
+        <f t="shared" si="3"/>
+        <v>9C</v>
+      </c>
+    </row>
+    <row r="28" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J28" s="5"/>
+      <c r="K28" s="10">
+        <v>1</v>
+      </c>
+      <c r="L28" s="1"/>
+      <c r="M28" s="1"/>
+      <c r="N28" s="1"/>
+      <c r="O28" s="1"/>
+      <c r="P28" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q28" s="1"/>
+      <c r="R28" s="1"/>
+      <c r="S28" s="1"/>
+      <c r="T28" s="1"/>
+      <c r="U28" s="10">
+        <v>1</v>
+      </c>
+      <c r="V28" s="10">
+        <v>1</v>
+      </c>
+      <c r="W28" s="10">
+        <v>1</v>
+      </c>
+      <c r="X28" s="1"/>
+      <c r="Y28" s="6"/>
+      <c r="AE28" t="str">
+        <f t="shared" si="2"/>
+        <v>42</v>
+      </c>
+      <c r="AF28" t="str">
+        <f t="shared" si="3"/>
         <v>1C</v>
       </c>
-      <c r="AF26" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="27" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J27" s="7"/>
-      <c r="K27" s="8"/>
-      <c r="L27" s="8"/>
-      <c r="M27" s="8"/>
-      <c r="N27" s="8"/>
-      <c r="O27" s="8"/>
-      <c r="P27" s="8"/>
-      <c r="Q27" s="8"/>
-      <c r="R27" s="8"/>
-      <c r="S27" s="8"/>
-      <c r="T27" s="8"/>
-      <c r="U27" s="8"/>
-      <c r="V27" s="8"/>
-      <c r="W27" s="8"/>
-      <c r="X27" s="8"/>
-      <c r="Y27" s="9"/>
-      <c r="AE27" t="str">
-        <f t="shared" si="0"/>
-        <v>00</v>
-      </c>
-      <c r="AF27" t="str">
-        <f t="shared" si="1"/>
-        <v>00</v>
+    </row>
+    <row r="29" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J29" s="5"/>
+      <c r="K29" s="10">
+        <v>1</v>
+      </c>
+      <c r="L29" s="1"/>
+      <c r="M29" s="1"/>
+      <c r="N29" s="1"/>
+      <c r="O29" s="1"/>
+      <c r="P29" s="1"/>
+      <c r="Q29" s="1"/>
+      <c r="R29" s="1"/>
+      <c r="S29" s="1"/>
+      <c r="T29" s="1"/>
+      <c r="U29" s="10">
+        <v>1</v>
+      </c>
+      <c r="V29" s="10">
+        <v>1</v>
+      </c>
+      <c r="W29" s="10">
+        <v>1</v>
+      </c>
+      <c r="X29" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="6"/>
+      <c r="AE29" t="str">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="AF29" t="str">
+        <f t="shared" si="3"/>
+        <v>1E</v>
       </c>
     </row>
     <row r="30" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J30" s="2"/>
-      <c r="K30" s="3"/>
-      <c r="L30" s="3"/>
-      <c r="M30" s="3"/>
-      <c r="N30" s="3"/>
-      <c r="O30" s="3"/>
-      <c r="P30" s="3"/>
-      <c r="Q30" s="3"/>
-      <c r="R30" s="3"/>
-      <c r="S30" s="3"/>
-      <c r="T30" s="3"/>
-      <c r="U30" s="3"/>
-      <c r="V30" s="3"/>
-      <c r="W30" s="3"/>
-      <c r="X30" s="3"/>
-      <c r="Y30" s="4"/>
+      <c r="J30" s="5"/>
+      <c r="K30" s="1"/>
+      <c r="L30" s="10">
+        <v>1</v>
+      </c>
+      <c r="M30" s="1"/>
+      <c r="N30" s="1"/>
+      <c r="O30" s="1"/>
+      <c r="P30" s="1"/>
+      <c r="Q30" s="10">
+        <v>1</v>
+      </c>
+      <c r="R30" s="1"/>
+      <c r="S30" s="1"/>
+      <c r="T30" s="10">
+        <v>1</v>
+      </c>
+      <c r="U30" s="10">
+        <v>1</v>
+      </c>
+      <c r="V30" s="10">
+        <v>1</v>
+      </c>
+      <c r="W30" s="10">
+        <v>1</v>
+      </c>
+      <c r="X30" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="6"/>
       <c r="AE30" t="str">
-        <f>DEC2HEX(J30*128+K30*64+L30*32+M30*16+N30*8+O30*4+P30*2+Q30*1, 2)</f>
-        <v>00</v>
+        <f t="shared" si="2"/>
+        <v>21</v>
       </c>
       <c r="AF30" t="str">
-        <f>DEC2HEX(R30*128+S30*64+T30*32+U30*16+V30*8+W30*4+X30*2+Y30*1, 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AI30" t="str">
-        <f>"0x"&amp;AE30&amp;",0x"&amp;AF30&amp;",0x"&amp;AE31&amp;",0x"&amp;AF31&amp;",0x"&amp;AE32&amp;",0x"&amp;AF32&amp;",0x"&amp;AE33&amp;",0x"&amp;AF33&amp;",0x"&amp;AE34&amp;",0x"&amp;AF34&amp;",0x"&amp;AE35&amp;",0x"&amp;AF35&amp;",0x"&amp;AE36&amp;",0x"&amp;AF36&amp;",0x"&amp;AE37&amp;",0x"&amp;AF37&amp;","</f>
-        <v>0x00,0x00,0x0F,0x80,0x1F,0xE0,0x3F,0xF0,0x35,0x78,0x60,0x38,0x48,0x9C,0x42,0x1C,</v>
+        <f t="shared" si="3"/>
+        <v>3E</v>
       </c>
     </row>
     <row r="31" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J31" s="5"/>
       <c r="K31" s="1"/>
-      <c r="L31" s="1"/>
+      <c r="L31" s="10">
+        <v>1</v>
+      </c>
       <c r="M31" s="1"/>
-      <c r="N31" s="10">
-        <v>1</v>
-      </c>
       <c r="O31" s="10">
         <v>1</v>
       </c>
@@ -1080,27 +1433,31 @@
       <c r="Q31" s="10">
         <v>1</v>
       </c>
-      <c r="R31" s="10">
-        <v>1</v>
-      </c>
+      <c r="R31" s="1"/>
       <c r="S31" s="1"/>
-      <c r="T31" s="1"/>
-      <c r="U31" s="1"/>
-      <c r="V31" s="1"/>
-      <c r="W31" s="1"/>
-      <c r="X31" s="1"/>
+      <c r="T31" s="10">
+        <v>1</v>
+      </c>
+      <c r="U31" s="10">
+        <v>1</v>
+      </c>
+      <c r="V31" s="10">
+        <v>1</v>
+      </c>
+      <c r="W31" s="10">
+        <v>1</v>
+      </c>
+      <c r="X31" s="10">
+        <v>1</v>
+      </c>
       <c r="Y31" s="6"/>
       <c r="AE31" t="str">
-        <f t="shared" ref="AE31:AE45" si="2">DEC2HEX(J31*128+K31*64+L31*32+M31*16+N31*8+O31*4+P31*2+Q31*1, 2)</f>
-        <v>0F</v>
+        <f t="shared" si="2"/>
+        <v>27</v>
       </c>
       <c r="AF31" t="str">
-        <f t="shared" ref="AF31:AF45" si="3">DEC2HEX(R31*128+S31*64+T31*32+U31*16+V31*8+W31*4+X31*2+Y31*1, 2)</f>
-        <v>80</v>
-      </c>
-      <c r="AI31" t="str">
-        <f>"0x"&amp;AE38&amp;",0x"&amp;AF38&amp;",0x"&amp;AE39&amp;",0x"&amp;AF39&amp;",0x"&amp;AE40&amp;",0x"&amp;AF40&amp;",0x"&amp;AE41&amp;",0x"&amp;AF41&amp;",0x"&amp;AE42&amp;",0x"&amp;AF42&amp;",0x"&amp;AE43&amp;",0x"&amp;AF43&amp;",0x"&amp;AE44&amp;",0x"&amp;AF44&amp;",0x"&amp;AE45&amp;",0x"&amp;AF45&amp;","</f>
-        <v>0x40,0x1E,0x21,0x3E,0x27,0x3E,0x10,0x5C,0x08,0x8E,0x38,0xE4,0x5F,0xD0,0x00,0x00,</v>
+        <f t="shared" si="3"/>
+        <v>3E</v>
       </c>
     </row>
     <row r="32" spans="10:35" x14ac:dyDescent="0.4">
@@ -1110,85 +1467,69 @@
       <c r="M32" s="10">
         <v>1</v>
       </c>
-      <c r="N32" s="10">
-        <v>1</v>
-      </c>
-      <c r="O32" s="10">
-        <v>1</v>
-      </c>
-      <c r="P32" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q32" s="10">
-        <v>1</v>
-      </c>
-      <c r="R32" s="10">
-        <v>1</v>
-      </c>
+      <c r="N32" s="1"/>
+      <c r="O32" s="1"/>
+      <c r="P32" s="1"/>
+      <c r="Q32" s="1"/>
+      <c r="R32" s="1"/>
       <c r="S32" s="10">
         <v>1</v>
       </c>
-      <c r="T32" s="10">
-        <v>1</v>
-      </c>
-      <c r="U32" s="1"/>
-      <c r="V32" s="1"/>
-      <c r="W32" s="1"/>
+      <c r="T32" s="1"/>
+      <c r="U32" s="10">
+        <v>1</v>
+      </c>
+      <c r="V32" s="10">
+        <v>1</v>
+      </c>
+      <c r="W32" s="10">
+        <v>1</v>
+      </c>
       <c r="X32" s="1"/>
       <c r="Y32" s="6"/>
       <c r="AE32" t="str">
         <f t="shared" si="2"/>
-        <v>1F</v>
+        <v>10</v>
       </c>
       <c r="AF32" t="str">
         <f t="shared" si="3"/>
-        <v>E0</v>
+        <v>5C</v>
       </c>
     </row>
     <row r="33" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J33" s="5"/>
       <c r="K33" s="1"/>
-      <c r="L33" s="10">
-        <v>1</v>
-      </c>
-      <c r="M33" s="10">
-        <v>1</v>
-      </c>
+      <c r="L33" s="1"/>
+      <c r="M33" s="1"/>
       <c r="N33" s="10">
         <v>1</v>
       </c>
-      <c r="O33" s="10">
-        <v>1</v>
-      </c>
-      <c r="P33" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q33" s="10">
-        <v>1</v>
-      </c>
+      <c r="O33" s="1"/>
+      <c r="P33" s="1"/>
+      <c r="Q33" s="1"/>
       <c r="R33" s="10">
         <v>1</v>
       </c>
-      <c r="S33" s="10">
-        <v>1</v>
-      </c>
-      <c r="T33" s="10">
-        <v>1</v>
-      </c>
-      <c r="U33" s="10">
-        <v>1</v>
-      </c>
-      <c r="V33" s="1"/>
-      <c r="W33" s="1"/>
-      <c r="X33" s="1"/>
+      <c r="S33" s="1"/>
+      <c r="T33" s="1"/>
+      <c r="U33" s="1"/>
+      <c r="V33" s="10">
+        <v>1</v>
+      </c>
+      <c r="W33" s="10">
+        <v>1</v>
+      </c>
+      <c r="X33" s="10">
+        <v>1</v>
+      </c>
       <c r="Y33" s="6"/>
       <c r="AE33" t="str">
         <f t="shared" si="2"/>
-        <v>3F</v>
+        <v>08</v>
       </c>
       <c r="AF33" t="str">
         <f t="shared" si="3"/>
-        <v>F0</v>
+        <v>8E</v>
       </c>
     </row>
     <row r="34" spans="10:35" x14ac:dyDescent="0.4">
@@ -1200,37 +1541,35 @@
       <c r="M34" s="10">
         <v>1</v>
       </c>
-      <c r="N34" s="1"/>
-      <c r="O34" s="10">
-        <v>1</v>
-      </c>
+      <c r="N34" s="10">
+        <v>1</v>
+      </c>
+      <c r="O34" s="1"/>
       <c r="P34" s="1"/>
-      <c r="Q34" s="10">
-        <v>1</v>
-      </c>
-      <c r="R34" s="1"/>
+      <c r="Q34" s="1"/>
+      <c r="R34" s="10">
+        <v>1</v>
+      </c>
       <c r="S34" s="10">
         <v>1</v>
       </c>
       <c r="T34" s="10">
         <v>1</v>
       </c>
-      <c r="U34" s="10">
-        <v>1</v>
-      </c>
-      <c r="V34" s="10">
-        <v>1</v>
-      </c>
-      <c r="W34" s="1"/>
+      <c r="U34" s="1"/>
+      <c r="V34" s="1"/>
+      <c r="W34" s="10">
+        <v>1</v>
+      </c>
       <c r="X34" s="1"/>
       <c r="Y34" s="6"/>
       <c r="AE34" t="str">
         <f t="shared" si="2"/>
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="AF34" t="str">
         <f t="shared" si="3"/>
-        <v>78</v>
+        <v>E4</v>
       </c>
     </row>
     <row r="35" spans="10:35" x14ac:dyDescent="0.4">
@@ -1238,305 +1577,210 @@
       <c r="K35" s="10">
         <v>1</v>
       </c>
-      <c r="L35" s="10">
-        <v>1</v>
-      </c>
-      <c r="M35" s="1"/>
-      <c r="N35" s="1"/>
-      <c r="O35" s="1"/>
-      <c r="P35" s="1"/>
-      <c r="Q35" s="1"/>
-      <c r="R35" s="1"/>
-      <c r="S35" s="1"/>
-      <c r="T35" s="10">
-        <v>1</v>
-      </c>
+      <c r="L35" s="1"/>
+      <c r="M35" s="10">
+        <v>1</v>
+      </c>
+      <c r="N35" s="10">
+        <v>1</v>
+      </c>
+      <c r="O35" s="10">
+        <v>1</v>
+      </c>
+      <c r="P35" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>1</v>
+      </c>
+      <c r="R35" s="10">
+        <v>1</v>
+      </c>
+      <c r="S35" s="10">
+        <v>1</v>
+      </c>
+      <c r="T35" s="1"/>
       <c r="U35" s="10">
         <v>1</v>
       </c>
-      <c r="V35" s="10">
-        <v>1</v>
-      </c>
+      <c r="V35" s="1"/>
       <c r="W35" s="1"/>
       <c r="X35" s="1"/>
       <c r="Y35" s="6"/>
       <c r="AE35" t="str">
         <f t="shared" si="2"/>
-        <v>60</v>
+        <v>5F</v>
       </c>
       <c r="AF35" t="str">
         <f t="shared" si="3"/>
-        <v>38</v>
+        <v>D0</v>
       </c>
     </row>
     <row r="36" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J36" s="5"/>
-      <c r="K36" s="10">
-        <v>1</v>
-      </c>
-      <c r="L36" s="1"/>
-      <c r="M36" s="1"/>
-      <c r="N36" s="10">
-        <v>1</v>
-      </c>
-      <c r="O36" s="1"/>
-      <c r="P36" s="1"/>
-      <c r="Q36" s="1"/>
-      <c r="R36" s="10">
-        <v>1</v>
-      </c>
-      <c r="S36" s="1"/>
-      <c r="T36" s="1"/>
-      <c r="U36" s="10">
-        <v>1</v>
-      </c>
-      <c r="V36" s="10">
-        <v>1</v>
-      </c>
-      <c r="W36" s="10">
-        <v>1</v>
-      </c>
-      <c r="X36" s="1"/>
-      <c r="Y36" s="6"/>
+      <c r="J36" s="7"/>
+      <c r="K36" s="8"/>
+      <c r="L36" s="8"/>
+      <c r="M36" s="8"/>
+      <c r="N36" s="8"/>
+      <c r="O36" s="8"/>
+      <c r="P36" s="8"/>
+      <c r="Q36" s="8"/>
+      <c r="R36" s="8"/>
+      <c r="S36" s="8"/>
+      <c r="T36" s="8"/>
+      <c r="U36" s="8"/>
+      <c r="V36" s="8"/>
+      <c r="W36" s="8"/>
+      <c r="X36" s="8"/>
+      <c r="Y36" s="9"/>
       <c r="AE36" t="str">
         <f t="shared" si="2"/>
-        <v>48</v>
+        <v>00</v>
       </c>
       <c r="AF36" t="str">
         <f t="shared" si="3"/>
-        <v>9C</v>
-      </c>
-    </row>
-    <row r="37" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J37" s="5"/>
-      <c r="K37" s="10">
-        <v>1</v>
-      </c>
-      <c r="L37" s="1"/>
-      <c r="M37" s="1"/>
-      <c r="N37" s="1"/>
-      <c r="O37" s="1"/>
-      <c r="P37" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q37" s="1"/>
-      <c r="R37" s="1"/>
-      <c r="S37" s="1"/>
-      <c r="T37" s="1"/>
-      <c r="U37" s="10">
-        <v>1</v>
-      </c>
-      <c r="V37" s="10">
-        <v>1</v>
-      </c>
-      <c r="W37" s="10">
-        <v>1</v>
-      </c>
-      <c r="X37" s="1"/>
-      <c r="Y37" s="6"/>
-      <c r="AE37" t="str">
-        <f t="shared" si="2"/>
-        <v>42</v>
-      </c>
-      <c r="AF37" t="str">
-        <f t="shared" si="3"/>
-        <v>1C</v>
-      </c>
-    </row>
-    <row r="38" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J38" s="5"/>
-      <c r="K38" s="10">
-        <v>1</v>
-      </c>
-      <c r="L38" s="1"/>
-      <c r="M38" s="1"/>
-      <c r="N38" s="1"/>
-      <c r="O38" s="1"/>
-      <c r="P38" s="1"/>
-      <c r="Q38" s="1"/>
-      <c r="R38" s="1"/>
-      <c r="S38" s="1"/>
-      <c r="T38" s="1"/>
-      <c r="U38" s="10">
-        <v>1</v>
-      </c>
-      <c r="V38" s="10">
-        <v>1</v>
-      </c>
-      <c r="W38" s="10">
-        <v>1</v>
-      </c>
-      <c r="X38" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y38" s="6"/>
-      <c r="AE38" t="str">
-        <f t="shared" si="2"/>
-        <v>40</v>
-      </c>
-      <c r="AF38" t="str">
-        <f t="shared" si="3"/>
-        <v>1E</v>
+        <v>00</v>
       </c>
     </row>
     <row r="39" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J39" s="5"/>
-      <c r="K39" s="1"/>
-      <c r="L39" s="10">
-        <v>1</v>
-      </c>
-      <c r="M39" s="1"/>
-      <c r="N39" s="1"/>
-      <c r="O39" s="1"/>
-      <c r="P39" s="1"/>
-      <c r="Q39" s="10">
-        <v>1</v>
-      </c>
-      <c r="R39" s="1"/>
-      <c r="S39" s="1"/>
-      <c r="T39" s="10">
-        <v>1</v>
-      </c>
-      <c r="U39" s="10">
-        <v>1</v>
-      </c>
-      <c r="V39" s="10">
-        <v>1</v>
-      </c>
-      <c r="W39" s="10">
-        <v>1</v>
-      </c>
-      <c r="X39" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y39" s="6"/>
+      <c r="J39" s="2"/>
+      <c r="K39" s="3"/>
+      <c r="L39" s="3"/>
+      <c r="M39" s="3"/>
+      <c r="N39" s="3"/>
+      <c r="O39" s="3"/>
+      <c r="P39" s="3"/>
+      <c r="Q39" s="3"/>
+      <c r="R39" s="3"/>
+      <c r="S39" s="3"/>
+      <c r="T39" s="3"/>
+      <c r="U39" s="3"/>
+      <c r="V39" s="3"/>
+      <c r="W39" s="3"/>
+      <c r="X39" s="3"/>
+      <c r="Y39" s="4"/>
       <c r="AE39" t="str">
-        <f t="shared" si="2"/>
-        <v>21</v>
+        <f>DEC2HEX(J39*128+K39*64+L39*32+M39*16+N39*8+O39*4+P39*2+Q39*1, 2)</f>
+        <v>00</v>
       </c>
       <c r="AF39" t="str">
-        <f t="shared" si="3"/>
-        <v>3E</v>
+        <f>DEC2HEX(R39*128+S39*64+T39*32+U39*16+V39*8+W39*4+X39*2+Y39*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI39" t="str">
+        <f>"0x"&amp;AE39&amp;",0x"&amp;AF39&amp;",0x"&amp;AE40&amp;",0x"&amp;AF40&amp;",0x"&amp;AE41&amp;",0x"&amp;AF41&amp;",0x"&amp;AE42&amp;",0x"&amp;AF42&amp;",0x"&amp;AE43&amp;",0x"&amp;AF43&amp;",0x"&amp;AE44&amp;",0x"&amp;AF44&amp;",0x"&amp;AE45&amp;",0x"&amp;AF45&amp;",0x"&amp;AE46&amp;",0x"&amp;AF46&amp;","</f>
+        <v>0x00,0x00,0x00,0xF0,0x07,0x10,0x18,0x10,0x7F,0xFC,0x40,0x04,0x41,0x04,0x42,0x84,</v>
       </c>
     </row>
     <row r="40" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J40" s="5"/>
       <c r="K40" s="1"/>
-      <c r="L40" s="10">
-        <v>1</v>
-      </c>
+      <c r="L40" s="1"/>
       <c r="M40" s="1"/>
-      <c r="O40" s="10">
-        <v>1</v>
-      </c>
-      <c r="P40" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q40" s="10">
-        <v>1</v>
-      </c>
-      <c r="R40" s="1"/>
-      <c r="S40" s="1"/>
+      <c r="N40" s="1"/>
+      <c r="O40" s="1"/>
+      <c r="P40" s="1"/>
+      <c r="Q40" s="1"/>
+      <c r="R40" s="10">
+        <v>1</v>
+      </c>
+      <c r="S40" s="10">
+        <v>1</v>
+      </c>
       <c r="T40" s="10">
         <v>1</v>
       </c>
       <c r="U40" s="10">
         <v>1</v>
       </c>
-      <c r="V40" s="10">
-        <v>1</v>
-      </c>
-      <c r="W40" s="10">
-        <v>1</v>
-      </c>
-      <c r="X40" s="10">
-        <v>1</v>
-      </c>
+      <c r="V40" s="1"/>
+      <c r="W40" s="1"/>
+      <c r="X40" s="1"/>
       <c r="Y40" s="6"/>
       <c r="AE40" t="str">
-        <f t="shared" si="2"/>
-        <v>27</v>
+        <f t="shared" ref="AE40:AE54" si="4">DEC2HEX(J40*128+K40*64+L40*32+M40*16+N40*8+O40*4+P40*2+Q40*1, 2)</f>
+        <v>00</v>
       </c>
       <c r="AF40" t="str">
-        <f t="shared" si="3"/>
-        <v>3E</v>
+        <f t="shared" ref="AF40:AF54" si="5">DEC2HEX(R40*128+S40*64+T40*32+U40*16+V40*8+W40*4+X40*2+Y40*1, 2)</f>
+        <v>F0</v>
+      </c>
+      <c r="AI40" t="str">
+        <f>"0x"&amp;AE47&amp;",0x"&amp;AF47&amp;",0x"&amp;AE48&amp;",0x"&amp;AF48&amp;",0x"&amp;AE49&amp;",0x"&amp;AF49&amp;",0x"&amp;AE50&amp;",0x"&amp;AF50&amp;",0x"&amp;AE51&amp;",0x"&amp;AF51&amp;",0x"&amp;AE52&amp;",0x"&amp;AF52&amp;",0x"&amp;AE53&amp;",0x"&amp;AF53&amp;",0x"&amp;AE54&amp;",0x"&amp;AF54&amp;","</f>
+        <v>0x4E,0x64,0x54,0x54,0x68,0x2C,0x4F,0xE4,0x40,0x04,0x40,0x04,0x7F,0xFC,0x00,0x00,</v>
       </c>
     </row>
     <row r="41" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J41" s="5"/>
       <c r="K41" s="1"/>
       <c r="L41" s="1"/>
-      <c r="M41" s="10">
-        <v>1</v>
-      </c>
+      <c r="M41" s="1"/>
       <c r="N41" s="1"/>
-      <c r="O41" s="1"/>
-      <c r="P41" s="1"/>
-      <c r="Q41" s="1"/>
+      <c r="O41" s="10">
+        <v>1</v>
+      </c>
+      <c r="P41" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>1</v>
+      </c>
       <c r="R41" s="1"/>
-      <c r="S41" s="10">
-        <v>1</v>
-      </c>
+      <c r="S41" s="1"/>
       <c r="T41" s="1"/>
       <c r="U41" s="10">
         <v>1</v>
       </c>
-      <c r="V41" s="10">
-        <v>1</v>
-      </c>
-      <c r="W41" s="10">
-        <v>1</v>
-      </c>
+      <c r="V41" s="1"/>
+      <c r="W41" s="1"/>
       <c r="X41" s="1"/>
       <c r="Y41" s="6"/>
       <c r="AE41" t="str">
-        <f t="shared" si="2"/>
+        <f t="shared" si="4"/>
+        <v>07</v>
+      </c>
+      <c r="AF41" t="str">
+        <f t="shared" si="5"/>
         <v>10</v>
-      </c>
-      <c r="AF41" t="str">
-        <f t="shared" si="3"/>
-        <v>5C</v>
       </c>
     </row>
     <row r="42" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J42" s="5"/>
       <c r="K42" s="1"/>
       <c r="L42" s="1"/>
-      <c r="M42" s="1"/>
+      <c r="M42" s="10">
+        <v>1</v>
+      </c>
       <c r="N42" s="10">
         <v>1</v>
       </c>
       <c r="O42" s="1"/>
       <c r="P42" s="1"/>
       <c r="Q42" s="1"/>
-      <c r="R42" s="10">
-        <v>1</v>
-      </c>
+      <c r="R42" s="1"/>
       <c r="S42" s="1"/>
       <c r="T42" s="1"/>
-      <c r="U42" s="1"/>
-      <c r="V42" s="10">
-        <v>1</v>
-      </c>
-      <c r="W42" s="10">
-        <v>1</v>
-      </c>
-      <c r="X42" s="10">
-        <v>1</v>
-      </c>
+      <c r="U42" s="10">
+        <v>1</v>
+      </c>
+      <c r="V42" s="1"/>
+      <c r="W42" s="1"/>
+      <c r="X42" s="1"/>
       <c r="Y42" s="6"/>
       <c r="AE42" t="str">
-        <f t="shared" si="2"/>
-        <v>08</v>
+        <f t="shared" si="4"/>
+        <v>18</v>
       </c>
       <c r="AF42" t="str">
-        <f t="shared" si="3"/>
-        <v>8E</v>
+        <f t="shared" si="5"/>
+        <v>10</v>
       </c>
     </row>
     <row r="43" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J43" s="5"/>
-      <c r="K43" s="1"/>
+      <c r="K43" s="10">
+        <v>1</v>
+      </c>
       <c r="L43" s="10">
         <v>1</v>
       </c>
@@ -1546,9 +1790,15 @@
       <c r="N43" s="10">
         <v>1</v>
       </c>
-      <c r="O43" s="1"/>
-      <c r="P43" s="1"/>
-      <c r="Q43" s="1"/>
+      <c r="O43" s="10">
+        <v>1</v>
+      </c>
+      <c r="P43" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q43" s="10">
+        <v>1</v>
+      </c>
       <c r="R43" s="10">
         <v>1</v>
       </c>
@@ -1558,20 +1808,24 @@
       <c r="T43" s="10">
         <v>1</v>
       </c>
-      <c r="U43" s="1"/>
-      <c r="V43" s="1"/>
+      <c r="U43" s="10">
+        <v>1</v>
+      </c>
+      <c r="V43" s="10">
+        <v>1</v>
+      </c>
       <c r="W43" s="10">
         <v>1</v>
       </c>
       <c r="X43" s="1"/>
       <c r="Y43" s="6"/>
       <c r="AE43" t="str">
-        <f t="shared" si="2"/>
-        <v>38</v>
+        <f t="shared" si="4"/>
+        <v>7F</v>
       </c>
       <c r="AF43" t="str">
-        <f t="shared" si="3"/>
-        <v>E4</v>
+        <f t="shared" si="5"/>
+        <v>FC</v>
       </c>
     </row>
     <row r="44" spans="10:35" x14ac:dyDescent="0.4">
@@ -1580,144 +1834,221 @@
         <v>1</v>
       </c>
       <c r="L44" s="1"/>
-      <c r="M44" s="10">
-        <v>1</v>
-      </c>
-      <c r="N44" s="10">
-        <v>1</v>
-      </c>
-      <c r="O44" s="10">
-        <v>1</v>
-      </c>
-      <c r="P44" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q44" s="10">
-        <v>1</v>
-      </c>
-      <c r="R44" s="10">
-        <v>1</v>
-      </c>
-      <c r="S44" s="10">
-        <v>1</v>
-      </c>
+      <c r="M44" s="1"/>
+      <c r="N44" s="1"/>
+      <c r="O44" s="1"/>
+      <c r="P44" s="1"/>
+      <c r="Q44" s="1"/>
+      <c r="R44" s="1"/>
+      <c r="S44" s="1"/>
       <c r="T44" s="1"/>
-      <c r="U44" s="10">
-        <v>1</v>
-      </c>
+      <c r="U44" s="1"/>
       <c r="V44" s="1"/>
-      <c r="W44" s="1"/>
+      <c r="W44" s="10">
+        <v>1</v>
+      </c>
       <c r="X44" s="1"/>
       <c r="Y44" s="6"/>
       <c r="AE44" t="str">
-        <f t="shared" si="2"/>
-        <v>5F</v>
+        <f t="shared" si="4"/>
+        <v>40</v>
       </c>
       <c r="AF44" t="str">
-        <f t="shared" si="3"/>
-        <v>D0</v>
+        <f t="shared" si="5"/>
+        <v>04</v>
       </c>
     </row>
     <row r="45" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J45" s="7"/>
-      <c r="K45" s="8"/>
-      <c r="L45" s="8"/>
-      <c r="M45" s="8"/>
-      <c r="N45" s="8"/>
-      <c r="O45" s="8"/>
-      <c r="P45" s="8"/>
-      <c r="Q45" s="8"/>
-      <c r="R45" s="8"/>
-      <c r="S45" s="8"/>
-      <c r="T45" s="8"/>
-      <c r="U45" s="8"/>
-      <c r="V45" s="8"/>
-      <c r="W45" s="8"/>
-      <c r="X45" s="8"/>
-      <c r="Y45" s="9"/>
+      <c r="J45" s="5"/>
+      <c r="K45" s="10">
+        <v>1</v>
+      </c>
+      <c r="L45" s="1"/>
+      <c r="M45" s="1"/>
+      <c r="N45" s="1"/>
+      <c r="O45" s="1"/>
+      <c r="P45" s="1"/>
+      <c r="Q45" s="10">
+        <v>1</v>
+      </c>
+      <c r="R45" s="1"/>
+      <c r="S45" s="1"/>
+      <c r="T45" s="1"/>
+      <c r="U45" s="1"/>
+      <c r="V45" s="1"/>
+      <c r="W45" s="10">
+        <v>1</v>
+      </c>
+      <c r="X45" s="1"/>
+      <c r="Y45" s="6"/>
       <c r="AE45" t="str">
-        <f t="shared" si="2"/>
-        <v>00</v>
+        <f t="shared" si="4"/>
+        <v>41</v>
       </c>
       <c r="AF45" t="str">
-        <f t="shared" si="3"/>
-        <v>00</v>
+        <f t="shared" si="5"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="46" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J46" s="5"/>
+      <c r="K46" s="10">
+        <v>1</v>
+      </c>
+      <c r="L46" s="1"/>
+      <c r="M46" s="1"/>
+      <c r="N46" s="1"/>
+      <c r="O46" s="1"/>
+      <c r="P46" s="10">
+        <v>1</v>
+      </c>
+      <c r="R46" s="10">
+        <v>1</v>
+      </c>
+      <c r="S46" s="1"/>
+      <c r="T46" s="1"/>
+      <c r="U46" s="1"/>
+      <c r="V46" s="1"/>
+      <c r="W46" s="10">
+        <v>1</v>
+      </c>
+      <c r="X46" s="1"/>
+      <c r="Y46" s="6"/>
+      <c r="AE46" t="str">
+        <f t="shared" si="4"/>
+        <v>42</v>
+      </c>
+      <c r="AF46" t="str">
+        <f t="shared" si="5"/>
+        <v>84</v>
+      </c>
+    </row>
+    <row r="47" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J47" s="5"/>
+      <c r="K47" s="10">
+        <v>1</v>
+      </c>
+      <c r="L47" s="1"/>
+      <c r="M47" s="1"/>
+      <c r="N47" s="10">
+        <v>1</v>
+      </c>
+      <c r="O47" s="10">
+        <v>1</v>
+      </c>
+      <c r="P47" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q47" s="1"/>
+      <c r="R47" s="1"/>
+      <c r="S47" s="10">
+        <v>1</v>
+      </c>
+      <c r="T47" s="10">
+        <v>1</v>
+      </c>
+      <c r="U47" s="1"/>
+      <c r="V47" s="1"/>
+      <c r="W47" s="10">
+        <v>1</v>
+      </c>
+      <c r="X47" s="1"/>
+      <c r="Y47" s="6"/>
+      <c r="AE47" t="str">
+        <f t="shared" si="4"/>
+        <v>4E</v>
+      </c>
+      <c r="AF47" t="str">
+        <f t="shared" si="5"/>
+        <v>64</v>
       </c>
     </row>
     <row r="48" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J48" s="2"/>
-      <c r="K48" s="3"/>
-      <c r="L48" s="3"/>
-      <c r="M48" s="3"/>
-      <c r="N48" s="3"/>
-      <c r="O48" s="3"/>
-      <c r="P48" s="3"/>
-      <c r="Q48" s="3"/>
-      <c r="R48" s="3"/>
-      <c r="S48" s="3"/>
-      <c r="T48" s="3"/>
-      <c r="U48" s="3"/>
-      <c r="V48" s="3"/>
-      <c r="W48" s="3"/>
-      <c r="X48" s="3"/>
-      <c r="Y48" s="4"/>
+      <c r="J48" s="5"/>
+      <c r="K48" s="10">
+        <v>1</v>
+      </c>
+      <c r="L48" s="1"/>
+      <c r="M48" s="10">
+        <v>1</v>
+      </c>
+      <c r="N48" s="1"/>
+      <c r="O48" s="10">
+        <v>1</v>
+      </c>
+      <c r="P48" s="1"/>
+      <c r="Q48" s="1"/>
+      <c r="R48" s="1"/>
+      <c r="S48" s="10">
+        <v>1</v>
+      </c>
+      <c r="T48" s="1"/>
+      <c r="U48" s="10">
+        <v>1</v>
+      </c>
+      <c r="V48" s="1"/>
+      <c r="W48" s="10">
+        <v>1</v>
+      </c>
+      <c r="X48" s="1"/>
+      <c r="Y48" s="6"/>
       <c r="AE48" t="str">
-        <f>DEC2HEX(J48*128+K48*64+L48*32+M48*16+N48*8+O48*4+P48*2+Q48*1, 2)</f>
-        <v>00</v>
+        <f t="shared" si="4"/>
+        <v>54</v>
       </c>
       <c r="AF48" t="str">
-        <f>DEC2HEX(R48*128+S48*64+T48*32+U48*16+V48*8+W48*4+X48*2+Y48*1, 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AI48" t="str">
-        <f>"0x"&amp;AE48&amp;",0x"&amp;AF48&amp;",0x"&amp;AE49&amp;",0x"&amp;AF49&amp;",0x"&amp;AE50&amp;",0x"&amp;AF50&amp;",0x"&amp;AE51&amp;",0x"&amp;AF51&amp;",0x"&amp;AE52&amp;",0x"&amp;AF52&amp;",0x"&amp;AE53&amp;",0x"&amp;AF53&amp;",0x"&amp;AE54&amp;",0x"&amp;AF54&amp;",0x"&amp;AE55&amp;",0x"&amp;AF55&amp;","</f>
-        <v>0x00,0x00,0x00,0xF0,0x07,0x10,0x18,0x10,0x7F,0xFC,0x40,0x04,0x41,0x04,0x42,0x84,</v>
+        <f t="shared" si="5"/>
+        <v>54</v>
       </c>
     </row>
     <row r="49" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J49" s="5"/>
-      <c r="K49" s="1"/>
-      <c r="L49" s="1"/>
+      <c r="K49" s="10">
+        <v>1</v>
+      </c>
+      <c r="L49" s="10">
+        <v>1</v>
+      </c>
       <c r="M49" s="1"/>
-      <c r="N49" s="1"/>
+      <c r="N49" s="10">
+        <v>1</v>
+      </c>
       <c r="O49" s="1"/>
       <c r="P49" s="1"/>
       <c r="Q49" s="1"/>
-      <c r="R49" s="10">
-        <v>1</v>
-      </c>
-      <c r="S49" s="10">
-        <v>1</v>
-      </c>
+      <c r="R49" s="1"/>
+      <c r="S49" s="1"/>
       <c r="T49" s="10">
         <v>1</v>
       </c>
-      <c r="U49" s="10">
-        <v>1</v>
-      </c>
-      <c r="V49" s="1"/>
-      <c r="W49" s="1"/>
+      <c r="U49" s="1"/>
+      <c r="V49" s="10">
+        <v>1</v>
+      </c>
+      <c r="W49" s="10">
+        <v>1</v>
+      </c>
       <c r="X49" s="1"/>
       <c r="Y49" s="6"/>
       <c r="AE49" t="str">
-        <f t="shared" ref="AE49:AE63" si="4">DEC2HEX(J49*128+K49*64+L49*32+M49*16+N49*8+O49*4+P49*2+Q49*1, 2)</f>
-        <v>00</v>
+        <f t="shared" si="4"/>
+        <v>68</v>
       </c>
       <c r="AF49" t="str">
-        <f t="shared" ref="AF49:AF63" si="5">DEC2HEX(R49*128+S49*64+T49*32+U49*16+V49*8+W49*4+X49*2+Y49*1, 2)</f>
-        <v>F0</v>
-      </c>
-      <c r="AI49" t="str">
-        <f>"0x"&amp;AE56&amp;",0x"&amp;AF56&amp;",0x"&amp;AE57&amp;",0x"&amp;AF57&amp;",0x"&amp;AE58&amp;",0x"&amp;AF58&amp;",0x"&amp;AE59&amp;",0x"&amp;AF59&amp;",0x"&amp;AE60&amp;",0x"&amp;AF60&amp;",0x"&amp;AE61&amp;",0x"&amp;AF61&amp;",0x"&amp;AE62&amp;",0x"&amp;AF62&amp;",0x"&amp;AE63&amp;",0x"&amp;AF63&amp;","</f>
-        <v>0x4E,0x64,0x54,0x54,0x68,0x2C,0x4F,0xE4,0x40,0x04,0x40,0x04,0x7F,0xFC,0x00,0x00,</v>
+        <f t="shared" si="5"/>
+        <v>2C</v>
       </c>
     </row>
     <row r="50" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J50" s="5"/>
-      <c r="K50" s="1"/>
+      <c r="K50" s="10">
+        <v>1</v>
+      </c>
       <c r="L50" s="1"/>
       <c r="M50" s="1"/>
-      <c r="N50" s="1"/>
+      <c r="N50" s="10">
+        <v>1</v>
+      </c>
       <c r="O50" s="10">
         <v>1</v>
       </c>
@@ -1727,55 +2058,59 @@
       <c r="Q50" s="10">
         <v>1</v>
       </c>
-      <c r="R50" s="1"/>
-      <c r="S50" s="1"/>
-      <c r="T50" s="1"/>
-      <c r="U50" s="10">
-        <v>1</v>
-      </c>
+      <c r="R50" s="10">
+        <v>1</v>
+      </c>
+      <c r="S50" s="10">
+        <v>1</v>
+      </c>
+      <c r="T50" s="10">
+        <v>1</v>
+      </c>
+      <c r="U50" s="1"/>
       <c r="V50" s="1"/>
-      <c r="W50" s="1"/>
+      <c r="W50" s="10">
+        <v>1</v>
+      </c>
       <c r="X50" s="1"/>
       <c r="Y50" s="6"/>
       <c r="AE50" t="str">
         <f t="shared" si="4"/>
-        <v>07</v>
+        <v>4F</v>
       </c>
       <c r="AF50" t="str">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>E4</v>
       </c>
     </row>
     <row r="51" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J51" s="5"/>
-      <c r="K51" s="1"/>
+      <c r="K51" s="10">
+        <v>1</v>
+      </c>
       <c r="L51" s="1"/>
-      <c r="M51" s="10">
-        <v>1</v>
-      </c>
-      <c r="N51" s="10">
-        <v>1</v>
-      </c>
+      <c r="M51" s="1"/>
+      <c r="N51" s="1"/>
       <c r="O51" s="1"/>
       <c r="P51" s="1"/>
       <c r="Q51" s="1"/>
       <c r="R51" s="1"/>
       <c r="S51" s="1"/>
       <c r="T51" s="1"/>
-      <c r="U51" s="10">
-        <v>1</v>
-      </c>
+      <c r="U51" s="1"/>
       <c r="V51" s="1"/>
-      <c r="W51" s="1"/>
+      <c r="W51" s="10">
+        <v>1</v>
+      </c>
       <c r="X51" s="1"/>
       <c r="Y51" s="6"/>
       <c r="AE51" t="str">
         <f t="shared" si="4"/>
-        <v>18</v>
+        <v>40</v>
       </c>
       <c r="AF51" t="str">
         <f t="shared" si="5"/>
-        <v>10</v>
+        <v>04</v>
       </c>
     </row>
     <row r="52" spans="10:35" x14ac:dyDescent="0.4">
@@ -1783,39 +2118,17 @@
       <c r="K52" s="10">
         <v>1</v>
       </c>
-      <c r="L52" s="10">
-        <v>1</v>
-      </c>
-      <c r="M52" s="10">
-        <v>1</v>
-      </c>
-      <c r="N52" s="10">
-        <v>1</v>
-      </c>
-      <c r="O52" s="10">
-        <v>1</v>
-      </c>
-      <c r="P52" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q52" s="10">
-        <v>1</v>
-      </c>
-      <c r="R52" s="10">
-        <v>1</v>
-      </c>
-      <c r="S52" s="10">
-        <v>1</v>
-      </c>
-      <c r="T52" s="10">
-        <v>1</v>
-      </c>
-      <c r="U52" s="10">
-        <v>1</v>
-      </c>
-      <c r="V52" s="10">
-        <v>1</v>
-      </c>
+      <c r="L52" s="1"/>
+      <c r="M52" s="1"/>
+      <c r="N52" s="1"/>
+      <c r="O52" s="1"/>
+      <c r="P52" s="1"/>
+      <c r="Q52" s="1"/>
+      <c r="R52" s="1"/>
+      <c r="S52" s="1"/>
+      <c r="T52" s="1"/>
+      <c r="U52" s="1"/>
+      <c r="V52" s="1"/>
       <c r="W52" s="10">
         <v>1</v>
       </c>
@@ -1823,11 +2136,11 @@
       <c r="Y52" s="6"/>
       <c r="AE52" t="str">
         <f t="shared" si="4"/>
-        <v>7F</v>
+        <v>40</v>
       </c>
       <c r="AF52" t="str">
         <f t="shared" si="5"/>
-        <v>FC</v>
+        <v>04</v>
       </c>
     </row>
     <row r="53" spans="10:35" x14ac:dyDescent="0.4">
@@ -1835,17 +2148,39 @@
       <c r="K53" s="10">
         <v>1</v>
       </c>
-      <c r="L53" s="1"/>
-      <c r="M53" s="1"/>
-      <c r="N53" s="1"/>
-      <c r="O53" s="1"/>
-      <c r="P53" s="1"/>
-      <c r="Q53" s="1"/>
-      <c r="R53" s="1"/>
-      <c r="S53" s="1"/>
-      <c r="T53" s="1"/>
-      <c r="U53" s="1"/>
-      <c r="V53" s="1"/>
+      <c r="L53" s="10">
+        <v>1</v>
+      </c>
+      <c r="M53" s="10">
+        <v>1</v>
+      </c>
+      <c r="N53" s="10">
+        <v>1</v>
+      </c>
+      <c r="O53" s="10">
+        <v>1</v>
+      </c>
+      <c r="P53" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q53" s="10">
+        <v>1</v>
+      </c>
+      <c r="R53" s="10">
+        <v>1</v>
+      </c>
+      <c r="S53" s="10">
+        <v>1</v>
+      </c>
+      <c r="T53" s="10">
+        <v>1</v>
+      </c>
+      <c r="U53" s="10">
+        <v>1</v>
+      </c>
+      <c r="V53" s="10">
+        <v>1</v>
+      </c>
       <c r="W53" s="10">
         <v>1</v>
       </c>
@@ -1853,192 +2188,109 @@
       <c r="Y53" s="6"/>
       <c r="AE53" t="str">
         <f t="shared" si="4"/>
-        <v>40</v>
+        <v>7F</v>
       </c>
       <c r="AF53" t="str">
         <f t="shared" si="5"/>
-        <v>04</v>
+        <v>FC</v>
       </c>
     </row>
     <row r="54" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J54" s="5"/>
-      <c r="K54" s="10">
-        <v>1</v>
-      </c>
-      <c r="L54" s="1"/>
-      <c r="M54" s="1"/>
-      <c r="N54" s="1"/>
-      <c r="O54" s="1"/>
-      <c r="P54" s="1"/>
-      <c r="Q54" s="10">
-        <v>1</v>
-      </c>
-      <c r="R54" s="1"/>
-      <c r="S54" s="1"/>
-      <c r="T54" s="1"/>
-      <c r="U54" s="1"/>
-      <c r="V54" s="1"/>
-      <c r="W54" s="10">
-        <v>1</v>
-      </c>
-      <c r="X54" s="1"/>
-      <c r="Y54" s="6"/>
+      <c r="J54" s="7"/>
+      <c r="K54" s="8"/>
+      <c r="L54" s="8"/>
+      <c r="M54" s="8"/>
+      <c r="N54" s="8"/>
+      <c r="O54" s="8"/>
+      <c r="P54" s="8"/>
+      <c r="Q54" s="8"/>
+      <c r="R54" s="8"/>
+      <c r="S54" s="8"/>
+      <c r="T54" s="8"/>
+      <c r="U54" s="8"/>
+      <c r="V54" s="8"/>
+      <c r="W54" s="8"/>
+      <c r="X54" s="8"/>
+      <c r="Y54" s="9"/>
       <c r="AE54" t="str">
         <f t="shared" si="4"/>
-        <v>41</v>
+        <v>00</v>
       </c>
       <c r="AF54" t="str">
         <f t="shared" si="5"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="55" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J55" s="5"/>
-      <c r="K55" s="10">
-        <v>1</v>
-      </c>
-      <c r="L55" s="1"/>
-      <c r="M55" s="1"/>
-      <c r="N55" s="1"/>
-      <c r="O55" s="1"/>
-      <c r="P55" s="10">
-        <v>1</v>
-      </c>
-      <c r="R55" s="10">
-        <v>1</v>
-      </c>
-      <c r="S55" s="1"/>
-      <c r="T55" s="1"/>
-      <c r="U55" s="1"/>
-      <c r="V55" s="1"/>
-      <c r="W55" s="10">
-        <v>1</v>
-      </c>
-      <c r="X55" s="1"/>
-      <c r="Y55" s="6"/>
-      <c r="AE55" t="str">
-        <f t="shared" si="4"/>
-        <v>42</v>
-      </c>
-      <c r="AF55" t="str">
-        <f t="shared" si="5"/>
-        <v>84</v>
-      </c>
-    </row>
-    <row r="56" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J56" s="5"/>
-      <c r="K56" s="10">
-        <v>1</v>
-      </c>
-      <c r="L56" s="1"/>
-      <c r="M56" s="1"/>
-      <c r="N56" s="10">
-        <v>1</v>
-      </c>
-      <c r="O56" s="10">
-        <v>1</v>
-      </c>
-      <c r="P56" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q56" s="1"/>
-      <c r="R56" s="1"/>
-      <c r="S56" s="10">
-        <v>1</v>
-      </c>
-      <c r="T56" s="10">
-        <v>1</v>
-      </c>
-      <c r="U56" s="1"/>
-      <c r="V56" s="1"/>
-      <c r="W56" s="10">
-        <v>1</v>
-      </c>
-      <c r="X56" s="1"/>
-      <c r="Y56" s="6"/>
-      <c r="AE56" t="str">
-        <f t="shared" si="4"/>
-        <v>4E</v>
-      </c>
-      <c r="AF56" t="str">
-        <f t="shared" si="5"/>
-        <v>64</v>
+        <v>00</v>
       </c>
     </row>
     <row r="57" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J57" s="5"/>
-      <c r="K57" s="10">
-        <v>1</v>
-      </c>
-      <c r="L57" s="1"/>
-      <c r="M57" s="10">
-        <v>1</v>
-      </c>
-      <c r="N57" s="1"/>
-      <c r="O57" s="10">
-        <v>1</v>
-      </c>
-      <c r="P57" s="1"/>
-      <c r="Q57" s="1"/>
-      <c r="R57" s="1"/>
-      <c r="S57" s="10">
-        <v>1</v>
-      </c>
-      <c r="T57" s="1"/>
-      <c r="U57" s="10">
-        <v>1</v>
-      </c>
-      <c r="V57" s="1"/>
-      <c r="W57" s="10">
-        <v>1</v>
-      </c>
-      <c r="X57" s="1"/>
-      <c r="Y57" s="6"/>
+      <c r="J57" s="2"/>
+      <c r="K57" s="3"/>
+      <c r="L57" s="3"/>
+      <c r="M57" s="3"/>
+      <c r="N57" s="3"/>
+      <c r="O57" s="3"/>
+      <c r="P57" s="3"/>
+      <c r="Q57" s="3"/>
+      <c r="R57" s="3"/>
+      <c r="S57" s="3"/>
+      <c r="T57" s="3"/>
+      <c r="U57" s="3"/>
+      <c r="V57" s="3"/>
+      <c r="W57" s="3"/>
+      <c r="X57" s="3"/>
+      <c r="Y57" s="4"/>
       <c r="AE57" t="str">
-        <f t="shared" si="4"/>
-        <v>54</v>
+        <f>DEC2HEX(J57*128+K57*64+L57*32+M57*16+N57*8+O57*4+P57*2+Q57*1, 2)</f>
+        <v>00</v>
       </c>
       <c r="AF57" t="str">
-        <f t="shared" si="5"/>
-        <v>54</v>
+        <f>DEC2HEX(R57*128+S57*64+T57*32+U57*16+V57*8+W57*4+X57*2+Y57*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI57" t="str">
+        <f>"0x"&amp;AE57&amp;",0x"&amp;AF57&amp;",0x"&amp;AE58&amp;",0x"&amp;AF58&amp;",0x"&amp;AE59&amp;",0x"&amp;AF59&amp;",0x"&amp;AE60&amp;",0x"&amp;AF60&amp;",0x"&amp;AE61&amp;",0x"&amp;AF61&amp;",0x"&amp;AE62&amp;",0x"&amp;AF62&amp;",0x"&amp;AE63&amp;",0x"&amp;AF63&amp;",0x"&amp;AE64&amp;",0x"&amp;AF64&amp;","</f>
+        <v>0x00,0x00,0x3F,0x00,0x61,0x80,0x40,0xC0,0x40,0x7C,0x40,0x06,0x40,0x02,0x40,0x02,</v>
       </c>
     </row>
     <row r="58" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J58" s="5"/>
-      <c r="K58" s="10">
-        <v>1</v>
-      </c>
+      <c r="K58" s="1"/>
       <c r="L58" s="10">
         <v>1</v>
       </c>
-      <c r="M58" s="1"/>
+      <c r="M58" s="10">
+        <v>1</v>
+      </c>
       <c r="N58" s="10">
         <v>1</v>
       </c>
-      <c r="O58" s="1"/>
-      <c r="P58" s="1"/>
-      <c r="Q58" s="1"/>
+      <c r="O58" s="10">
+        <v>1</v>
+      </c>
+      <c r="P58" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q58" s="10">
+        <v>1</v>
+      </c>
       <c r="R58" s="1"/>
       <c r="S58" s="1"/>
-      <c r="T58" s="10">
-        <v>1</v>
-      </c>
+      <c r="T58" s="1"/>
       <c r="U58" s="1"/>
-      <c r="V58" s="10">
-        <v>1</v>
-      </c>
-      <c r="W58" s="10">
-        <v>1</v>
-      </c>
+      <c r="V58" s="1"/>
+      <c r="W58" s="1"/>
       <c r="X58" s="1"/>
       <c r="Y58" s="6"/>
       <c r="AE58" t="str">
-        <f t="shared" si="4"/>
-        <v>68</v>
+        <f t="shared" ref="AE58:AE72" si="6">DEC2HEX(J58*128+K58*64+L58*32+M58*16+N58*8+O58*4+P58*2+Q58*1, 2)</f>
+        <v>3F</v>
       </c>
       <c r="AF58" t="str">
-        <f t="shared" si="5"/>
-        <v>2C</v>
+        <f t="shared" ref="AF58:AF72" si="7">DEC2HEX(R58*128+S58*64+T58*32+U58*16+V58*8+W58*4+X58*2+Y58*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI58" t="str">
+        <f>"0x"&amp;AE65&amp;",0x"&amp;AF65&amp;",0x"&amp;AE66&amp;",0x"&amp;AF66&amp;",0x"&amp;AE67&amp;",0x"&amp;AF67&amp;",0x"&amp;AE68&amp;",0x"&amp;AF68&amp;",0x"&amp;AE69&amp;",0x"&amp;AF69&amp;",0x"&amp;AE70&amp;",0x"&amp;AF70&amp;",0x"&amp;AE71&amp;",0x"&amp;AF71&amp;",0x"&amp;AE72&amp;",0x"&amp;AF72&amp;","</f>
+        <v>0x40,0x02,0x40,0x02,0x40,0x02,0x40,0x02,0x40,0x02,0x40,0x02,0x7F,0xFE,0x00,0x00,</v>
       </c>
     </row>
     <row r="59" spans="10:35" x14ac:dyDescent="0.4">
@@ -2046,43 +2298,33 @@
       <c r="K59" s="10">
         <v>1</v>
       </c>
-      <c r="L59" s="1"/>
+      <c r="L59" s="10">
+        <v>1</v>
+      </c>
       <c r="M59" s="1"/>
-      <c r="N59" s="10">
-        <v>1</v>
-      </c>
-      <c r="O59" s="10">
-        <v>1</v>
-      </c>
-      <c r="P59" s="10">
-        <v>1</v>
-      </c>
+      <c r="N59" s="1"/>
+      <c r="O59" s="1"/>
+      <c r="P59" s="1"/>
       <c r="Q59" s="10">
         <v>1</v>
       </c>
       <c r="R59" s="10">
         <v>1</v>
       </c>
-      <c r="S59" s="10">
-        <v>1</v>
-      </c>
-      <c r="T59" s="10">
-        <v>1</v>
-      </c>
+      <c r="S59" s="1"/>
+      <c r="T59" s="1"/>
       <c r="U59" s="1"/>
       <c r="V59" s="1"/>
-      <c r="W59" s="10">
-        <v>1</v>
-      </c>
+      <c r="W59" s="1"/>
       <c r="X59" s="1"/>
       <c r="Y59" s="6"/>
       <c r="AE59" t="str">
-        <f t="shared" si="4"/>
-        <v>4F</v>
+        <f t="shared" si="6"/>
+        <v>61</v>
       </c>
       <c r="AF59" t="str">
-        <f t="shared" si="5"/>
-        <v>E4</v>
+        <f t="shared" si="7"/>
+        <v>80</v>
       </c>
     </row>
     <row r="60" spans="10:35" x14ac:dyDescent="0.4">
@@ -2096,23 +2338,25 @@
       <c r="O60" s="1"/>
       <c r="P60" s="1"/>
       <c r="Q60" s="1"/>
-      <c r="R60" s="1"/>
-      <c r="S60" s="1"/>
+      <c r="R60" s="10">
+        <v>1</v>
+      </c>
+      <c r="S60" s="10">
+        <v>1</v>
+      </c>
       <c r="T60" s="1"/>
       <c r="U60" s="1"/>
       <c r="V60" s="1"/>
-      <c r="W60" s="10">
-        <v>1</v>
-      </c>
+      <c r="W60" s="1"/>
       <c r="X60" s="1"/>
       <c r="Y60" s="6"/>
       <c r="AE60" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="AF60" t="str">
-        <f t="shared" si="5"/>
-        <v>04</v>
+        <f t="shared" si="7"/>
+        <v>C0</v>
       </c>
     </row>
     <row r="61" spans="10:35" x14ac:dyDescent="0.4">
@@ -2127,22 +2371,30 @@
       <c r="P61" s="1"/>
       <c r="Q61" s="1"/>
       <c r="R61" s="1"/>
-      <c r="S61" s="1"/>
-      <c r="T61" s="1"/>
-      <c r="U61" s="1"/>
-      <c r="V61" s="1"/>
+      <c r="S61" s="10">
+        <v>1</v>
+      </c>
+      <c r="T61" s="10">
+        <v>1</v>
+      </c>
+      <c r="U61" s="10">
+        <v>1</v>
+      </c>
+      <c r="V61" s="10">
+        <v>1</v>
+      </c>
       <c r="W61" s="10">
         <v>1</v>
       </c>
       <c r="X61" s="1"/>
       <c r="Y61" s="6"/>
       <c r="AE61" t="str">
-        <f t="shared" si="4"/>
+        <f t="shared" si="6"/>
         <v>40</v>
       </c>
       <c r="AF61" t="str">
-        <f t="shared" si="5"/>
-        <v>04</v>
+        <f t="shared" si="7"/>
+        <v>7C</v>
       </c>
     </row>
     <row r="62" spans="10:35" x14ac:dyDescent="0.4">
@@ -2150,149 +2402,181 @@
       <c r="K62" s="10">
         <v>1</v>
       </c>
-      <c r="L62" s="10">
-        <v>1</v>
-      </c>
-      <c r="M62" s="10">
-        <v>1</v>
-      </c>
-      <c r="N62" s="10">
-        <v>1</v>
-      </c>
-      <c r="O62" s="10">
-        <v>1</v>
-      </c>
-      <c r="P62" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q62" s="10">
-        <v>1</v>
-      </c>
-      <c r="R62" s="10">
-        <v>1</v>
-      </c>
-      <c r="S62" s="10">
-        <v>1</v>
-      </c>
-      <c r="T62" s="10">
-        <v>1</v>
-      </c>
-      <c r="U62" s="10">
-        <v>1</v>
-      </c>
-      <c r="V62" s="10">
-        <v>1</v>
-      </c>
+      <c r="L62" s="1"/>
+      <c r="M62" s="1"/>
+      <c r="N62" s="1"/>
+      <c r="O62" s="1"/>
+      <c r="P62" s="1"/>
+      <c r="Q62" s="1"/>
+      <c r="R62" s="1"/>
+      <c r="S62" s="1"/>
+      <c r="T62" s="1"/>
+      <c r="U62" s="1"/>
+      <c r="V62" s="1"/>
       <c r="W62" s="10">
         <v>1</v>
       </c>
-      <c r="X62" s="1"/>
+      <c r="X62" s="10">
+        <v>1</v>
+      </c>
       <c r="Y62" s="6"/>
       <c r="AE62" t="str">
-        <f t="shared" si="4"/>
-        <v>7F</v>
+        <f t="shared" si="6"/>
+        <v>40</v>
       </c>
       <c r="AF62" t="str">
-        <f t="shared" si="5"/>
-        <v>FC</v>
+        <f t="shared" si="7"/>
+        <v>06</v>
       </c>
     </row>
     <row r="63" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J63" s="7"/>
-      <c r="K63" s="8"/>
-      <c r="L63" s="8"/>
-      <c r="M63" s="8"/>
-      <c r="N63" s="8"/>
-      <c r="O63" s="8"/>
-      <c r="P63" s="8"/>
-      <c r="Q63" s="8"/>
-      <c r="R63" s="8"/>
-      <c r="S63" s="8"/>
-      <c r="T63" s="8"/>
-      <c r="U63" s="8"/>
-      <c r="V63" s="8"/>
-      <c r="W63" s="8"/>
-      <c r="X63" s="8"/>
-      <c r="Y63" s="9"/>
+      <c r="J63" s="5"/>
+      <c r="K63" s="10">
+        <v>1</v>
+      </c>
+      <c r="L63" s="1"/>
+      <c r="M63" s="1"/>
+      <c r="N63" s="1"/>
+      <c r="O63" s="1"/>
+      <c r="P63" s="1"/>
+      <c r="Q63" s="1"/>
+      <c r="R63" s="1"/>
+      <c r="S63" s="1"/>
+      <c r="T63" s="1"/>
+      <c r="U63" s="1"/>
+      <c r="V63" s="1"/>
+      <c r="W63" s="1"/>
+      <c r="X63" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y63" s="6"/>
       <c r="AE63" t="str">
-        <f t="shared" si="4"/>
-        <v>00</v>
+        <f t="shared" si="6"/>
+        <v>40</v>
       </c>
       <c r="AF63" t="str">
-        <f t="shared" si="5"/>
-        <v>00</v>
+        <f t="shared" si="7"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="64" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J64" s="5"/>
+      <c r="K64" s="10">
+        <v>1</v>
+      </c>
+      <c r="L64" s="1"/>
+      <c r="M64" s="1"/>
+      <c r="N64" s="1"/>
+      <c r="O64" s="1"/>
+      <c r="P64" s="1"/>
+      <c r="Q64" s="1"/>
+      <c r="R64" s="1"/>
+      <c r="S64" s="1"/>
+      <c r="T64" s="1"/>
+      <c r="U64" s="1"/>
+      <c r="V64" s="1"/>
+      <c r="W64" s="1"/>
+      <c r="X64" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y64" s="6"/>
+      <c r="AE64" t="str">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="AF64" t="str">
+        <f t="shared" si="7"/>
+        <v>02</v>
+      </c>
+    </row>
+    <row r="65" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J65" s="5"/>
+      <c r="K65" s="10">
+        <v>1</v>
+      </c>
+      <c r="L65" s="1"/>
+      <c r="M65" s="1"/>
+      <c r="N65" s="1"/>
+      <c r="O65" s="1"/>
+      <c r="P65" s="1"/>
+      <c r="Q65" s="1"/>
+      <c r="R65" s="1"/>
+      <c r="S65" s="1"/>
+      <c r="T65" s="1"/>
+      <c r="U65" s="1"/>
+      <c r="V65" s="1"/>
+      <c r="W65" s="1"/>
+      <c r="X65" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y65" s="6"/>
+      <c r="AE65" t="str">
+        <f t="shared" si="6"/>
+        <v>40</v>
+      </c>
+      <c r="AF65" t="str">
+        <f t="shared" si="7"/>
+        <v>02</v>
       </c>
     </row>
     <row r="66" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J66" s="2"/>
-      <c r="K66" s="3"/>
-      <c r="L66" s="3"/>
-      <c r="M66" s="3"/>
-      <c r="N66" s="3"/>
-      <c r="O66" s="3"/>
-      <c r="P66" s="3"/>
-      <c r="Q66" s="3"/>
-      <c r="R66" s="3"/>
-      <c r="S66" s="3"/>
-      <c r="T66" s="3"/>
-      <c r="U66" s="3"/>
-      <c r="V66" s="3"/>
-      <c r="W66" s="3"/>
-      <c r="X66" s="3"/>
-      <c r="Y66" s="4"/>
+      <c r="J66" s="5"/>
+      <c r="K66" s="10">
+        <v>1</v>
+      </c>
+      <c r="L66" s="1"/>
+      <c r="M66" s="1"/>
+      <c r="N66" s="1"/>
+      <c r="O66" s="1"/>
+      <c r="P66" s="1"/>
+      <c r="Q66" s="1"/>
+      <c r="R66" s="1"/>
+      <c r="S66" s="1"/>
+      <c r="T66" s="1"/>
+      <c r="U66" s="1"/>
+      <c r="V66" s="1"/>
+      <c r="W66" s="1"/>
+      <c r="X66" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y66" s="6"/>
       <c r="AE66" t="str">
-        <f>DEC2HEX(J66*128+K66*64+L66*32+M66*16+N66*8+O66*4+P66*2+Q66*1, 2)</f>
-        <v>00</v>
+        <f t="shared" si="6"/>
+        <v>40</v>
       </c>
       <c r="AF66" t="str">
-        <f>DEC2HEX(R66*128+S66*64+T66*32+U66*16+V66*8+W66*4+X66*2+Y66*1, 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AI66" t="str">
-        <f>"0x"&amp;AE66&amp;",0x"&amp;AF66&amp;",0x"&amp;AE67&amp;",0x"&amp;AF67&amp;",0x"&amp;AE68&amp;",0x"&amp;AF68&amp;",0x"&amp;AE69&amp;",0x"&amp;AF69&amp;",0x"&amp;AE70&amp;",0x"&amp;AF70&amp;",0x"&amp;AE71&amp;",0x"&amp;AF71&amp;",0x"&amp;AE72&amp;",0x"&amp;AF72&amp;",0x"&amp;AE73&amp;",0x"&amp;AF73&amp;","</f>
-        <v>0x00,0x00,0x3F,0x00,0x61,0x80,0x40,0xC0,0x40,0x7C,0x40,0x06,0x40,0x02,0x40,0x02,</v>
+        <f t="shared" si="7"/>
+        <v>02</v>
       </c>
     </row>
     <row r="67" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J67" s="5"/>
-      <c r="K67" s="1"/>
-      <c r="L67" s="10">
-        <v>1</v>
-      </c>
-      <c r="M67" s="10">
-        <v>1</v>
-      </c>
-      <c r="N67" s="10">
-        <v>1</v>
-      </c>
-      <c r="O67" s="10">
-        <v>1</v>
-      </c>
-      <c r="P67" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q67" s="10">
-        <v>1</v>
-      </c>
+      <c r="K67" s="10">
+        <v>1</v>
+      </c>
+      <c r="L67" s="1"/>
+      <c r="M67" s="1"/>
+      <c r="N67" s="1"/>
+      <c r="O67" s="1"/>
+      <c r="P67" s="1"/>
+      <c r="Q67" s="1"/>
       <c r="R67" s="1"/>
       <c r="S67" s="1"/>
       <c r="T67" s="1"/>
       <c r="U67" s="1"/>
       <c r="V67" s="1"/>
       <c r="W67" s="1"/>
-      <c r="X67" s="1"/>
+      <c r="X67" s="10">
+        <v>1</v>
+      </c>
       <c r="Y67" s="6"/>
       <c r="AE67" t="str">
-        <f t="shared" ref="AE67:AE81" si="6">DEC2HEX(J67*128+K67*64+L67*32+M67*16+N67*8+O67*4+P67*2+Q67*1, 2)</f>
-        <v>3F</v>
+        <f t="shared" si="6"/>
+        <v>40</v>
       </c>
       <c r="AF67" t="str">
-        <f t="shared" ref="AF67:AF81" si="7">DEC2HEX(R67*128+S67*64+T67*32+U67*16+V67*8+W67*4+X67*2+Y67*1, 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AI67" t="str">
-        <f>"0x"&amp;AE74&amp;",0x"&amp;AF74&amp;",0x"&amp;AE75&amp;",0x"&amp;AF75&amp;",0x"&amp;AE76&amp;",0x"&amp;AF76&amp;",0x"&amp;AE77&amp;",0x"&amp;AF77&amp;",0x"&amp;AE78&amp;",0x"&amp;AF78&amp;",0x"&amp;AE79&amp;",0x"&amp;AF79&amp;",0x"&amp;AE80&amp;",0x"&amp;AF80&amp;",0x"&amp;AE81&amp;",0x"&amp;AF81&amp;","</f>
-        <v>0x40,0x02,0x40,0x02,0x40,0x02,0x40,0x02,0x40,0x02,0x40,0x02,0x7F,0xFE,0x00,0x00,</v>
+        <f t="shared" si="7"/>
+        <v>02</v>
       </c>
     </row>
     <row r="68" spans="10:35" x14ac:dyDescent="0.4">
@@ -2300,33 +2584,29 @@
       <c r="K68" s="10">
         <v>1</v>
       </c>
-      <c r="L68" s="10">
-        <v>1</v>
-      </c>
+      <c r="L68" s="1"/>
       <c r="M68" s="1"/>
       <c r="N68" s="1"/>
       <c r="O68" s="1"/>
       <c r="P68" s="1"/>
-      <c r="Q68" s="10">
-        <v>1</v>
-      </c>
-      <c r="R68" s="10">
-        <v>1</v>
-      </c>
+      <c r="Q68" s="1"/>
+      <c r="R68" s="1"/>
       <c r="S68" s="1"/>
       <c r="T68" s="1"/>
       <c r="U68" s="1"/>
       <c r="V68" s="1"/>
       <c r="W68" s="1"/>
-      <c r="X68" s="1"/>
+      <c r="X68" s="10">
+        <v>1</v>
+      </c>
       <c r="Y68" s="6"/>
       <c r="AE68" t="str">
         <f t="shared" si="6"/>
-        <v>61</v>
+        <v>40</v>
       </c>
       <c r="AF68" t="str">
         <f t="shared" si="7"/>
-        <v>80</v>
+        <v>02</v>
       </c>
     </row>
     <row r="69" spans="10:35" x14ac:dyDescent="0.4">
@@ -2340,17 +2620,15 @@
       <c r="O69" s="1"/>
       <c r="P69" s="1"/>
       <c r="Q69" s="1"/>
-      <c r="R69" s="10">
-        <v>1</v>
-      </c>
-      <c r="S69" s="10">
-        <v>1</v>
-      </c>
+      <c r="R69" s="1"/>
+      <c r="S69" s="1"/>
       <c r="T69" s="1"/>
       <c r="U69" s="1"/>
       <c r="V69" s="1"/>
       <c r="W69" s="1"/>
-      <c r="X69" s="1"/>
+      <c r="X69" s="10">
+        <v>1</v>
+      </c>
       <c r="Y69" s="6"/>
       <c r="AE69" t="str">
         <f t="shared" si="6"/>
@@ -2358,7 +2636,7 @@
       </c>
       <c r="AF69" t="str">
         <f t="shared" si="7"/>
-        <v>C0</v>
+        <v>02</v>
       </c>
     </row>
     <row r="70" spans="10:35" x14ac:dyDescent="0.4">
@@ -2373,22 +2651,14 @@
       <c r="P70" s="1"/>
       <c r="Q70" s="1"/>
       <c r="R70" s="1"/>
-      <c r="S70" s="10">
-        <v>1</v>
-      </c>
-      <c r="T70" s="10">
-        <v>1</v>
-      </c>
-      <c r="U70" s="10">
-        <v>1</v>
-      </c>
-      <c r="V70" s="10">
-        <v>1</v>
-      </c>
-      <c r="W70" s="10">
-        <v>1</v>
-      </c>
-      <c r="X70" s="1"/>
+      <c r="S70" s="1"/>
+      <c r="T70" s="1"/>
+      <c r="U70" s="1"/>
+      <c r="V70" s="1"/>
+      <c r="W70" s="1"/>
+      <c r="X70" s="10">
+        <v>1</v>
+      </c>
       <c r="Y70" s="6"/>
       <c r="AE70" t="str">
         <f t="shared" si="6"/>
@@ -2396,7 +2666,7 @@
       </c>
       <c r="AF70" t="str">
         <f t="shared" si="7"/>
-        <v>7C</v>
+        <v>02</v>
       </c>
     </row>
     <row r="71" spans="10:35" x14ac:dyDescent="0.4">
@@ -2404,17 +2674,39 @@
       <c r="K71" s="10">
         <v>1</v>
       </c>
-      <c r="L71" s="1"/>
-      <c r="M71" s="1"/>
-      <c r="N71" s="1"/>
-      <c r="O71" s="1"/>
-      <c r="P71" s="1"/>
-      <c r="Q71" s="1"/>
-      <c r="R71" s="1"/>
-      <c r="S71" s="1"/>
-      <c r="T71" s="1"/>
-      <c r="U71" s="1"/>
-      <c r="V71" s="1"/>
+      <c r="L71" s="10">
+        <v>1</v>
+      </c>
+      <c r="M71" s="10">
+        <v>1</v>
+      </c>
+      <c r="N71" s="10">
+        <v>1</v>
+      </c>
+      <c r="O71" s="10">
+        <v>1</v>
+      </c>
+      <c r="P71" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q71" s="10">
+        <v>1</v>
+      </c>
+      <c r="R71" s="10">
+        <v>1</v>
+      </c>
+      <c r="S71" s="10">
+        <v>1</v>
+      </c>
+      <c r="T71" s="10">
+        <v>1</v>
+      </c>
+      <c r="U71" s="10">
+        <v>1</v>
+      </c>
+      <c r="V71" s="10">
+        <v>1</v>
+      </c>
       <c r="W71" s="10">
         <v>1</v>
       </c>
@@ -2424,138 +2716,72 @@
       <c r="Y71" s="6"/>
       <c r="AE71" t="str">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>7F</v>
       </c>
       <c r="AF71" t="str">
         <f t="shared" si="7"/>
-        <v>06</v>
+        <v>FE</v>
       </c>
     </row>
     <row r="72" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J72" s="5"/>
-      <c r="K72" s="10">
-        <v>1</v>
-      </c>
-      <c r="L72" s="1"/>
-      <c r="M72" s="1"/>
-      <c r="N72" s="1"/>
-      <c r="O72" s="1"/>
-      <c r="P72" s="1"/>
-      <c r="Q72" s="1"/>
-      <c r="R72" s="1"/>
-      <c r="S72" s="1"/>
-      <c r="T72" s="1"/>
-      <c r="U72" s="1"/>
-      <c r="V72" s="1"/>
-      <c r="W72" s="1"/>
-      <c r="X72" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y72" s="6"/>
+      <c r="J72" s="7"/>
+      <c r="K72" s="8"/>
+      <c r="L72" s="8"/>
+      <c r="M72" s="8"/>
+      <c r="N72" s="8"/>
+      <c r="O72" s="8"/>
+      <c r="P72" s="8"/>
+      <c r="Q72" s="8"/>
+      <c r="R72" s="8"/>
+      <c r="S72" s="8"/>
+      <c r="T72" s="8"/>
+      <c r="U72" s="8"/>
+      <c r="V72" s="8"/>
+      <c r="W72" s="8"/>
+      <c r="X72" s="8"/>
+      <c r="Y72" s="9"/>
       <c r="AE72" t="str">
         <f t="shared" si="6"/>
-        <v>40</v>
+        <v>00</v>
       </c>
       <c r="AF72" t="str">
         <f t="shared" si="7"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="73" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J73" s="5"/>
-      <c r="K73" s="10">
-        <v>1</v>
-      </c>
-      <c r="L73" s="1"/>
-      <c r="M73" s="1"/>
-      <c r="N73" s="1"/>
-      <c r="O73" s="1"/>
-      <c r="P73" s="1"/>
-      <c r="Q73" s="1"/>
-      <c r="R73" s="1"/>
-      <c r="S73" s="1"/>
-      <c r="T73" s="1"/>
-      <c r="U73" s="1"/>
-      <c r="V73" s="1"/>
-      <c r="W73" s="1"/>
-      <c r="X73" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y73" s="6"/>
-      <c r="AE73" t="str">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-      <c r="AF73" t="str">
-        <f t="shared" si="7"/>
-        <v>02</v>
-      </c>
-    </row>
-    <row r="74" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J74" s="5"/>
-      <c r="K74" s="10">
-        <v>1</v>
-      </c>
-      <c r="L74" s="1"/>
-      <c r="M74" s="1"/>
-      <c r="N74" s="1"/>
-      <c r="O74" s="1"/>
-      <c r="P74" s="1"/>
-      <c r="Q74" s="1"/>
-      <c r="R74" s="1"/>
-      <c r="S74" s="1"/>
-      <c r="T74" s="1"/>
-      <c r="U74" s="1"/>
-      <c r="V74" s="1"/>
-      <c r="W74" s="1"/>
-      <c r="X74" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y74" s="6"/>
-      <c r="AE74" t="str">
-        <f t="shared" si="6"/>
-        <v>40</v>
-      </c>
-      <c r="AF74" t="str">
-        <f t="shared" si="7"/>
-        <v>02</v>
+        <v>00</v>
       </c>
     </row>
     <row r="75" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J75" s="5"/>
-      <c r="K75" s="10">
-        <v>1</v>
-      </c>
-      <c r="L75" s="1"/>
-      <c r="M75" s="1"/>
-      <c r="N75" s="1"/>
-      <c r="O75" s="1"/>
-      <c r="P75" s="1"/>
-      <c r="Q75" s="1"/>
-      <c r="R75" s="1"/>
-      <c r="S75" s="1"/>
-      <c r="T75" s="1"/>
-      <c r="U75" s="1"/>
-      <c r="V75" s="1"/>
-      <c r="W75" s="1"/>
-      <c r="X75" s="10">
-        <v>1</v>
-      </c>
-      <c r="Y75" s="6"/>
+      <c r="J75" s="2"/>
+      <c r="K75" s="3"/>
+      <c r="L75" s="3"/>
+      <c r="M75" s="3"/>
+      <c r="N75" s="3"/>
+      <c r="O75" s="3"/>
+      <c r="P75" s="3"/>
+      <c r="Q75" s="3"/>
+      <c r="R75" s="3"/>
+      <c r="S75" s="3"/>
+      <c r="T75" s="3"/>
+      <c r="U75" s="3"/>
+      <c r="V75" s="3"/>
+      <c r="W75" s="3"/>
+      <c r="X75" s="3"/>
+      <c r="Y75" s="4"/>
       <c r="AE75" t="str">
-        <f t="shared" si="6"/>
-        <v>40</v>
+        <f>DEC2HEX(J75*128+K75*64+L75*32+M75*16+N75*8+O75*4+P75*2+Q75*1, 2)</f>
+        <v>00</v>
       </c>
       <c r="AF75" t="str">
-        <f t="shared" si="7"/>
-        <v>02</v>
+        <f>DEC2HEX(R75*128+S75*64+T75*32+U75*16+V75*8+W75*4+X75*2+Y75*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI75" t="str">
+        <f>"0x"&amp;AE75&amp;",0x"&amp;AF75&amp;",0x"&amp;AE76&amp;",0x"&amp;AF76&amp;",0x"&amp;AE77&amp;",0x"&amp;AF77&amp;",0x"&amp;AE78&amp;",0x"&amp;AF78&amp;",0x"&amp;AE79&amp;",0x"&amp;AF79&amp;",0x"&amp;AE80&amp;",0x"&amp;AF80&amp;",0x"&amp;AE81&amp;",0x"&amp;AF81&amp;",0x"&amp;AE82&amp;",0x"&amp;AF82&amp;","</f>
+        <v>0x00,0x00,0x00,0x00,0x3F,0xFC,0x20,0x04,0x20,0x04,0x27,0xE4,0x20,0x04,0x20,0x04,</v>
       </c>
     </row>
     <row r="76" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J76" s="5"/>
-      <c r="K76" s="10">
-        <v>1</v>
-      </c>
+      <c r="K76" s="1"/>
       <c r="L76" s="1"/>
       <c r="M76" s="1"/>
       <c r="N76" s="1"/>
@@ -2568,55 +2794,77 @@
       <c r="U76" s="1"/>
       <c r="V76" s="1"/>
       <c r="W76" s="1"/>
-      <c r="X76" s="10">
-        <v>1</v>
-      </c>
+      <c r="X76" s="1"/>
       <c r="Y76" s="6"/>
       <c r="AE76" t="str">
-        <f t="shared" si="6"/>
-        <v>40</v>
+        <f t="shared" ref="AE76:AE90" si="8">DEC2HEX(J76*128+K76*64+L76*32+M76*16+N76*8+O76*4+P76*2+Q76*1, 2)</f>
+        <v>00</v>
       </c>
       <c r="AF76" t="str">
-        <f t="shared" si="7"/>
-        <v>02</v>
+        <f t="shared" ref="AF76:AF90" si="9">DEC2HEX(R76*128+S76*64+T76*32+U76*16+V76*8+W76*4+X76*2+Y76*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI76" t="str">
+        <f>"0x"&amp;AE83&amp;",0x"&amp;AF83&amp;",0x"&amp;AE84&amp;",0x"&amp;AF84&amp;",0x"&amp;AE85&amp;",0x"&amp;AF85&amp;",0x"&amp;AE86&amp;",0x"&amp;AF86&amp;",0x"&amp;AE87&amp;",0x"&amp;AF87&amp;",0x"&amp;AE88&amp;",0x"&amp;AF88&amp;",0x"&amp;AE89&amp;",0x"&amp;AF89&amp;",0x"&amp;AE90&amp;",0x"&amp;AF90&amp;","</f>
+        <v>0x27,0xE4,0x20,0x04,0x20,0x04,0x27,0xE4,0x20,0x04,0x20,0x04,0x3F,0xFC,0x00,0x00,</v>
       </c>
     </row>
     <row r="77" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J77" s="5"/>
-      <c r="K77" s="10">
-        <v>1</v>
-      </c>
-      <c r="L77" s="1"/>
-      <c r="M77" s="1"/>
-      <c r="N77" s="1"/>
-      <c r="O77" s="1"/>
-      <c r="P77" s="1"/>
-      <c r="Q77" s="1"/>
-      <c r="R77" s="1"/>
-      <c r="S77" s="1"/>
-      <c r="T77" s="1"/>
-      <c r="U77" s="1"/>
-      <c r="V77" s="1"/>
-      <c r="W77" s="1"/>
-      <c r="X77" s="10">
-        <v>1</v>
-      </c>
+      <c r="K77" s="1"/>
+      <c r="L77" s="10">
+        <v>1</v>
+      </c>
+      <c r="M77" s="10">
+        <v>1</v>
+      </c>
+      <c r="N77" s="10">
+        <v>1</v>
+      </c>
+      <c r="O77" s="10">
+        <v>1</v>
+      </c>
+      <c r="P77" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q77" s="10">
+        <v>1</v>
+      </c>
+      <c r="R77" s="10">
+        <v>1</v>
+      </c>
+      <c r="S77" s="10">
+        <v>1</v>
+      </c>
+      <c r="T77" s="10">
+        <v>1</v>
+      </c>
+      <c r="U77" s="10">
+        <v>1</v>
+      </c>
+      <c r="V77" s="10">
+        <v>1</v>
+      </c>
+      <c r="W77" s="10">
+        <v>1</v>
+      </c>
+      <c r="X77" s="1"/>
       <c r="Y77" s="6"/>
       <c r="AE77" t="str">
-        <f t="shared" si="6"/>
-        <v>40</v>
+        <f t="shared" si="8"/>
+        <v>3F</v>
       </c>
       <c r="AF77" t="str">
-        <f t="shared" si="7"/>
-        <v>02</v>
+        <f t="shared" si="9"/>
+        <v>FC</v>
       </c>
     </row>
     <row r="78" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J78" s="5"/>
-      <c r="K78" s="10">
-        <v>1</v>
-      </c>
-      <c r="L78" s="1"/>
+      <c r="K78" s="1"/>
+      <c r="L78" s="10">
+        <v>1</v>
+      </c>
       <c r="M78" s="1"/>
       <c r="N78" s="1"/>
       <c r="O78" s="1"/>
@@ -2627,26 +2875,26 @@
       <c r="T78" s="1"/>
       <c r="U78" s="1"/>
       <c r="V78" s="1"/>
-      <c r="W78" s="1"/>
-      <c r="X78" s="10">
-        <v>1</v>
-      </c>
+      <c r="W78" s="10">
+        <v>1</v>
+      </c>
+      <c r="X78" s="1"/>
       <c r="Y78" s="6"/>
       <c r="AE78" t="str">
-        <f t="shared" si="6"/>
-        <v>40</v>
+        <f t="shared" si="8"/>
+        <v>20</v>
       </c>
       <c r="AF78" t="str">
-        <f t="shared" si="7"/>
-        <v>02</v>
+        <f t="shared" si="9"/>
+        <v>04</v>
       </c>
     </row>
     <row r="79" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J79" s="5"/>
-      <c r="K79" s="10">
-        <v>1</v>
-      </c>
-      <c r="L79" s="1"/>
+      <c r="K79" s="1"/>
+      <c r="L79" s="10">
+        <v>1</v>
+      </c>
       <c r="M79" s="1"/>
       <c r="N79" s="1"/>
       <c r="O79" s="1"/>
@@ -2657,34 +2905,28 @@
       <c r="T79" s="1"/>
       <c r="U79" s="1"/>
       <c r="V79" s="1"/>
-      <c r="W79" s="1"/>
-      <c r="X79" s="10">
-        <v>1</v>
-      </c>
+      <c r="W79" s="10">
+        <v>1</v>
+      </c>
+      <c r="X79" s="1"/>
       <c r="Y79" s="6"/>
       <c r="AE79" t="str">
-        <f t="shared" si="6"/>
-        <v>40</v>
+        <f t="shared" si="8"/>
+        <v>20</v>
       </c>
       <c r="AF79" t="str">
-        <f t="shared" si="7"/>
-        <v>02</v>
+        <f t="shared" si="9"/>
+        <v>04</v>
       </c>
     </row>
     <row r="80" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J80" s="5"/>
-      <c r="K80" s="10">
-        <v>1</v>
-      </c>
+      <c r="K80" s="1"/>
       <c r="L80" s="10">
         <v>1</v>
       </c>
-      <c r="M80" s="10">
-        <v>1</v>
-      </c>
-      <c r="N80" s="10">
-        <v>1</v>
-      </c>
+      <c r="M80" s="1"/>
+      <c r="N80" s="1"/>
       <c r="O80" s="10">
         <v>1</v>
       </c>
@@ -2703,88 +2945,160 @@
       <c r="T80" s="10">
         <v>1</v>
       </c>
-      <c r="U80" s="10">
-        <v>1</v>
-      </c>
-      <c r="V80" s="10">
-        <v>1</v>
-      </c>
+      <c r="U80" s="1"/>
+      <c r="V80" s="1"/>
       <c r="W80" s="10">
         <v>1</v>
       </c>
-      <c r="X80" s="10">
-        <v>1</v>
-      </c>
+      <c r="X80" s="1"/>
       <c r="Y80" s="6"/>
       <c r="AE80" t="str">
-        <f t="shared" si="6"/>
-        <v>7F</v>
+        <f t="shared" si="8"/>
+        <v>27</v>
       </c>
       <c r="AF80" t="str">
-        <f t="shared" si="7"/>
-        <v>FE</v>
+        <f t="shared" si="9"/>
+        <v>E4</v>
       </c>
     </row>
     <row r="81" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J81" s="7"/>
-      <c r="K81" s="8"/>
-      <c r="L81" s="8"/>
-      <c r="M81" s="8"/>
-      <c r="N81" s="8"/>
-      <c r="O81" s="8"/>
-      <c r="P81" s="8"/>
-      <c r="Q81" s="8"/>
-      <c r="R81" s="8"/>
-      <c r="S81" s="8"/>
-      <c r="T81" s="8"/>
-      <c r="U81" s="8"/>
-      <c r="V81" s="8"/>
-      <c r="W81" s="8"/>
-      <c r="X81" s="8"/>
-      <c r="Y81" s="9"/>
+      <c r="J81" s="5"/>
+      <c r="K81" s="1"/>
+      <c r="L81" s="10">
+        <v>1</v>
+      </c>
+      <c r="M81" s="1"/>
+      <c r="N81" s="1"/>
+      <c r="O81" s="1"/>
+      <c r="P81" s="1"/>
+      <c r="Q81" s="1"/>
+      <c r="R81" s="1"/>
+      <c r="S81" s="1"/>
+      <c r="T81" s="1"/>
+      <c r="U81" s="1"/>
+      <c r="V81" s="1"/>
+      <c r="W81" s="10">
+        <v>1</v>
+      </c>
+      <c r="X81" s="1"/>
+      <c r="Y81" s="6"/>
       <c r="AE81" t="str">
-        <f t="shared" si="6"/>
-        <v>00</v>
+        <f t="shared" si="8"/>
+        <v>20</v>
       </c>
       <c r="AF81" t="str">
-        <f t="shared" si="7"/>
-        <v>00</v>
+        <f t="shared" si="9"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="82" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J82" s="5"/>
+      <c r="K82" s="1"/>
+      <c r="L82" s="10">
+        <v>1</v>
+      </c>
+      <c r="M82" s="1"/>
+      <c r="N82" s="1"/>
+      <c r="O82" s="1"/>
+      <c r="P82" s="1"/>
+      <c r="Q82" s="1"/>
+      <c r="R82" s="1"/>
+      <c r="S82" s="1"/>
+      <c r="T82" s="1"/>
+      <c r="U82" s="1"/>
+      <c r="V82" s="1"/>
+      <c r="W82" s="10">
+        <v>1</v>
+      </c>
+      <c r="X82" s="1"/>
+      <c r="Y82" s="6"/>
+      <c r="AE82" t="str">
+        <f t="shared" si="8"/>
+        <v>20</v>
+      </c>
+      <c r="AF82" t="str">
+        <f t="shared" si="9"/>
+        <v>04</v>
+      </c>
+    </row>
+    <row r="83" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J83" s="5"/>
+      <c r="K83" s="1"/>
+      <c r="L83" s="10">
+        <v>1</v>
+      </c>
+      <c r="M83" s="1"/>
+      <c r="N83" s="1"/>
+      <c r="O83" s="10">
+        <v>1</v>
+      </c>
+      <c r="P83" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q83" s="10">
+        <v>1</v>
+      </c>
+      <c r="R83" s="10">
+        <v>1</v>
+      </c>
+      <c r="S83" s="10">
+        <v>1</v>
+      </c>
+      <c r="T83" s="10">
+        <v>1</v>
+      </c>
+      <c r="U83" s="1"/>
+      <c r="V83" s="1"/>
+      <c r="W83" s="10">
+        <v>1</v>
+      </c>
+      <c r="X83" s="1"/>
+      <c r="Y83" s="6"/>
+      <c r="AE83" t="str">
+        <f t="shared" si="8"/>
+        <v>27</v>
+      </c>
+      <c r="AF83" t="str">
+        <f t="shared" si="9"/>
+        <v>E4</v>
       </c>
     </row>
     <row r="84" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J84" s="2"/>
-      <c r="K84" s="3"/>
-      <c r="L84" s="3"/>
-      <c r="M84" s="3"/>
-      <c r="N84" s="3"/>
-      <c r="O84" s="3"/>
-      <c r="P84" s="3"/>
-      <c r="Q84" s="3"/>
-      <c r="R84" s="3"/>
-      <c r="S84" s="3"/>
-      <c r="T84" s="3"/>
-      <c r="U84" s="3"/>
-      <c r="V84" s="3"/>
-      <c r="W84" s="3"/>
-      <c r="X84" s="3"/>
-      <c r="Y84" s="4"/>
+      <c r="J84" s="5"/>
+      <c r="K84" s="1"/>
+      <c r="L84" s="10">
+        <v>1</v>
+      </c>
+      <c r="M84" s="1"/>
+      <c r="N84" s="1"/>
+      <c r="O84" s="1"/>
+      <c r="P84" s="1"/>
+      <c r="Q84" s="1"/>
+      <c r="R84" s="1"/>
+      <c r="S84" s="1"/>
+      <c r="T84" s="1"/>
+      <c r="U84" s="1"/>
+      <c r="V84" s="1"/>
+      <c r="W84" s="10">
+        <v>1</v>
+      </c>
+      <c r="X84" s="1"/>
+      <c r="Y84" s="6"/>
       <c r="AE84" t="str">
-        <f>DEC2HEX(J84*128+K84*64+L84*32+M84*16+N84*8+O84*4+P84*2+Q84*1, 2)</f>
-        <v>00</v>
+        <f t="shared" si="8"/>
+        <v>20</v>
       </c>
       <c r="AF84" t="str">
-        <f>DEC2HEX(R84*128+S84*64+T84*32+U84*16+V84*8+W84*4+X84*2+Y84*1, 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AI84" t="str">
-        <f>"0x"&amp;AE84&amp;",0x"&amp;AF84&amp;",0x"&amp;AE85&amp;",0x"&amp;AF85&amp;",0x"&amp;AE86&amp;",0x"&amp;AF86&amp;",0x"&amp;AE87&amp;",0x"&amp;AF87&amp;",0x"&amp;AE88&amp;",0x"&amp;AF88&amp;",0x"&amp;AE89&amp;",0x"&amp;AF89&amp;",0x"&amp;AE90&amp;",0x"&amp;AF90&amp;",0x"&amp;AE91&amp;",0x"&amp;AF91&amp;","</f>
-        <v>0x00,0x00,0x00,0x00,0x3F,0xFC,0x20,0x04,0x20,0x04,0x27,0xE4,0x20,0x04,0x20,0x04,</v>
+        <f t="shared" si="9"/>
+        <v>04</v>
       </c>
     </row>
     <row r="85" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J85" s="5"/>
       <c r="K85" s="1"/>
-      <c r="L85" s="1"/>
+      <c r="L85" s="10">
+        <v>1</v>
+      </c>
       <c r="M85" s="1"/>
       <c r="N85" s="1"/>
       <c r="O85" s="1"/>
@@ -2795,20 +3109,18 @@
       <c r="T85" s="1"/>
       <c r="U85" s="1"/>
       <c r="V85" s="1"/>
-      <c r="W85" s="1"/>
+      <c r="W85" s="10">
+        <v>1</v>
+      </c>
       <c r="X85" s="1"/>
       <c r="Y85" s="6"/>
       <c r="AE85" t="str">
-        <f t="shared" ref="AE85:AE99" si="8">DEC2HEX(J85*128+K85*64+L85*32+M85*16+N85*8+O85*4+P85*2+Q85*1, 2)</f>
-        <v>00</v>
+        <f t="shared" si="8"/>
+        <v>20</v>
       </c>
       <c r="AF85" t="str">
-        <f t="shared" ref="AF85:AF99" si="9">DEC2HEX(R85*128+S85*64+T85*32+U85*16+V85*8+W85*4+X85*2+Y85*1, 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AI85" t="str">
-        <f>"0x"&amp;AE92&amp;",0x"&amp;AF92&amp;",0x"&amp;AE93&amp;",0x"&amp;AF93&amp;",0x"&amp;AE94&amp;",0x"&amp;AF94&amp;",0x"&amp;AE95&amp;",0x"&amp;AF95&amp;",0x"&amp;AE96&amp;",0x"&amp;AF96&amp;",0x"&amp;AE97&amp;",0x"&amp;AF97&amp;",0x"&amp;AE98&amp;",0x"&amp;AF98&amp;",0x"&amp;AE99&amp;",0x"&amp;AF99&amp;","</f>
-        <v>0x27,0xE4,0x20,0x04,0x20,0x04,0x27,0xE4,0x20,0x04,0x20,0x04,0x3F,0xFC,0x00,0x00,</v>
+        <f t="shared" si="9"/>
+        <v>04</v>
       </c>
     </row>
     <row r="86" spans="10:35" x14ac:dyDescent="0.4">
@@ -2817,12 +3129,8 @@
       <c r="L86" s="10">
         <v>1</v>
       </c>
-      <c r="M86" s="10">
-        <v>1</v>
-      </c>
-      <c r="N86" s="10">
-        <v>1</v>
-      </c>
+      <c r="M86" s="1"/>
+      <c r="N86" s="1"/>
       <c r="O86" s="10">
         <v>1</v>
       </c>
@@ -2841,12 +3149,8 @@
       <c r="T86" s="10">
         <v>1</v>
       </c>
-      <c r="U86" s="10">
-        <v>1</v>
-      </c>
-      <c r="V86" s="10">
-        <v>1</v>
-      </c>
+      <c r="U86" s="1"/>
+      <c r="V86" s="1"/>
       <c r="W86" s="10">
         <v>1</v>
       </c>
@@ -2854,11 +3158,11 @@
       <c r="Y86" s="6"/>
       <c r="AE86" t="str">
         <f t="shared" si="8"/>
-        <v>3F</v>
+        <v>27</v>
       </c>
       <c r="AF86" t="str">
         <f t="shared" si="9"/>
-        <v>FC</v>
+        <v>E4</v>
       </c>
     </row>
     <row r="87" spans="10:35" x14ac:dyDescent="0.4">
@@ -2927,8 +3231,12 @@
       <c r="L89" s="10">
         <v>1</v>
       </c>
-      <c r="M89" s="1"/>
-      <c r="N89" s="1"/>
+      <c r="M89" s="10">
+        <v>1</v>
+      </c>
+      <c r="N89" s="10">
+        <v>1</v>
+      </c>
       <c r="O89" s="10">
         <v>1</v>
       </c>
@@ -2947,8 +3255,12 @@
       <c r="T89" s="10">
         <v>1</v>
       </c>
-      <c r="U89" s="1"/>
-      <c r="V89" s="1"/>
+      <c r="U89" s="10">
+        <v>1</v>
+      </c>
+      <c r="V89" s="10">
+        <v>1</v>
+      </c>
       <c r="W89" s="10">
         <v>1</v>
       </c>
@@ -2956,151 +3268,73 @@
       <c r="Y89" s="6"/>
       <c r="AE89" t="str">
         <f t="shared" si="8"/>
-        <v>27</v>
+        <v>3F</v>
       </c>
       <c r="AF89" t="str">
         <f t="shared" si="9"/>
-        <v>E4</v>
+        <v>FC</v>
       </c>
     </row>
     <row r="90" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J90" s="5"/>
-      <c r="K90" s="1"/>
-      <c r="L90" s="10">
-        <v>1</v>
-      </c>
-      <c r="M90" s="1"/>
-      <c r="N90" s="1"/>
-      <c r="O90" s="1"/>
-      <c r="P90" s="1"/>
-      <c r="Q90" s="1"/>
-      <c r="R90" s="1"/>
-      <c r="S90" s="1"/>
-      <c r="T90" s="1"/>
-      <c r="U90" s="1"/>
-      <c r="V90" s="1"/>
-      <c r="W90" s="10">
-        <v>1</v>
-      </c>
-      <c r="X90" s="1"/>
-      <c r="Y90" s="6"/>
+      <c r="J90" s="7"/>
+      <c r="K90" s="8"/>
+      <c r="L90" s="8"/>
+      <c r="M90" s="8"/>
+      <c r="N90" s="8"/>
+      <c r="O90" s="8"/>
+      <c r="P90" s="8"/>
+      <c r="Q90" s="8"/>
+      <c r="R90" s="8"/>
+      <c r="S90" s="8"/>
+      <c r="T90" s="8"/>
+      <c r="U90" s="8"/>
+      <c r="V90" s="8"/>
+      <c r="W90" s="8"/>
+      <c r="X90" s="8"/>
+      <c r="Y90" s="9"/>
       <c r="AE90" t="str">
         <f t="shared" si="8"/>
-        <v>20</v>
+        <v>00</v>
       </c>
       <c r="AF90" t="str">
         <f t="shared" si="9"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="91" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J91" s="5"/>
-      <c r="K91" s="1"/>
-      <c r="L91" s="10">
-        <v>1</v>
-      </c>
-      <c r="M91" s="1"/>
-      <c r="N91" s="1"/>
-      <c r="O91" s="1"/>
-      <c r="P91" s="1"/>
-      <c r="Q91" s="1"/>
-      <c r="R91" s="1"/>
-      <c r="S91" s="1"/>
-      <c r="T91" s="1"/>
-      <c r="U91" s="1"/>
-      <c r="V91" s="1"/>
-      <c r="W91" s="10">
-        <v>1</v>
-      </c>
-      <c r="X91" s="1"/>
-      <c r="Y91" s="6"/>
-      <c r="AE91" t="str">
-        <f t="shared" si="8"/>
-        <v>20</v>
-      </c>
-      <c r="AF91" t="str">
-        <f t="shared" si="9"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="92" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J92" s="5"/>
-      <c r="K92" s="1"/>
-      <c r="L92" s="10">
-        <v>1</v>
-      </c>
-      <c r="M92" s="1"/>
-      <c r="N92" s="1"/>
-      <c r="O92" s="10">
-        <v>1</v>
-      </c>
-      <c r="P92" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q92" s="10">
-        <v>1</v>
-      </c>
-      <c r="R92" s="10">
-        <v>1</v>
-      </c>
-      <c r="S92" s="10">
-        <v>1</v>
-      </c>
-      <c r="T92" s="10">
-        <v>1</v>
-      </c>
-      <c r="U92" s="1"/>
-      <c r="V92" s="1"/>
-      <c r="W92" s="10">
-        <v>1</v>
-      </c>
-      <c r="X92" s="1"/>
-      <c r="Y92" s="6"/>
-      <c r="AE92" t="str">
-        <f t="shared" si="8"/>
-        <v>27</v>
-      </c>
-      <c r="AF92" t="str">
-        <f t="shared" si="9"/>
-        <v>E4</v>
+        <v>00</v>
       </c>
     </row>
     <row r="93" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J93" s="5"/>
-      <c r="K93" s="1"/>
-      <c r="L93" s="10">
-        <v>1</v>
-      </c>
-      <c r="M93" s="1"/>
-      <c r="N93" s="1"/>
-      <c r="O93" s="1"/>
-      <c r="P93" s="1"/>
-      <c r="Q93" s="1"/>
-      <c r="R93" s="1"/>
-      <c r="S93" s="1"/>
-      <c r="T93" s="1"/>
-      <c r="U93" s="1"/>
-      <c r="V93" s="1"/>
-      <c r="W93" s="10">
-        <v>1</v>
-      </c>
-      <c r="X93" s="1"/>
-      <c r="Y93" s="6"/>
+      <c r="J93" s="2"/>
+      <c r="K93" s="3"/>
+      <c r="L93" s="3"/>
+      <c r="M93" s="3"/>
+      <c r="N93" s="3"/>
+      <c r="O93" s="3"/>
+      <c r="P93" s="3"/>
+      <c r="Q93" s="3"/>
+      <c r="R93" s="3"/>
+      <c r="S93" s="3"/>
+      <c r="T93" s="3"/>
+      <c r="U93" s="3"/>
+      <c r="V93" s="3"/>
+      <c r="W93" s="3"/>
+      <c r="X93" s="3"/>
+      <c r="Y93" s="4"/>
       <c r="AE93" t="str">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f>DEC2HEX(J93*128+K93*64+L93*32+M93*16+N93*8+O93*4+P93*2+Q93*1, 2)</f>
+        <v>00</v>
       </c>
       <c r="AF93" t="str">
-        <f t="shared" si="9"/>
-        <v>04</v>
+        <f>DEC2HEX(R93*128+S93*64+T93*32+U93*16+V93*8+W93*4+X93*2+Y93*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI93" t="str">
+        <f>"0x"&amp;AE93&amp;",0x"&amp;AF93&amp;",0x"&amp;AE94&amp;",0x"&amp;AF94&amp;",0x"&amp;AE95&amp;",0x"&amp;AF95&amp;",0x"&amp;AE96&amp;",0x"&amp;AF96&amp;",0x"&amp;AE97&amp;",0x"&amp;AF97&amp;",0x"&amp;AE98&amp;",0x"&amp;AF98&amp;",0x"&amp;AE99&amp;",0x"&amp;AF99&amp;",0x"&amp;AE100&amp;",0x"&amp;AF100&amp;","</f>
+        <v>0x00,0x00,0x00,0x00,0x00,0x78,0x00,0xC8,0x01,0x88,0x03,0x08,0x1E,0x08,0x12,0x08,</v>
       </c>
     </row>
     <row r="94" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J94" s="5"/>
       <c r="K94" s="1"/>
-      <c r="L94" s="10">
-        <v>1</v>
-      </c>
+      <c r="L94" s="1"/>
       <c r="M94" s="1"/>
       <c r="N94" s="1"/>
       <c r="O94" s="1"/>
@@ -3111,256 +3345,318 @@
       <c r="T94" s="1"/>
       <c r="U94" s="1"/>
       <c r="V94" s="1"/>
-      <c r="W94" s="10">
-        <v>1</v>
-      </c>
+      <c r="W94" s="1"/>
       <c r="X94" s="1"/>
       <c r="Y94" s="6"/>
       <c r="AE94" t="str">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" ref="AE94:AE108" si="10">DEC2HEX(J94*128+K94*64+L94*32+M94*16+N94*8+O94*4+P94*2+Q94*1, 2)</f>
+        <v>00</v>
       </c>
       <c r="AF94" t="str">
-        <f t="shared" si="9"/>
-        <v>04</v>
+        <f t="shared" ref="AF94:AF108" si="11">DEC2HEX(R94*128+S94*64+T94*32+U94*16+V94*8+W94*4+X94*2+Y94*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI94" t="str">
+        <f>"0x"&amp;AE101&amp;",0x"&amp;AF101&amp;",0x"&amp;AE102&amp;",0x"&amp;AF102&amp;",0x"&amp;AE103&amp;",0x"&amp;AF103&amp;",0x"&amp;AE104&amp;",0x"&amp;AF104&amp;",0x"&amp;AE105&amp;",0x"&amp;AF105&amp;",0x"&amp;AE106&amp;",0x"&amp;AF106&amp;",0x"&amp;AE107&amp;",0x"&amp;AF107&amp;",0x"&amp;AE108&amp;",0x"&amp;AF108&amp;","</f>
+        <v>0x12,0x08,0x12,0x08,0x1E,0x08,0x03,0x08,0x01,0x88,0x00,0xC8,0x00,0x78,0x00,0x00,</v>
       </c>
     </row>
     <row r="95" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J95" s="5"/>
       <c r="K95" s="1"/>
-      <c r="L95" s="10">
-        <v>1</v>
-      </c>
+      <c r="L95" s="1"/>
       <c r="M95" s="1"/>
       <c r="N95" s="1"/>
-      <c r="O95" s="10">
-        <v>1</v>
-      </c>
-      <c r="P95" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q95" s="10">
-        <v>1</v>
-      </c>
-      <c r="R95" s="10">
-        <v>1</v>
-      </c>
+      <c r="O95" s="1"/>
+      <c r="P95" s="1"/>
+      <c r="Q95" s="1"/>
+      <c r="R95" s="1"/>
       <c r="S95" s="10">
         <v>1</v>
       </c>
       <c r="T95" s="10">
         <v>1</v>
       </c>
-      <c r="U95" s="1"/>
-      <c r="V95" s="1"/>
-      <c r="W95" s="10">
-        <v>1</v>
-      </c>
+      <c r="U95" s="10">
+        <v>1</v>
+      </c>
+      <c r="V95" s="10">
+        <v>1</v>
+      </c>
+      <c r="W95" s="1"/>
       <c r="X95" s="1"/>
       <c r="Y95" s="6"/>
       <c r="AE95" t="str">
-        <f t="shared" si="8"/>
-        <v>27</v>
+        <f t="shared" si="10"/>
+        <v>00</v>
       </c>
       <c r="AF95" t="str">
-        <f t="shared" si="9"/>
-        <v>E4</v>
+        <f t="shared" si="11"/>
+        <v>78</v>
       </c>
     </row>
     <row r="96" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J96" s="5"/>
       <c r="K96" s="1"/>
-      <c r="L96" s="10">
-        <v>1</v>
-      </c>
+      <c r="L96" s="1"/>
       <c r="M96" s="1"/>
       <c r="N96" s="1"/>
       <c r="O96" s="1"/>
       <c r="P96" s="1"/>
       <c r="Q96" s="1"/>
-      <c r="R96" s="1"/>
-      <c r="S96" s="1"/>
+      <c r="R96" s="10">
+        <v>1</v>
+      </c>
+      <c r="S96" s="10">
+        <v>1</v>
+      </c>
       <c r="T96" s="1"/>
       <c r="U96" s="1"/>
-      <c r="V96" s="1"/>
-      <c r="W96" s="10">
-        <v>1</v>
-      </c>
+      <c r="V96" s="10">
+        <v>1</v>
+      </c>
+      <c r="W96" s="1"/>
       <c r="X96" s="1"/>
       <c r="Y96" s="6"/>
       <c r="AE96" t="str">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" si="10"/>
+        <v>00</v>
       </c>
       <c r="AF96" t="str">
-        <f t="shared" si="9"/>
-        <v>04</v>
+        <f t="shared" si="11"/>
+        <v>C8</v>
       </c>
     </row>
     <row r="97" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J97" s="5"/>
       <c r="K97" s="1"/>
-      <c r="L97" s="10">
-        <v>1</v>
-      </c>
+      <c r="L97" s="1"/>
       <c r="M97" s="1"/>
       <c r="N97" s="1"/>
       <c r="O97" s="1"/>
       <c r="P97" s="1"/>
-      <c r="Q97" s="1"/>
-      <c r="R97" s="1"/>
+      <c r="Q97" s="10">
+        <v>1</v>
+      </c>
+      <c r="R97" s="10">
+        <v>1</v>
+      </c>
       <c r="S97" s="1"/>
       <c r="T97" s="1"/>
       <c r="U97" s="1"/>
-      <c r="V97" s="1"/>
-      <c r="W97" s="10">
-        <v>1</v>
-      </c>
+      <c r="V97" s="10">
+        <v>1</v>
+      </c>
+      <c r="W97" s="1"/>
       <c r="X97" s="1"/>
       <c r="Y97" s="6"/>
       <c r="AE97" t="str">
-        <f t="shared" si="8"/>
-        <v>20</v>
+        <f t="shared" si="10"/>
+        <v>01</v>
       </c>
       <c r="AF97" t="str">
-        <f t="shared" si="9"/>
-        <v>04</v>
+        <f t="shared" si="11"/>
+        <v>88</v>
       </c>
     </row>
     <row r="98" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J98" s="5"/>
       <c r="K98" s="1"/>
-      <c r="L98" s="10">
-        <v>1</v>
-      </c>
-      <c r="M98" s="10">
-        <v>1</v>
-      </c>
-      <c r="N98" s="10">
-        <v>1</v>
-      </c>
-      <c r="O98" s="10">
-        <v>1</v>
-      </c>
+      <c r="L98" s="1"/>
+      <c r="M98" s="1"/>
+      <c r="N98" s="1"/>
+      <c r="O98" s="1"/>
       <c r="P98" s="10">
         <v>1</v>
       </c>
       <c r="Q98" s="10">
         <v>1</v>
       </c>
-      <c r="R98" s="10">
-        <v>1</v>
-      </c>
-      <c r="S98" s="10">
-        <v>1</v>
-      </c>
-      <c r="T98" s="10">
-        <v>1</v>
-      </c>
-      <c r="U98" s="10">
-        <v>1</v>
-      </c>
+      <c r="R98" s="1"/>
+      <c r="S98" s="1"/>
+      <c r="T98" s="1"/>
+      <c r="U98" s="1"/>
       <c r="V98" s="10">
         <v>1</v>
       </c>
-      <c r="W98" s="10">
-        <v>1</v>
-      </c>
+      <c r="W98" s="1"/>
       <c r="X98" s="1"/>
       <c r="Y98" s="6"/>
       <c r="AE98" t="str">
-        <f t="shared" si="8"/>
-        <v>3F</v>
+        <f t="shared" si="10"/>
+        <v>03</v>
       </c>
       <c r="AF98" t="str">
-        <f t="shared" si="9"/>
-        <v>FC</v>
+        <f t="shared" si="11"/>
+        <v>08</v>
       </c>
     </row>
     <row r="99" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J99" s="7"/>
-      <c r="K99" s="8"/>
-      <c r="L99" s="8"/>
-      <c r="M99" s="8"/>
-      <c r="N99" s="8"/>
-      <c r="O99" s="8"/>
-      <c r="P99" s="8"/>
-      <c r="Q99" s="8"/>
-      <c r="R99" s="8"/>
-      <c r="S99" s="8"/>
-      <c r="T99" s="8"/>
-      <c r="U99" s="8"/>
-      <c r="V99" s="8"/>
-      <c r="W99" s="8"/>
-      <c r="X99" s="8"/>
-      <c r="Y99" s="9"/>
+      <c r="J99" s="5"/>
+      <c r="K99" s="1"/>
+      <c r="L99" s="1"/>
+      <c r="M99" s="10">
+        <v>1</v>
+      </c>
+      <c r="N99" s="10">
+        <v>1</v>
+      </c>
+      <c r="O99" s="10">
+        <v>1</v>
+      </c>
+      <c r="P99" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q99" s="1"/>
+      <c r="R99" s="1"/>
+      <c r="S99" s="1"/>
+      <c r="T99" s="1"/>
+      <c r="U99" s="1"/>
+      <c r="V99" s="10">
+        <v>1</v>
+      </c>
+      <c r="W99" s="1"/>
+      <c r="X99" s="1"/>
+      <c r="Y99" s="6"/>
       <c r="AE99" t="str">
-        <f t="shared" si="8"/>
-        <v>00</v>
+        <f t="shared" si="10"/>
+        <v>1E</v>
       </c>
       <c r="AF99" t="str">
-        <f t="shared" si="9"/>
-        <v>00</v>
+        <f t="shared" si="11"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="100" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J100" s="5"/>
+      <c r="K100" s="1"/>
+      <c r="L100" s="1"/>
+      <c r="M100" s="10">
+        <v>1</v>
+      </c>
+      <c r="N100" s="1"/>
+      <c r="O100" s="1"/>
+      <c r="P100" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q100" s="1"/>
+      <c r="R100" s="1"/>
+      <c r="S100" s="1"/>
+      <c r="T100" s="1"/>
+      <c r="U100" s="1"/>
+      <c r="V100" s="10">
+        <v>1</v>
+      </c>
+      <c r="W100" s="1"/>
+      <c r="X100" s="1"/>
+      <c r="Y100" s="6"/>
+      <c r="AE100" t="str">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="AF100" t="str">
+        <f t="shared" si="11"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="101" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J101" s="5"/>
+      <c r="K101" s="1"/>
+      <c r="L101" s="1"/>
+      <c r="M101" s="10">
+        <v>1</v>
+      </c>
+      <c r="N101" s="1"/>
+      <c r="O101" s="1"/>
+      <c r="P101" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q101" s="1"/>
+      <c r="R101" s="1"/>
+      <c r="S101" s="1"/>
+      <c r="T101" s="1"/>
+      <c r="U101" s="1"/>
+      <c r="V101" s="10">
+        <v>1</v>
+      </c>
+      <c r="W101" s="1"/>
+      <c r="X101" s="1"/>
+      <c r="Y101" s="6"/>
+      <c r="AE101" t="str">
+        <f t="shared" si="10"/>
+        <v>12</v>
+      </c>
+      <c r="AF101" t="str">
+        <f t="shared" si="11"/>
+        <v>08</v>
       </c>
     </row>
     <row r="102" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J102" s="2"/>
-      <c r="K102" s="3"/>
-      <c r="L102" s="3"/>
-      <c r="M102" s="3"/>
-      <c r="N102" s="3"/>
-      <c r="O102" s="3"/>
-      <c r="P102" s="3"/>
-      <c r="Q102" s="3"/>
-      <c r="R102" s="3"/>
-      <c r="S102" s="3"/>
-      <c r="T102" s="3"/>
-      <c r="U102" s="3"/>
-      <c r="V102" s="3"/>
-      <c r="W102" s="3"/>
-      <c r="X102" s="3"/>
-      <c r="Y102" s="4"/>
+      <c r="J102" s="5"/>
+      <c r="K102" s="1"/>
+      <c r="L102" s="1"/>
+      <c r="M102" s="10">
+        <v>1</v>
+      </c>
+      <c r="N102" s="1"/>
+      <c r="O102" s="1"/>
+      <c r="P102" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q102" s="1"/>
+      <c r="R102" s="1"/>
+      <c r="S102" s="1"/>
+      <c r="T102" s="1"/>
+      <c r="U102" s="1"/>
+      <c r="V102" s="10">
+        <v>1</v>
+      </c>
+      <c r="W102" s="1"/>
+      <c r="X102" s="1"/>
+      <c r="Y102" s="6"/>
       <c r="AE102" t="str">
-        <f>DEC2HEX(J102*128+K102*64+L102*32+M102*16+N102*8+O102*4+P102*2+Q102*1, 2)</f>
-        <v>00</v>
+        <f t="shared" si="10"/>
+        <v>12</v>
       </c>
       <c r="AF102" t="str">
-        <f>DEC2HEX(R102*128+S102*64+T102*32+U102*16+V102*8+W102*4+X102*2+Y102*1, 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AI102" t="str">
-        <f>"0x"&amp;AE102&amp;",0x"&amp;AF102&amp;",0x"&amp;AE103&amp;",0x"&amp;AF103&amp;",0x"&amp;AE104&amp;",0x"&amp;AF104&amp;",0x"&amp;AE105&amp;",0x"&amp;AF105&amp;",0x"&amp;AE106&amp;",0x"&amp;AF106&amp;",0x"&amp;AE107&amp;",0x"&amp;AF107&amp;",0x"&amp;AE108&amp;",0x"&amp;AF108&amp;",0x"&amp;AE109&amp;",0x"&amp;AF109&amp;","</f>
-        <v>0x00,0x00,0x00,0x00,0x00,0x78,0x00,0xC8,0x01,0x88,0x03,0x08,0x1E,0x08,0x12,0x08,</v>
+        <f t="shared" si="11"/>
+        <v>08</v>
       </c>
     </row>
     <row r="103" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J103" s="5"/>
       <c r="K103" s="1"/>
       <c r="L103" s="1"/>
-      <c r="M103" s="1"/>
-      <c r="N103" s="1"/>
-      <c r="O103" s="1"/>
-      <c r="P103" s="1"/>
+      <c r="M103" s="10">
+        <v>1</v>
+      </c>
+      <c r="N103" s="10">
+        <v>1</v>
+      </c>
+      <c r="O103" s="10">
+        <v>1</v>
+      </c>
+      <c r="P103" s="10">
+        <v>1</v>
+      </c>
       <c r="Q103" s="1"/>
       <c r="R103" s="1"/>
       <c r="S103" s="1"/>
       <c r="T103" s="1"/>
       <c r="U103" s="1"/>
-      <c r="V103" s="1"/>
+      <c r="V103" s="10">
+        <v>1</v>
+      </c>
       <c r="W103" s="1"/>
       <c r="X103" s="1"/>
       <c r="Y103" s="6"/>
       <c r="AE103" t="str">
-        <f t="shared" ref="AE103:AE117" si="10">DEC2HEX(J103*128+K103*64+L103*32+M103*16+N103*8+O103*4+P103*2+Q103*1, 2)</f>
-        <v>00</v>
+        <f t="shared" si="10"/>
+        <v>1E</v>
       </c>
       <c r="AF103" t="str">
-        <f t="shared" ref="AF103:AF117" si="11">DEC2HEX(R103*128+S103*64+T103*32+U103*16+V103*8+W103*4+X103*2+Y103*1, 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AI103" t="str">
-        <f>"0x"&amp;AE110&amp;",0x"&amp;AF110&amp;",0x"&amp;AE111&amp;",0x"&amp;AF111&amp;",0x"&amp;AE112&amp;",0x"&amp;AF112&amp;",0x"&amp;AE113&amp;",0x"&amp;AF113&amp;",0x"&amp;AE114&amp;",0x"&amp;AF114&amp;",0x"&amp;AE115&amp;",0x"&amp;AF115&amp;",0x"&amp;AE116&amp;",0x"&amp;AF116&amp;",0x"&amp;AE117&amp;",0x"&amp;AF117&amp;","</f>
-        <v>0x12,0x08,0x12,0x08,0x1E,0x08,0x03,0x08,0x01,0x88,0x00,0xC8,0x00,0x78,0x00,0x00,</v>
+        <f t="shared" si="11"/>
+        <v>08</v>
       </c>
     </row>
     <row r="104" spans="10:35" x14ac:dyDescent="0.4">
@@ -3370,18 +3666,16 @@
       <c r="M104" s="1"/>
       <c r="N104" s="1"/>
       <c r="O104" s="1"/>
-      <c r="P104" s="1"/>
-      <c r="Q104" s="1"/>
+      <c r="P104" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q104" s="10">
+        <v>1</v>
+      </c>
       <c r="R104" s="1"/>
-      <c r="S104" s="10">
-        <v>1</v>
-      </c>
-      <c r="T104" s="10">
-        <v>1</v>
-      </c>
-      <c r="U104" s="10">
-        <v>1</v>
-      </c>
+      <c r="S104" s="1"/>
+      <c r="T104" s="1"/>
+      <c r="U104" s="1"/>
       <c r="V104" s="10">
         <v>1</v>
       </c>
@@ -3390,11 +3684,11 @@
       <c r="Y104" s="6"/>
       <c r="AE104" t="str">
         <f t="shared" si="10"/>
-        <v>00</v>
+        <v>03</v>
       </c>
       <c r="AF104" t="str">
         <f t="shared" si="11"/>
-        <v>78</v>
+        <v>08</v>
       </c>
     </row>
     <row r="105" spans="10:35" x14ac:dyDescent="0.4">
@@ -3405,13 +3699,13 @@
       <c r="N105" s="1"/>
       <c r="O105" s="1"/>
       <c r="P105" s="1"/>
-      <c r="Q105" s="1"/>
+      <c r="Q105" s="10">
+        <v>1</v>
+      </c>
       <c r="R105" s="10">
         <v>1</v>
       </c>
-      <c r="S105" s="10">
-        <v>1</v>
-      </c>
+      <c r="S105" s="1"/>
       <c r="T105" s="1"/>
       <c r="U105" s="1"/>
       <c r="V105" s="10">
@@ -3422,11 +3716,11 @@
       <c r="Y105" s="6"/>
       <c r="AE105" t="str">
         <f t="shared" si="10"/>
-        <v>00</v>
+        <v>01</v>
       </c>
       <c r="AF105" t="str">
         <f t="shared" si="11"/>
-        <v>C8</v>
+        <v>88</v>
       </c>
     </row>
     <row r="106" spans="10:35" x14ac:dyDescent="0.4">
@@ -3437,13 +3731,13 @@
       <c r="N106" s="1"/>
       <c r="O106" s="1"/>
       <c r="P106" s="1"/>
-      <c r="Q106" s="10">
-        <v>1</v>
-      </c>
+      <c r="Q106" s="1"/>
       <c r="R106" s="10">
         <v>1</v>
       </c>
-      <c r="S106" s="1"/>
+      <c r="S106" s="10">
+        <v>1</v>
+      </c>
       <c r="T106" s="1"/>
       <c r="U106" s="1"/>
       <c r="V106" s="10">
@@ -3454,11 +3748,11 @@
       <c r="Y106" s="6"/>
       <c r="AE106" t="str">
         <f t="shared" si="10"/>
-        <v>01</v>
+        <v>00</v>
       </c>
       <c r="AF106" t="str">
         <f t="shared" si="11"/>
-        <v>88</v>
+        <v>C8</v>
       </c>
     </row>
     <row r="107" spans="10:35" x14ac:dyDescent="0.4">
@@ -3468,16 +3762,18 @@
       <c r="M107" s="1"/>
       <c r="N107" s="1"/>
       <c r="O107" s="1"/>
-      <c r="P107" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q107" s="10">
-        <v>1</v>
-      </c>
+      <c r="P107" s="1"/>
+      <c r="Q107" s="1"/>
       <c r="R107" s="1"/>
-      <c r="S107" s="1"/>
-      <c r="T107" s="1"/>
-      <c r="U107" s="1"/>
+      <c r="S107" s="10">
+        <v>1</v>
+      </c>
+      <c r="T107" s="10">
+        <v>1</v>
+      </c>
+      <c r="U107" s="10">
+        <v>1</v>
+      </c>
       <c r="V107" s="10">
         <v>1</v>
       </c>
@@ -3486,182 +3782,100 @@
       <c r="Y107" s="6"/>
       <c r="AE107" t="str">
         <f t="shared" si="10"/>
-        <v>03</v>
+        <v>00</v>
       </c>
       <c r="AF107" t="str">
         <f t="shared" si="11"/>
-        <v>08</v>
+        <v>78</v>
       </c>
     </row>
     <row r="108" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J108" s="5"/>
-      <c r="K108" s="1"/>
-      <c r="L108" s="1"/>
-      <c r="M108" s="10">
-        <v>1</v>
-      </c>
-      <c r="N108" s="10">
-        <v>1</v>
-      </c>
-      <c r="O108" s="10">
-        <v>1</v>
-      </c>
-      <c r="P108" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q108" s="1"/>
-      <c r="R108" s="1"/>
-      <c r="S108" s="1"/>
-      <c r="T108" s="1"/>
-      <c r="U108" s="1"/>
-      <c r="V108" s="10">
-        <v>1</v>
-      </c>
-      <c r="W108" s="1"/>
-      <c r="X108" s="1"/>
-      <c r="Y108" s="6"/>
+      <c r="J108" s="7"/>
+      <c r="K108" s="8"/>
+      <c r="L108" s="8"/>
+      <c r="M108" s="8"/>
+      <c r="N108" s="8"/>
+      <c r="O108" s="8"/>
+      <c r="P108" s="8"/>
+      <c r="Q108" s="8"/>
+      <c r="R108" s="8"/>
+      <c r="S108" s="8"/>
+      <c r="T108" s="8"/>
+      <c r="U108" s="8"/>
+      <c r="V108" s="8"/>
+      <c r="W108" s="8"/>
+      <c r="X108" s="8"/>
+      <c r="Y108" s="9"/>
       <c r="AE108" t="str">
         <f t="shared" si="10"/>
-        <v>1E</v>
+        <v>00</v>
       </c>
       <c r="AF108" t="str">
         <f t="shared" si="11"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="109" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J109" s="5"/>
-      <c r="K109" s="1"/>
-      <c r="L109" s="1"/>
-      <c r="M109" s="10">
-        <v>1</v>
-      </c>
-      <c r="N109" s="1"/>
-      <c r="O109" s="1"/>
-      <c r="P109" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q109" s="1"/>
-      <c r="R109" s="1"/>
-      <c r="S109" s="1"/>
-      <c r="T109" s="1"/>
-      <c r="U109" s="1"/>
-      <c r="V109" s="10">
-        <v>1</v>
-      </c>
-      <c r="W109" s="1"/>
-      <c r="X109" s="1"/>
-      <c r="Y109" s="6"/>
-      <c r="AE109" t="str">
-        <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="AF109" t="str">
-        <f t="shared" si="11"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="110" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J110" s="5"/>
-      <c r="K110" s="1"/>
-      <c r="L110" s="1"/>
-      <c r="M110" s="10">
-        <v>1</v>
-      </c>
-      <c r="N110" s="1"/>
-      <c r="O110" s="1"/>
-      <c r="P110" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q110" s="1"/>
-      <c r="R110" s="1"/>
-      <c r="S110" s="1"/>
-      <c r="T110" s="1"/>
-      <c r="U110" s="1"/>
-      <c r="V110" s="10">
-        <v>1</v>
-      </c>
-      <c r="W110" s="1"/>
-      <c r="X110" s="1"/>
-      <c r="Y110" s="6"/>
-      <c r="AE110" t="str">
-        <f t="shared" si="10"/>
-        <v>12</v>
-      </c>
-      <c r="AF110" t="str">
-        <f t="shared" si="11"/>
-        <v>08</v>
+        <v>00</v>
       </c>
     </row>
     <row r="111" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J111" s="5"/>
-      <c r="K111" s="1"/>
-      <c r="L111" s="1"/>
-      <c r="M111" s="10">
-        <v>1</v>
-      </c>
-      <c r="N111" s="1"/>
-      <c r="O111" s="1"/>
-      <c r="P111" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q111" s="1"/>
-      <c r="R111" s="1"/>
-      <c r="S111" s="1"/>
-      <c r="T111" s="1"/>
-      <c r="U111" s="1"/>
-      <c r="V111" s="10">
-        <v>1</v>
-      </c>
-      <c r="W111" s="1"/>
-      <c r="X111" s="1"/>
-      <c r="Y111" s="6"/>
+      <c r="J111" s="2"/>
+      <c r="K111" s="3"/>
+      <c r="L111" s="3"/>
+      <c r="M111" s="3"/>
+      <c r="N111" s="3"/>
+      <c r="O111" s="3"/>
+      <c r="P111" s="3"/>
+      <c r="Q111" s="3"/>
+      <c r="R111" s="3"/>
+      <c r="S111" s="3"/>
+      <c r="T111" s="3"/>
+      <c r="U111" s="3"/>
+      <c r="V111" s="3"/>
+      <c r="W111" s="3"/>
+      <c r="X111" s="3"/>
+      <c r="Y111" s="4"/>
       <c r="AE111" t="str">
-        <f t="shared" si="10"/>
-        <v>12</v>
+        <f>DEC2HEX(J111*128+K111*64+L111*32+M111*16+N111*8+O111*4+P111*2+Q111*1, 2)</f>
+        <v>00</v>
       </c>
       <c r="AF111" t="str">
-        <f t="shared" si="11"/>
-        <v>08</v>
+        <f>DEC2HEX(R111*128+S111*64+T111*32+U111*16+V111*8+W111*4+X111*2+Y111*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI111" t="str">
+        <f>"0x"&amp;AE111&amp;",0x"&amp;AF111&amp;",0x"&amp;AE112&amp;",0x"&amp;AF112&amp;",0x"&amp;AE113&amp;",0x"&amp;AF113&amp;",0x"&amp;AE114&amp;",0x"&amp;AF114&amp;",0x"&amp;AE115&amp;",0x"&amp;AF115&amp;",0x"&amp;AE116&amp;",0x"&amp;AF116&amp;",0x"&amp;AE117&amp;",0x"&amp;AF117&amp;",0x"&amp;AE118&amp;",0x"&amp;AF118&amp;","</f>
+        <v>0x00,0x00,0x00,0x00,0x03,0xC0,0x1F,0xF8,0x10,0x08,0x10,0x08,0x10,0x08,0x10,0x08,</v>
       </c>
     </row>
     <row r="112" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J112" s="5"/>
       <c r="K112" s="1"/>
       <c r="L112" s="1"/>
-      <c r="M112" s="10">
-        <v>1</v>
-      </c>
-      <c r="N112" s="10">
-        <v>1</v>
-      </c>
-      <c r="O112" s="10">
-        <v>1</v>
-      </c>
-      <c r="P112" s="10">
-        <v>1</v>
-      </c>
+      <c r="M112" s="1"/>
+      <c r="N112" s="1"/>
+      <c r="O112" s="1"/>
+      <c r="P112" s="1"/>
       <c r="Q112" s="1"/>
       <c r="R112" s="1"/>
       <c r="S112" s="1"/>
       <c r="T112" s="1"/>
       <c r="U112" s="1"/>
-      <c r="V112" s="10">
-        <v>1</v>
-      </c>
+      <c r="V112" s="1"/>
       <c r="W112" s="1"/>
       <c r="X112" s="1"/>
       <c r="Y112" s="6"/>
       <c r="AE112" t="str">
-        <f t="shared" si="10"/>
-        <v>1E</v>
+        <f t="shared" ref="AE112:AE126" si="12">DEC2HEX(J112*128+K112*64+L112*32+M112*16+N112*8+O112*4+P112*2+Q112*1, 2)</f>
+        <v>00</v>
       </c>
       <c r="AF112" t="str">
-        <f t="shared" si="11"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="113" spans="10:35" x14ac:dyDescent="0.4">
+        <f t="shared" ref="AF112:AF126" si="13">DEC2HEX(R112*128+S112*64+T112*32+U112*16+V112*8+W112*4+X112*2+Y112*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI112" t="str">
+        <f>"0x"&amp;AE119&amp;",0x"&amp;AF119&amp;",0x"&amp;AE120&amp;",0x"&amp;AF120&amp;",0x"&amp;AE121&amp;",0x"&amp;AF121&amp;",0x"&amp;AE122&amp;",0x"&amp;AF122&amp;",0x"&amp;AE123&amp;",0x"&amp;AF123&amp;",0x"&amp;AE124&amp;",0x"&amp;AF124&amp;",0x"&amp;AE125&amp;",0x"&amp;AF125&amp;",0x"&amp;AE126&amp;",0x"&amp;AF126&amp;","</f>
+        <v>0x10,0x08,0x10,0x08,0x10,0x08,0x10,0x08,0x10,0x08,0x10,0x08,0x1F,0xF8,0x00,0x00,</v>
+      </c>
+    </row>
+    <row r="113" spans="10:32" x14ac:dyDescent="0.4">
       <c r="J113" s="5"/>
       <c r="K113" s="1"/>
       <c r="L113" s="1"/>
@@ -3674,42 +3888,58 @@
       <c r="Q113" s="10">
         <v>1</v>
       </c>
-      <c r="R113" s="1"/>
-      <c r="S113" s="1"/>
+      <c r="R113" s="10">
+        <v>1</v>
+      </c>
+      <c r="S113" s="10">
+        <v>1</v>
+      </c>
       <c r="T113" s="1"/>
       <c r="U113" s="1"/>
-      <c r="V113" s="10">
-        <v>1</v>
-      </c>
+      <c r="V113" s="1"/>
       <c r="W113" s="1"/>
       <c r="X113" s="1"/>
       <c r="Y113" s="6"/>
       <c r="AE113" t="str">
-        <f t="shared" si="10"/>
+        <f t="shared" si="12"/>
         <v>03</v>
       </c>
       <c r="AF113" t="str">
-        <f t="shared" si="11"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="114" spans="10:35" x14ac:dyDescent="0.4">
+        <f t="shared" si="13"/>
+        <v>C0</v>
+      </c>
+    </row>
+    <row r="114" spans="10:32" x14ac:dyDescent="0.4">
       <c r="J114" s="5"/>
       <c r="K114" s="1"/>
       <c r="L114" s="1"/>
-      <c r="M114" s="1"/>
-      <c r="N114" s="1"/>
-      <c r="O114" s="1"/>
-      <c r="P114" s="1"/>
+      <c r="M114" s="10">
+        <v>1</v>
+      </c>
+      <c r="N114" s="10">
+        <v>1</v>
+      </c>
+      <c r="O114" s="10">
+        <v>1</v>
+      </c>
+      <c r="P114" s="10">
+        <v>1</v>
+      </c>
       <c r="Q114" s="10">
         <v>1</v>
       </c>
       <c r="R114" s="10">
         <v>1</v>
       </c>
-      <c r="S114" s="1"/>
-      <c r="T114" s="1"/>
-      <c r="U114" s="1"/>
+      <c r="S114" s="10">
+        <v>1</v>
+      </c>
+      <c r="T114" s="10">
+        <v>1</v>
+      </c>
+      <c r="U114" s="10">
+        <v>1</v>
+      </c>
       <c r="V114" s="10">
         <v>1</v>
       </c>
@@ -3717,29 +3947,27 @@
       <c r="X114" s="1"/>
       <c r="Y114" s="6"/>
       <c r="AE114" t="str">
-        <f t="shared" si="10"/>
-        <v>01</v>
+        <f t="shared" si="12"/>
+        <v>1F</v>
       </c>
       <c r="AF114" t="str">
-        <f t="shared" si="11"/>
-        <v>88</v>
-      </c>
-    </row>
-    <row r="115" spans="10:35" x14ac:dyDescent="0.4">
+        <f t="shared" si="13"/>
+        <v>F8</v>
+      </c>
+    </row>
+    <row r="115" spans="10:32" x14ac:dyDescent="0.4">
       <c r="J115" s="5"/>
       <c r="K115" s="1"/>
       <c r="L115" s="1"/>
-      <c r="M115" s="1"/>
+      <c r="M115" s="10">
+        <v>1</v>
+      </c>
       <c r="N115" s="1"/>
       <c r="O115" s="1"/>
       <c r="P115" s="1"/>
       <c r="Q115" s="1"/>
-      <c r="R115" s="10">
-        <v>1</v>
-      </c>
-      <c r="S115" s="10">
-        <v>1</v>
-      </c>
+      <c r="R115" s="1"/>
+      <c r="S115" s="1"/>
       <c r="T115" s="1"/>
       <c r="U115" s="1"/>
       <c r="V115" s="10">
@@ -3749,33 +3977,29 @@
       <c r="X115" s="1"/>
       <c r="Y115" s="6"/>
       <c r="AE115" t="str">
-        <f t="shared" si="10"/>
-        <v>00</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="AF115" t="str">
-        <f t="shared" si="11"/>
-        <v>C8</v>
-      </c>
-    </row>
-    <row r="116" spans="10:35" x14ac:dyDescent="0.4">
+        <f t="shared" si="13"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="116" spans="10:32" x14ac:dyDescent="0.4">
       <c r="J116" s="5"/>
       <c r="K116" s="1"/>
       <c r="L116" s="1"/>
-      <c r="M116" s="1"/>
+      <c r="M116" s="10">
+        <v>1</v>
+      </c>
       <c r="N116" s="1"/>
       <c r="O116" s="1"/>
       <c r="P116" s="1"/>
       <c r="Q116" s="1"/>
       <c r="R116" s="1"/>
-      <c r="S116" s="10">
-        <v>1</v>
-      </c>
-      <c r="T116" s="10">
-        <v>1</v>
-      </c>
-      <c r="U116" s="10">
-        <v>1</v>
-      </c>
+      <c r="S116" s="1"/>
+      <c r="T116" s="1"/>
+      <c r="U116" s="1"/>
       <c r="V116" s="10">
         <v>1</v>
       </c>
@@ -3783,75 +4007,141 @@
       <c r="X116" s="1"/>
       <c r="Y116" s="6"/>
       <c r="AE116" t="str">
-        <f t="shared" si="10"/>
-        <v>00</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="AF116" t="str">
-        <f t="shared" si="11"/>
-        <v>78</v>
-      </c>
-    </row>
-    <row r="117" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J117" s="7"/>
-      <c r="K117" s="8"/>
-      <c r="L117" s="8"/>
-      <c r="M117" s="8"/>
-      <c r="N117" s="8"/>
-      <c r="O117" s="8"/>
-      <c r="P117" s="8"/>
-      <c r="Q117" s="8"/>
-      <c r="R117" s="8"/>
-      <c r="S117" s="8"/>
-      <c r="T117" s="8"/>
-      <c r="U117" s="8"/>
-      <c r="V117" s="8"/>
-      <c r="W117" s="8"/>
-      <c r="X117" s="8"/>
-      <c r="Y117" s="9"/>
+        <f t="shared" si="13"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="117" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J117" s="5"/>
+      <c r="K117" s="1"/>
+      <c r="L117" s="1"/>
+      <c r="M117" s="10">
+        <v>1</v>
+      </c>
+      <c r="N117" s="1"/>
+      <c r="O117" s="1"/>
+      <c r="P117" s="1"/>
+      <c r="Q117" s="1"/>
+      <c r="R117" s="1"/>
+      <c r="S117" s="1"/>
+      <c r="T117" s="1"/>
+      <c r="U117" s="1"/>
+      <c r="V117" s="10">
+        <v>1</v>
+      </c>
+      <c r="W117" s="1"/>
+      <c r="X117" s="1"/>
+      <c r="Y117" s="6"/>
       <c r="AE117" t="str">
-        <f t="shared" si="10"/>
-        <v>00</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="AF117" t="str">
-        <f t="shared" si="11"/>
-        <v>00</v>
-      </c>
-    </row>
-    <row r="120" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J120" s="2"/>
-      <c r="K120" s="3"/>
-      <c r="L120" s="3"/>
-      <c r="M120" s="3"/>
-      <c r="N120" s="3"/>
-      <c r="O120" s="3"/>
-      <c r="P120" s="3"/>
-      <c r="Q120" s="3"/>
-      <c r="R120" s="3"/>
-      <c r="S120" s="3"/>
-      <c r="T120" s="3"/>
-      <c r="U120" s="3"/>
-      <c r="V120" s="3"/>
-      <c r="W120" s="3"/>
-      <c r="X120" s="3"/>
-      <c r="Y120" s="4"/>
+        <f t="shared" si="13"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="118" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J118" s="5"/>
+      <c r="K118" s="1"/>
+      <c r="L118" s="1"/>
+      <c r="M118" s="10">
+        <v>1</v>
+      </c>
+      <c r="N118" s="1"/>
+      <c r="O118" s="1"/>
+      <c r="P118" s="1"/>
+      <c r="Q118" s="1"/>
+      <c r="R118" s="1"/>
+      <c r="S118" s="1"/>
+      <c r="T118" s="1"/>
+      <c r="U118" s="1"/>
+      <c r="V118" s="10">
+        <v>1</v>
+      </c>
+      <c r="W118" s="1"/>
+      <c r="X118" s="1"/>
+      <c r="Y118" s="6"/>
+      <c r="AE118" t="str">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="AF118" t="str">
+        <f t="shared" si="13"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="119" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J119" s="5"/>
+      <c r="K119" s="1"/>
+      <c r="L119" s="1"/>
+      <c r="M119" s="10">
+        <v>1</v>
+      </c>
+      <c r="N119" s="1"/>
+      <c r="O119" s="1"/>
+      <c r="P119" s="1"/>
+      <c r="Q119" s="1"/>
+      <c r="R119" s="1"/>
+      <c r="S119" s="1"/>
+      <c r="T119" s="1"/>
+      <c r="U119" s="1"/>
+      <c r="V119" s="10">
+        <v>1</v>
+      </c>
+      <c r="W119" s="1"/>
+      <c r="X119" s="1"/>
+      <c r="Y119" s="6"/>
+      <c r="AE119" t="str">
+        <f t="shared" si="12"/>
+        <v>10</v>
+      </c>
+      <c r="AF119" t="str">
+        <f t="shared" si="13"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="120" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J120" s="5"/>
+      <c r="K120" s="1"/>
+      <c r="L120" s="1"/>
+      <c r="M120" s="10">
+        <v>1</v>
+      </c>
+      <c r="N120" s="1"/>
+      <c r="O120" s="1"/>
+      <c r="P120" s="1"/>
+      <c r="Q120" s="1"/>
+      <c r="R120" s="1"/>
+      <c r="S120" s="1"/>
+      <c r="T120" s="1"/>
+      <c r="U120" s="1"/>
+      <c r="V120" s="10">
+        <v>1</v>
+      </c>
+      <c r="W120" s="1"/>
+      <c r="X120" s="1"/>
+      <c r="Y120" s="6"/>
       <c r="AE120" t="str">
-        <f>DEC2HEX(J120*128+K120*64+L120*32+M120*16+N120*8+O120*4+P120*2+Q120*1, 2)</f>
-        <v>00</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="AF120" t="str">
-        <f>DEC2HEX(R120*128+S120*64+T120*32+U120*16+V120*8+W120*4+X120*2+Y120*1, 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AI120" t="str">
-        <f>"0x"&amp;AE120&amp;",0x"&amp;AF120&amp;",0x"&amp;AE121&amp;",0x"&amp;AF121&amp;",0x"&amp;AE122&amp;",0x"&amp;AF122&amp;",0x"&amp;AE123&amp;",0x"&amp;AF123&amp;",0x"&amp;AE124&amp;",0x"&amp;AF124&amp;",0x"&amp;AE125&amp;",0x"&amp;AF125&amp;",0x"&amp;AE126&amp;",0x"&amp;AF126&amp;",0x"&amp;AE127&amp;",0x"&amp;AF127&amp;","</f>
-        <v>0x00,0x00,0x00,0x00,0x03,0xC0,0x1F,0xF8,0x10,0x08,0x10,0x08,0x10,0x08,0x10,0x08,</v>
-      </c>
-    </row>
-    <row r="121" spans="10:35" x14ac:dyDescent="0.4">
+        <f t="shared" si="13"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="121" spans="10:32" x14ac:dyDescent="0.4">
       <c r="J121" s="5"/>
       <c r="K121" s="1"/>
       <c r="L121" s="1"/>
-      <c r="M121" s="1"/>
+      <c r="M121" s="10">
+        <v>1</v>
+      </c>
       <c r="N121" s="1"/>
       <c r="O121" s="1"/>
       <c r="P121" s="1"/>
@@ -3860,88 +4150,66 @@
       <c r="S121" s="1"/>
       <c r="T121" s="1"/>
       <c r="U121" s="1"/>
-      <c r="V121" s="1"/>
+      <c r="V121" s="10">
+        <v>1</v>
+      </c>
       <c r="W121" s="1"/>
       <c r="X121" s="1"/>
       <c r="Y121" s="6"/>
       <c r="AE121" t="str">
-        <f t="shared" ref="AE121:AE135" si="12">DEC2HEX(J121*128+K121*64+L121*32+M121*16+N121*8+O121*4+P121*2+Q121*1, 2)</f>
-        <v>00</v>
+        <f t="shared" si="12"/>
+        <v>10</v>
       </c>
       <c r="AF121" t="str">
-        <f t="shared" ref="AF121:AF135" si="13">DEC2HEX(R121*128+S121*64+T121*32+U121*16+V121*8+W121*4+X121*2+Y121*1, 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AI121" t="str">
-        <f>"0x"&amp;AE128&amp;",0x"&amp;AF128&amp;",0x"&amp;AE129&amp;",0x"&amp;AF129&amp;",0x"&amp;AE130&amp;",0x"&amp;AF130&amp;",0x"&amp;AE131&amp;",0x"&amp;AF131&amp;",0x"&amp;AE132&amp;",0x"&amp;AF132&amp;",0x"&amp;AE133&amp;",0x"&amp;AF133&amp;",0x"&amp;AE134&amp;",0x"&amp;AF134&amp;",0x"&amp;AE135&amp;",0x"&amp;AF135&amp;","</f>
-        <v>0x10,0x08,0x10,0x08,0x10,0x08,0x10,0x08,0x10,0x08,0x10,0x08,0x1F,0xF8,0x00,0x00,</v>
-      </c>
-    </row>
-    <row r="122" spans="10:35" x14ac:dyDescent="0.4">
+        <f t="shared" si="13"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="122" spans="10:32" x14ac:dyDescent="0.4">
       <c r="J122" s="5"/>
       <c r="K122" s="1"/>
       <c r="L122" s="1"/>
-      <c r="M122" s="1"/>
+      <c r="M122" s="10">
+        <v>1</v>
+      </c>
       <c r="N122" s="1"/>
       <c r="O122" s="1"/>
-      <c r="P122" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q122" s="10">
-        <v>1</v>
-      </c>
-      <c r="R122" s="10">
-        <v>1</v>
-      </c>
-      <c r="S122" s="10">
-        <v>1</v>
-      </c>
+      <c r="P122" s="1"/>
+      <c r="Q122" s="1"/>
+      <c r="R122" s="1"/>
+      <c r="S122" s="1"/>
       <c r="T122" s="1"/>
       <c r="U122" s="1"/>
-      <c r="V122" s="1"/>
+      <c r="V122" s="10">
+        <v>1</v>
+      </c>
       <c r="W122" s="1"/>
       <c r="X122" s="1"/>
       <c r="Y122" s="6"/>
       <c r="AE122" t="str">
         <f t="shared" si="12"/>
-        <v>03</v>
+        <v>10</v>
       </c>
       <c r="AF122" t="str">
         <f t="shared" si="13"/>
-        <v>C0</v>
-      </c>
-    </row>
-    <row r="123" spans="10:35" x14ac:dyDescent="0.4">
+        <v>08</v>
+      </c>
+    </row>
+    <row r="123" spans="10:32" x14ac:dyDescent="0.4">
       <c r="J123" s="5"/>
       <c r="K123" s="1"/>
       <c r="L123" s="1"/>
       <c r="M123" s="10">
         <v>1</v>
       </c>
-      <c r="N123" s="10">
-        <v>1</v>
-      </c>
-      <c r="O123" s="10">
-        <v>1</v>
-      </c>
-      <c r="P123" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q123" s="10">
-        <v>1</v>
-      </c>
-      <c r="R123" s="10">
-        <v>1</v>
-      </c>
-      <c r="S123" s="10">
-        <v>1</v>
-      </c>
-      <c r="T123" s="10">
-        <v>1</v>
-      </c>
-      <c r="U123" s="10">
-        <v>1</v>
-      </c>
+      <c r="N123" s="1"/>
+      <c r="O123" s="1"/>
+      <c r="P123" s="1"/>
+      <c r="Q123" s="1"/>
+      <c r="R123" s="1"/>
+      <c r="S123" s="1"/>
+      <c r="T123" s="1"/>
+      <c r="U123" s="1"/>
       <c r="V123" s="10">
         <v>1</v>
       </c>
@@ -3950,14 +4218,14 @@
       <c r="Y123" s="6"/>
       <c r="AE123" t="str">
         <f t="shared" si="12"/>
-        <v>1F</v>
+        <v>10</v>
       </c>
       <c r="AF123" t="str">
         <f t="shared" si="13"/>
-        <v>F8</v>
-      </c>
-    </row>
-    <row r="124" spans="10:35" x14ac:dyDescent="0.4">
+        <v>08</v>
+      </c>
+    </row>
+    <row r="124" spans="10:32" x14ac:dyDescent="0.4">
       <c r="J124" s="5"/>
       <c r="K124" s="1"/>
       <c r="L124" s="1"/>
@@ -3987,21 +4255,37 @@
         <v>08</v>
       </c>
     </row>
-    <row r="125" spans="10:35" x14ac:dyDescent="0.4">
+    <row r="125" spans="10:32" x14ac:dyDescent="0.4">
       <c r="J125" s="5"/>
       <c r="K125" s="1"/>
       <c r="L125" s="1"/>
       <c r="M125" s="10">
         <v>1</v>
       </c>
-      <c r="N125" s="1"/>
-      <c r="O125" s="1"/>
-      <c r="P125" s="1"/>
-      <c r="Q125" s="1"/>
-      <c r="R125" s="1"/>
-      <c r="S125" s="1"/>
-      <c r="T125" s="1"/>
-      <c r="U125" s="1"/>
+      <c r="N125" s="10">
+        <v>1</v>
+      </c>
+      <c r="O125" s="10">
+        <v>1</v>
+      </c>
+      <c r="P125" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q125" s="10">
+        <v>1</v>
+      </c>
+      <c r="R125" s="10">
+        <v>1</v>
+      </c>
+      <c r="S125" s="10">
+        <v>1</v>
+      </c>
+      <c r="T125" s="10">
+        <v>1</v>
+      </c>
+      <c r="U125" s="10">
+        <v>1</v>
+      </c>
       <c r="V125" s="10">
         <v>1</v>
       </c>
@@ -4010,140 +4294,74 @@
       <c r="Y125" s="6"/>
       <c r="AE125" t="str">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>1F</v>
       </c>
       <c r="AF125" t="str">
         <f t="shared" si="13"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="126" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J126" s="5"/>
-      <c r="K126" s="1"/>
-      <c r="L126" s="1"/>
-      <c r="M126" s="10">
-        <v>1</v>
-      </c>
-      <c r="N126" s="1"/>
-      <c r="O126" s="1"/>
-      <c r="P126" s="1"/>
-      <c r="Q126" s="1"/>
-      <c r="R126" s="1"/>
-      <c r="S126" s="1"/>
-      <c r="T126" s="1"/>
-      <c r="U126" s="1"/>
-      <c r="V126" s="10">
-        <v>1</v>
-      </c>
-      <c r="W126" s="1"/>
-      <c r="X126" s="1"/>
-      <c r="Y126" s="6"/>
+        <v>F8</v>
+      </c>
+    </row>
+    <row r="126" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J126" s="7"/>
+      <c r="K126" s="8"/>
+      <c r="L126" s="8"/>
+      <c r="M126" s="8"/>
+      <c r="N126" s="8"/>
+      <c r="O126" s="8"/>
+      <c r="P126" s="8"/>
+      <c r="Q126" s="8"/>
+      <c r="R126" s="8"/>
+      <c r="S126" s="8"/>
+      <c r="T126" s="8"/>
+      <c r="U126" s="8"/>
+      <c r="V126" s="8"/>
+      <c r="W126" s="8"/>
+      <c r="X126" s="8"/>
+      <c r="Y126" s="9"/>
       <c r="AE126" t="str">
         <f t="shared" si="12"/>
-        <v>10</v>
+        <v>00</v>
       </c>
       <c r="AF126" t="str">
         <f t="shared" si="13"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="127" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J127" s="5"/>
-      <c r="K127" s="1"/>
-      <c r="L127" s="1"/>
-      <c r="M127" s="10">
-        <v>1</v>
-      </c>
-      <c r="N127" s="1"/>
-      <c r="O127" s="1"/>
-      <c r="P127" s="1"/>
-      <c r="Q127" s="1"/>
-      <c r="R127" s="1"/>
-      <c r="S127" s="1"/>
-      <c r="T127" s="1"/>
-      <c r="U127" s="1"/>
-      <c r="V127" s="10">
-        <v>1</v>
-      </c>
-      <c r="W127" s="1"/>
-      <c r="X127" s="1"/>
-      <c r="Y127" s="6"/>
-      <c r="AE127" t="str">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="AF127" t="str">
-        <f t="shared" si="13"/>
-        <v>08</v>
-      </c>
-    </row>
-    <row r="128" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J128" s="5"/>
-      <c r="K128" s="1"/>
-      <c r="L128" s="1"/>
-      <c r="M128" s="10">
-        <v>1</v>
-      </c>
-      <c r="N128" s="1"/>
-      <c r="O128" s="1"/>
-      <c r="P128" s="1"/>
-      <c r="Q128" s="1"/>
-      <c r="R128" s="1"/>
-      <c r="S128" s="1"/>
-      <c r="T128" s="1"/>
-      <c r="U128" s="1"/>
-      <c r="V128" s="10">
-        <v>1</v>
-      </c>
-      <c r="W128" s="1"/>
-      <c r="X128" s="1"/>
-      <c r="Y128" s="6"/>
-      <c r="AE128" t="str">
-        <f t="shared" si="12"/>
-        <v>10</v>
-      </c>
-      <c r="AF128" t="str">
-        <f t="shared" si="13"/>
-        <v>08</v>
+        <v>00</v>
       </c>
     </row>
     <row r="129" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J129" s="5"/>
-      <c r="K129" s="1"/>
-      <c r="L129" s="1"/>
-      <c r="M129" s="10">
-        <v>1</v>
-      </c>
-      <c r="N129" s="1"/>
-      <c r="O129" s="1"/>
-      <c r="P129" s="1"/>
-      <c r="Q129" s="1"/>
-      <c r="R129" s="1"/>
-      <c r="S129" s="1"/>
-      <c r="T129" s="1"/>
-      <c r="U129" s="1"/>
-      <c r="V129" s="10">
-        <v>1</v>
-      </c>
-      <c r="W129" s="1"/>
-      <c r="X129" s="1"/>
-      <c r="Y129" s="6"/>
+      <c r="J129" s="2"/>
+      <c r="K129" s="3"/>
+      <c r="L129" s="3"/>
+      <c r="M129" s="3"/>
+      <c r="N129" s="3"/>
+      <c r="O129" s="3"/>
+      <c r="P129" s="3"/>
+      <c r="Q129" s="3"/>
+      <c r="R129" s="3"/>
+      <c r="S129" s="3"/>
+      <c r="T129" s="3"/>
+      <c r="U129" s="3"/>
+      <c r="V129" s="3"/>
+      <c r="W129" s="3"/>
+      <c r="X129" s="3"/>
+      <c r="Y129" s="4"/>
       <c r="AE129" t="str">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f>DEC2HEX(J129*128+K129*64+L129*32+M129*16+N129*8+O129*4+P129*2+Q129*1, 2)</f>
+        <v>00</v>
       </c>
       <c r="AF129" t="str">
-        <f t="shared" si="13"/>
-        <v>08</v>
+        <f>DEC2HEX(R129*128+S129*64+T129*32+U129*16+V129*8+W129*4+X129*2+Y129*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI129" t="str">
+        <f>"0x"&amp;AE129&amp;",0x"&amp;AF129&amp;",0x"&amp;AE130&amp;",0x"&amp;AF130&amp;",0x"&amp;AE131&amp;",0x"&amp;AF131&amp;",0x"&amp;AE132&amp;",0x"&amp;AF132&amp;",0x"&amp;AE133&amp;",0x"&amp;AF133&amp;",0x"&amp;AE134&amp;",0x"&amp;AF134&amp;",0x"&amp;AE135&amp;",0x"&amp;AF135&amp;",0x"&amp;AE136&amp;",0x"&amp;AF136&amp;","</f>
+        <v>0x00,0x00,0x00,0x00,0x0D,0xB0,0x3F,0xFC,0x2D,0xB4,0x20,0x04,0x20,0x34,0x2A,0xB4,</v>
       </c>
     </row>
     <row r="130" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J130" s="5"/>
       <c r="K130" s="1"/>
       <c r="L130" s="1"/>
-      <c r="M130" s="10">
-        <v>1</v>
-      </c>
+      <c r="M130" s="1"/>
       <c r="N130" s="1"/>
       <c r="O130" s="1"/>
       <c r="P130" s="1"/>
@@ -4152,217 +4370,331 @@
       <c r="S130" s="1"/>
       <c r="T130" s="1"/>
       <c r="U130" s="1"/>
-      <c r="V130" s="10">
-        <v>1</v>
-      </c>
+      <c r="V130" s="1"/>
       <c r="W130" s="1"/>
       <c r="X130" s="1"/>
       <c r="Y130" s="6"/>
       <c r="AE130" t="str">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" ref="AE130:AE144" si="14">DEC2HEX(J130*128+K130*64+L130*32+M130*16+N130*8+O130*4+P130*2+Q130*1, 2)</f>
+        <v>00</v>
       </c>
       <c r="AF130" t="str">
-        <f t="shared" si="13"/>
-        <v>08</v>
+        <f t="shared" ref="AF130:AF144" si="15">DEC2HEX(R130*128+S130*64+T130*32+U130*16+V130*8+W130*4+X130*2+Y130*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI130" t="str">
+        <f>"0x"&amp;AE137&amp;",0x"&amp;AF137&amp;",0x"&amp;AE138&amp;",0x"&amp;AF138&amp;",0x"&amp;AE139&amp;",0x"&amp;AF139&amp;",0x"&amp;AE140&amp;",0x"&amp;AF140&amp;",0x"&amp;AE141&amp;",0x"&amp;AF141&amp;",0x"&amp;AE142&amp;",0x"&amp;AF142&amp;",0x"&amp;AE143&amp;",0x"&amp;AF143&amp;",0x"&amp;AE144&amp;",0x"&amp;AF144&amp;","</f>
+        <v>0x20,0x04,0x2A,0xA4,0x20,0x04,0x2A,0xBC,0x20,0x24,0x20,0x28,0x3F,0xF0,0x00,0x00,</v>
       </c>
     </row>
     <row r="131" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J131" s="5"/>
       <c r="K131" s="1"/>
       <c r="L131" s="1"/>
-      <c r="M131" s="10">
-        <v>1</v>
-      </c>
-      <c r="N131" s="1"/>
-      <c r="O131" s="1"/>
+      <c r="M131" s="1"/>
+      <c r="N131" s="10">
+        <v>1</v>
+      </c>
+      <c r="O131" s="10">
+        <v>1</v>
+      </c>
       <c r="P131" s="1"/>
-      <c r="Q131" s="1"/>
-      <c r="R131" s="1"/>
+      <c r="Q131" s="10">
+        <v>1</v>
+      </c>
+      <c r="R131" s="10">
+        <v>1</v>
+      </c>
       <c r="S131" s="1"/>
-      <c r="T131" s="1"/>
-      <c r="U131" s="1"/>
-      <c r="V131" s="10">
-        <v>1</v>
-      </c>
+      <c r="T131" s="10">
+        <v>1</v>
+      </c>
+      <c r="U131" s="10">
+        <v>1</v>
+      </c>
+      <c r="V131" s="1"/>
       <c r="W131" s="1"/>
       <c r="X131" s="1"/>
       <c r="Y131" s="6"/>
       <c r="AE131" t="str">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>0D</v>
       </c>
       <c r="AF131" t="str">
-        <f t="shared" si="13"/>
-        <v>08</v>
+        <f t="shared" si="15"/>
+        <v>B0</v>
       </c>
     </row>
     <row r="132" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J132" s="5"/>
       <c r="K132" s="1"/>
-      <c r="L132" s="1"/>
+      <c r="L132" s="10">
+        <v>1</v>
+      </c>
       <c r="M132" s="10">
         <v>1</v>
       </c>
-      <c r="N132" s="1"/>
-      <c r="O132" s="1"/>
-      <c r="P132" s="1"/>
-      <c r="Q132" s="1"/>
-      <c r="R132" s="1"/>
-      <c r="S132" s="1"/>
-      <c r="T132" s="1"/>
-      <c r="U132" s="1"/>
+      <c r="N132" s="10">
+        <v>1</v>
+      </c>
+      <c r="O132" s="10">
+        <v>1</v>
+      </c>
+      <c r="P132" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q132" s="10">
+        <v>1</v>
+      </c>
+      <c r="R132" s="10">
+        <v>1</v>
+      </c>
+      <c r="S132" s="10">
+        <v>1</v>
+      </c>
+      <c r="T132" s="10">
+        <v>1</v>
+      </c>
+      <c r="U132" s="10">
+        <v>1</v>
+      </c>
       <c r="V132" s="10">
         <v>1</v>
       </c>
-      <c r="W132" s="1"/>
+      <c r="W132" s="10">
+        <v>1</v>
+      </c>
       <c r="X132" s="1"/>
       <c r="Y132" s="6"/>
       <c r="AE132" t="str">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>3F</v>
       </c>
       <c r="AF132" t="str">
-        <f t="shared" si="13"/>
-        <v>08</v>
+        <f t="shared" si="15"/>
+        <v>FC</v>
       </c>
     </row>
     <row r="133" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J133" s="5"/>
       <c r="K133" s="1"/>
-      <c r="L133" s="1"/>
-      <c r="M133" s="10">
-        <v>1</v>
-      </c>
-      <c r="N133" s="1"/>
-      <c r="O133" s="1"/>
+      <c r="L133" s="10">
+        <v>1</v>
+      </c>
+      <c r="M133" s="1"/>
+      <c r="N133" s="10">
+        <v>1</v>
+      </c>
+      <c r="O133" s="10">
+        <v>1</v>
+      </c>
       <c r="P133" s="1"/>
-      <c r="Q133" s="1"/>
-      <c r="R133" s="1"/>
+      <c r="Q133" s="10">
+        <v>1</v>
+      </c>
+      <c r="R133" s="10">
+        <v>1</v>
+      </c>
       <c r="S133" s="1"/>
-      <c r="T133" s="1"/>
-      <c r="U133" s="1"/>
-      <c r="V133" s="10">
-        <v>1</v>
-      </c>
-      <c r="W133" s="1"/>
+      <c r="T133" s="10">
+        <v>1</v>
+      </c>
+      <c r="U133" s="10">
+        <v>1</v>
+      </c>
+      <c r="V133" s="1"/>
+      <c r="W133" s="10">
+        <v>1</v>
+      </c>
       <c r="X133" s="1"/>
       <c r="Y133" s="6"/>
       <c r="AE133" t="str">
-        <f t="shared" si="12"/>
-        <v>10</v>
+        <f t="shared" si="14"/>
+        <v>2D</v>
       </c>
       <c r="AF133" t="str">
-        <f t="shared" si="13"/>
-        <v>08</v>
+        <f t="shared" si="15"/>
+        <v>B4</v>
       </c>
     </row>
     <row r="134" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J134" s="5"/>
       <c r="K134" s="1"/>
-      <c r="L134" s="1"/>
-      <c r="M134" s="10">
-        <v>1</v>
-      </c>
-      <c r="N134" s="10">
-        <v>1</v>
-      </c>
-      <c r="O134" s="10">
-        <v>1</v>
-      </c>
-      <c r="P134" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q134" s="10">
-        <v>1</v>
-      </c>
-      <c r="R134" s="10">
-        <v>1</v>
-      </c>
-      <c r="S134" s="10">
-        <v>1</v>
-      </c>
-      <c r="T134" s="10">
-        <v>1</v>
-      </c>
-      <c r="U134" s="10">
-        <v>1</v>
-      </c>
-      <c r="V134" s="10">
-        <v>1</v>
-      </c>
-      <c r="W134" s="1"/>
+      <c r="L134" s="10">
+        <v>1</v>
+      </c>
+      <c r="M134" s="1"/>
+      <c r="N134" s="1"/>
+      <c r="O134" s="1"/>
+      <c r="P134" s="1"/>
+      <c r="Q134" s="1"/>
+      <c r="R134" s="1"/>
+      <c r="S134" s="1"/>
+      <c r="T134" s="1"/>
+      <c r="U134" s="1"/>
+      <c r="V134" s="1"/>
+      <c r="W134" s="10">
+        <v>1</v>
+      </c>
       <c r="X134" s="1"/>
       <c r="Y134" s="6"/>
       <c r="AE134" t="str">
-        <f t="shared" si="12"/>
-        <v>1F</v>
+        <f t="shared" si="14"/>
+        <v>20</v>
       </c>
       <c r="AF134" t="str">
-        <f t="shared" si="13"/>
-        <v>F8</v>
+        <f t="shared" si="15"/>
+        <v>04</v>
       </c>
     </row>
     <row r="135" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J135" s="7"/>
-      <c r="K135" s="8"/>
-      <c r="L135" s="8"/>
-      <c r="M135" s="8"/>
-      <c r="N135" s="8"/>
-      <c r="O135" s="8"/>
-      <c r="P135" s="8"/>
-      <c r="Q135" s="8"/>
-      <c r="R135" s="8"/>
-      <c r="S135" s="8"/>
-      <c r="T135" s="8"/>
-      <c r="U135" s="8"/>
-      <c r="V135" s="8"/>
-      <c r="W135" s="8"/>
-      <c r="X135" s="8"/>
-      <c r="Y135" s="9"/>
+      <c r="J135" s="5"/>
+      <c r="K135" s="1"/>
+      <c r="L135" s="10">
+        <v>1</v>
+      </c>
+      <c r="M135" s="1"/>
+      <c r="N135" s="1"/>
+      <c r="O135" s="1"/>
+      <c r="P135" s="1"/>
+      <c r="Q135" s="1"/>
+      <c r="R135" s="1"/>
+      <c r="S135" s="1"/>
+      <c r="T135" s="10">
+        <v>1</v>
+      </c>
+      <c r="U135" s="10">
+        <v>1</v>
+      </c>
+      <c r="V135" s="1"/>
+      <c r="W135" s="10">
+        <v>1</v>
+      </c>
+      <c r="X135" s="1"/>
+      <c r="Y135" s="6"/>
       <c r="AE135" t="str">
-        <f t="shared" si="12"/>
-        <v>00</v>
+        <f t="shared" si="14"/>
+        <v>20</v>
       </c>
       <c r="AF135" t="str">
-        <f t="shared" si="13"/>
-        <v>00</v>
+        <f t="shared" si="15"/>
+        <v>34</v>
+      </c>
+    </row>
+    <row r="136" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J136" s="5"/>
+      <c r="K136" s="1"/>
+      <c r="L136" s="10">
+        <v>1</v>
+      </c>
+      <c r="M136" s="1"/>
+      <c r="N136" s="10">
+        <v>1</v>
+      </c>
+      <c r="O136" s="1"/>
+      <c r="P136" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q136" s="1"/>
+      <c r="R136" s="10">
+        <v>1</v>
+      </c>
+      <c r="S136" s="1"/>
+      <c r="T136" s="10">
+        <v>1</v>
+      </c>
+      <c r="U136" s="10">
+        <v>1</v>
+      </c>
+      <c r="V136" s="1"/>
+      <c r="W136" s="10">
+        <v>1</v>
+      </c>
+      <c r="X136" s="1"/>
+      <c r="Y136" s="6"/>
+      <c r="AE136" t="str">
+        <f t="shared" si="14"/>
+        <v>2A</v>
+      </c>
+      <c r="AF136" t="str">
+        <f t="shared" si="15"/>
+        <v>B4</v>
+      </c>
+    </row>
+    <row r="137" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J137" s="5"/>
+      <c r="K137" s="1"/>
+      <c r="L137" s="10">
+        <v>1</v>
+      </c>
+      <c r="M137" s="1"/>
+      <c r="N137" s="1"/>
+      <c r="O137" s="1"/>
+      <c r="P137" s="1"/>
+      <c r="Q137" s="1"/>
+      <c r="R137" s="1"/>
+      <c r="S137" s="1"/>
+      <c r="T137" s="1"/>
+      <c r="U137" s="1"/>
+      <c r="V137" s="1"/>
+      <c r="W137" s="10">
+        <v>1</v>
+      </c>
+      <c r="X137" s="1"/>
+      <c r="Y137" s="6"/>
+      <c r="AE137" t="str">
+        <f t="shared" si="14"/>
+        <v>20</v>
+      </c>
+      <c r="AF137" t="str">
+        <f t="shared" si="15"/>
+        <v>04</v>
       </c>
     </row>
     <row r="138" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J138" s="2"/>
-      <c r="K138" s="3"/>
-      <c r="L138" s="3"/>
-      <c r="M138" s="3"/>
-      <c r="N138" s="3"/>
-      <c r="O138" s="3"/>
-      <c r="P138" s="3"/>
-      <c r="Q138" s="3"/>
-      <c r="R138" s="3"/>
-      <c r="S138" s="3"/>
-      <c r="T138" s="3"/>
-      <c r="U138" s="3"/>
-      <c r="V138" s="3"/>
-      <c r="W138" s="3"/>
-      <c r="X138" s="3"/>
-      <c r="Y138" s="4"/>
+      <c r="J138" s="5"/>
+      <c r="K138" s="1"/>
+      <c r="L138" s="10">
+        <v>1</v>
+      </c>
+      <c r="M138" s="1"/>
+      <c r="N138" s="10">
+        <v>1</v>
+      </c>
+      <c r="O138" s="1"/>
+      <c r="P138" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q138" s="1"/>
+      <c r="R138" s="10">
+        <v>1</v>
+      </c>
+      <c r="S138" s="1"/>
+      <c r="T138" s="10">
+        <v>1</v>
+      </c>
+      <c r="U138" s="1"/>
+      <c r="V138" s="1"/>
+      <c r="W138" s="10">
+        <v>1</v>
+      </c>
+      <c r="X138" s="1"/>
+      <c r="Y138" s="6"/>
       <c r="AE138" t="str">
-        <f>DEC2HEX(J138*128+K138*64+L138*32+M138*16+N138*8+O138*4+P138*2+Q138*1, 2)</f>
-        <v>00</v>
+        <f t="shared" si="14"/>
+        <v>2A</v>
       </c>
       <c r="AF138" t="str">
-        <f>DEC2HEX(R138*128+S138*64+T138*32+U138*16+V138*8+W138*4+X138*2+Y138*1, 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AI138" t="str">
-        <f>"0x"&amp;AE138&amp;",0x"&amp;AF138&amp;",0x"&amp;AE139&amp;",0x"&amp;AF139&amp;",0x"&amp;AE140&amp;",0x"&amp;AF140&amp;",0x"&amp;AE141&amp;",0x"&amp;AF141&amp;",0x"&amp;AE142&amp;",0x"&amp;AF142&amp;",0x"&amp;AE143&amp;",0x"&amp;AF143&amp;",0x"&amp;AE144&amp;",0x"&amp;AF144&amp;",0x"&amp;AE145&amp;",0x"&amp;AF145&amp;","</f>
-        <v>0x00,0x00,0x00,0x00,0x0D,0xB0,0x3F,0xFC,0x2D,0xB4,0x20,0x04,0x20,0x34,0x2A,0xB4,</v>
+        <f t="shared" si="15"/>
+        <v>A4</v>
       </c>
     </row>
     <row r="139" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J139" s="5"/>
       <c r="K139" s="1"/>
-      <c r="L139" s="1"/>
+      <c r="L139" s="10">
+        <v>1</v>
+      </c>
       <c r="M139" s="1"/>
       <c r="N139" s="1"/>
       <c r="O139" s="1"/>
@@ -4373,37 +4705,35 @@
       <c r="T139" s="1"/>
       <c r="U139" s="1"/>
       <c r="V139" s="1"/>
-      <c r="W139" s="1"/>
+      <c r="W139" s="10">
+        <v>1</v>
+      </c>
       <c r="X139" s="1"/>
       <c r="Y139" s="6"/>
       <c r="AE139" t="str">
-        <f t="shared" ref="AE139:AE153" si="14">DEC2HEX(J139*128+K139*64+L139*32+M139*16+N139*8+O139*4+P139*2+Q139*1, 2)</f>
-        <v>00</v>
+        <f t="shared" si="14"/>
+        <v>20</v>
       </c>
       <c r="AF139" t="str">
-        <f t="shared" ref="AF139:AF153" si="15">DEC2HEX(R139*128+S139*64+T139*32+U139*16+V139*8+W139*4+X139*2+Y139*1, 2)</f>
-        <v>00</v>
-      </c>
-      <c r="AI139" t="str">
-        <f>"0x"&amp;AE146&amp;",0x"&amp;AF146&amp;",0x"&amp;AE147&amp;",0x"&amp;AF147&amp;",0x"&amp;AE148&amp;",0x"&amp;AF148&amp;",0x"&amp;AE149&amp;",0x"&amp;AF149&amp;",0x"&amp;AE150&amp;",0x"&amp;AF150&amp;",0x"&amp;AE151&amp;",0x"&amp;AF151&amp;",0x"&amp;AE152&amp;",0x"&amp;AF152&amp;",0x"&amp;AE153&amp;",0x"&amp;AF153&amp;","</f>
-        <v>0x20,0x04,0x2A,0xA4,0x20,0x04,0x2A,0xBC,0x20,0x24,0x20,0x28,0x3F,0xF0,0x00,0x00,</v>
+        <f t="shared" si="15"/>
+        <v>04</v>
       </c>
     </row>
     <row r="140" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J140" s="5"/>
       <c r="K140" s="1"/>
-      <c r="L140" s="1"/>
+      <c r="L140" s="10">
+        <v>1</v>
+      </c>
       <c r="M140" s="1"/>
       <c r="N140" s="10">
         <v>1</v>
       </c>
-      <c r="O140" s="10">
-        <v>1</v>
-      </c>
-      <c r="P140" s="1"/>
-      <c r="Q140" s="10">
-        <v>1</v>
-      </c>
+      <c r="O140" s="1"/>
+      <c r="P140" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q140" s="1"/>
       <c r="R140" s="10">
         <v>1</v>
       </c>
@@ -4414,17 +4744,21 @@
       <c r="U140" s="10">
         <v>1</v>
       </c>
-      <c r="V140" s="1"/>
-      <c r="W140" s="1"/>
+      <c r="V140" s="10">
+        <v>1</v>
+      </c>
+      <c r="W140" s="10">
+        <v>1</v>
+      </c>
       <c r="X140" s="1"/>
       <c r="Y140" s="6"/>
       <c r="AE140" t="str">
         <f t="shared" si="14"/>
-        <v>0D</v>
+        <v>2A</v>
       </c>
       <c r="AF140" t="str">
         <f t="shared" si="15"/>
-        <v>B0</v>
+        <v>BC</v>
       </c>
     </row>
     <row r="141" spans="10:35" x14ac:dyDescent="0.4">
@@ -4433,36 +4767,18 @@
       <c r="L141" s="10">
         <v>1</v>
       </c>
-      <c r="M141" s="10">
-        <v>1</v>
-      </c>
-      <c r="N141" s="10">
-        <v>1</v>
-      </c>
-      <c r="O141" s="10">
-        <v>1</v>
-      </c>
-      <c r="P141" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q141" s="10">
-        <v>1</v>
-      </c>
-      <c r="R141" s="10">
-        <v>1</v>
-      </c>
-      <c r="S141" s="10">
-        <v>1</v>
-      </c>
+      <c r="M141" s="1"/>
+      <c r="N141" s="1"/>
+      <c r="O141" s="1"/>
+      <c r="P141" s="1"/>
+      <c r="Q141" s="1"/>
+      <c r="R141" s="1"/>
+      <c r="S141" s="1"/>
       <c r="T141" s="10">
         <v>1</v>
       </c>
-      <c r="U141" s="10">
-        <v>1</v>
-      </c>
-      <c r="V141" s="10">
-        <v>1</v>
-      </c>
+      <c r="U141" s="1"/>
+      <c r="V141" s="1"/>
       <c r="W141" s="10">
         <v>1</v>
       </c>
@@ -4470,11 +4786,11 @@
       <c r="Y141" s="6"/>
       <c r="AE141" t="str">
         <f t="shared" si="14"/>
-        <v>3F</v>
+        <v>20</v>
       </c>
       <c r="AF141" t="str">
         <f t="shared" si="15"/>
-        <v>FC</v>
+        <v>24</v>
       </c>
     </row>
     <row r="142" spans="10:35" x14ac:dyDescent="0.4">
@@ -4484,39 +4800,29 @@
         <v>1</v>
       </c>
       <c r="M142" s="1"/>
-      <c r="N142" s="10">
-        <v>1</v>
-      </c>
-      <c r="O142" s="10">
-        <v>1</v>
-      </c>
+      <c r="N142" s="1"/>
+      <c r="O142" s="1"/>
       <c r="P142" s="1"/>
-      <c r="Q142" s="10">
-        <v>1</v>
-      </c>
-      <c r="R142" s="10">
-        <v>1</v>
-      </c>
+      <c r="Q142" s="1"/>
+      <c r="R142" s="1"/>
       <c r="S142" s="1"/>
       <c r="T142" s="10">
         <v>1</v>
       </c>
-      <c r="U142" s="10">
-        <v>1</v>
-      </c>
-      <c r="V142" s="1"/>
-      <c r="W142" s="10">
-        <v>1</v>
-      </c>
+      <c r="U142" s="1"/>
+      <c r="V142" s="10">
+        <v>1</v>
+      </c>
+      <c r="W142" s="1"/>
       <c r="X142" s="1"/>
       <c r="Y142" s="6"/>
       <c r="AE142" t="str">
         <f t="shared" si="14"/>
-        <v>2D</v>
+        <v>20</v>
       </c>
       <c r="AF142" t="str">
         <f t="shared" si="15"/>
-        <v>B4</v>
+        <v>28</v>
       </c>
     </row>
     <row r="143" spans="10:35" x14ac:dyDescent="0.4">
@@ -4525,209 +4831,143 @@
       <c r="L143" s="10">
         <v>1</v>
       </c>
-      <c r="M143" s="1"/>
-      <c r="N143" s="1"/>
-      <c r="O143" s="1"/>
-      <c r="P143" s="1"/>
-      <c r="Q143" s="1"/>
-      <c r="R143" s="1"/>
-      <c r="S143" s="1"/>
-      <c r="T143" s="1"/>
-      <c r="U143" s="1"/>
+      <c r="M143" s="10">
+        <v>1</v>
+      </c>
+      <c r="N143" s="10">
+        <v>1</v>
+      </c>
+      <c r="O143" s="10">
+        <v>1</v>
+      </c>
+      <c r="P143" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q143" s="10">
+        <v>1</v>
+      </c>
+      <c r="R143" s="10">
+        <v>1</v>
+      </c>
+      <c r="S143" s="10">
+        <v>1</v>
+      </c>
+      <c r="T143" s="10">
+        <v>1</v>
+      </c>
+      <c r="U143" s="10">
+        <v>1</v>
+      </c>
       <c r="V143" s="1"/>
-      <c r="W143" s="10">
-        <v>1</v>
-      </c>
+      <c r="W143" s="1"/>
       <c r="X143" s="1"/>
       <c r="Y143" s="6"/>
       <c r="AE143" t="str">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>3F</v>
       </c>
       <c r="AF143" t="str">
         <f t="shared" si="15"/>
-        <v>04</v>
+        <v>F0</v>
       </c>
     </row>
     <row r="144" spans="10:35" x14ac:dyDescent="0.4">
-      <c r="J144" s="5"/>
-      <c r="K144" s="1"/>
-      <c r="L144" s="10">
-        <v>1</v>
-      </c>
-      <c r="M144" s="1"/>
-      <c r="N144" s="1"/>
-      <c r="O144" s="1"/>
-      <c r="P144" s="1"/>
-      <c r="Q144" s="1"/>
-      <c r="R144" s="1"/>
-      <c r="S144" s="1"/>
-      <c r="T144" s="10">
-        <v>1</v>
-      </c>
-      <c r="U144" s="10">
-        <v>1</v>
-      </c>
-      <c r="V144" s="1"/>
-      <c r="W144" s="10">
-        <v>1</v>
-      </c>
-      <c r="X144" s="1"/>
-      <c r="Y144" s="6"/>
+      <c r="J144" s="7"/>
+      <c r="K144" s="8"/>
+      <c r="L144" s="8"/>
+      <c r="M144" s="8"/>
+      <c r="N144" s="8"/>
+      <c r="O144" s="8"/>
+      <c r="P144" s="8"/>
+      <c r="Q144" s="8"/>
+      <c r="R144" s="8"/>
+      <c r="S144" s="8"/>
+      <c r="T144" s="8"/>
+      <c r="U144" s="8"/>
+      <c r="V144" s="8"/>
+      <c r="W144" s="8"/>
+      <c r="X144" s="8"/>
+      <c r="Y144" s="9"/>
       <c r="AE144" t="str">
         <f t="shared" si="14"/>
-        <v>20</v>
+        <v>00</v>
       </c>
       <c r="AF144" t="str">
         <f t="shared" si="15"/>
-        <v>34</v>
-      </c>
-    </row>
-    <row r="145" spans="10:32" x14ac:dyDescent="0.4">
-      <c r="J145" s="5"/>
-      <c r="K145" s="1"/>
-      <c r="L145" s="10">
-        <v>1</v>
-      </c>
-      <c r="M145" s="1"/>
-      <c r="N145" s="10">
-        <v>1</v>
-      </c>
-      <c r="O145" s="1"/>
-      <c r="P145" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q145" s="1"/>
-      <c r="R145" s="10">
-        <v>1</v>
-      </c>
-      <c r="S145" s="1"/>
-      <c r="T145" s="10">
-        <v>1</v>
-      </c>
-      <c r="U145" s="10">
-        <v>1</v>
-      </c>
-      <c r="V145" s="1"/>
-      <c r="W145" s="10">
-        <v>1</v>
-      </c>
-      <c r="X145" s="1"/>
-      <c r="Y145" s="6"/>
-      <c r="AE145" t="str">
-        <f t="shared" si="14"/>
-        <v>2A</v>
-      </c>
-      <c r="AF145" t="str">
-        <f t="shared" si="15"/>
-        <v>B4</v>
-      </c>
-    </row>
-    <row r="146" spans="10:32" x14ac:dyDescent="0.4">
-      <c r="J146" s="5"/>
-      <c r="K146" s="1"/>
-      <c r="L146" s="10">
-        <v>1</v>
-      </c>
-      <c r="M146" s="1"/>
-      <c r="N146" s="1"/>
-      <c r="O146" s="1"/>
-      <c r="P146" s="1"/>
-      <c r="Q146" s="1"/>
-      <c r="R146" s="1"/>
-      <c r="S146" s="1"/>
-      <c r="T146" s="1"/>
-      <c r="U146" s="1"/>
-      <c r="V146" s="1"/>
-      <c r="W146" s="10">
-        <v>1</v>
-      </c>
-      <c r="X146" s="1"/>
-      <c r="Y146" s="6"/>
-      <c r="AE146" t="str">
-        <f t="shared" si="14"/>
-        <v>20</v>
-      </c>
-      <c r="AF146" t="str">
-        <f t="shared" si="15"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="147" spans="10:32" x14ac:dyDescent="0.4">
-      <c r="J147" s="5"/>
-      <c r="K147" s="1"/>
-      <c r="L147" s="10">
-        <v>1</v>
-      </c>
-      <c r="M147" s="1"/>
-      <c r="N147" s="10">
-        <v>1</v>
-      </c>
-      <c r="O147" s="1"/>
-      <c r="P147" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q147" s="1"/>
-      <c r="R147" s="10">
-        <v>1</v>
-      </c>
-      <c r="S147" s="1"/>
-      <c r="T147" s="10">
-        <v>1</v>
-      </c>
-      <c r="U147" s="1"/>
-      <c r="V147" s="1"/>
-      <c r="W147" s="10">
-        <v>1</v>
-      </c>
-      <c r="X147" s="1"/>
-      <c r="Y147" s="6"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="147" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J147" s="2"/>
+      <c r="K147" s="3"/>
+      <c r="L147" s="3"/>
+      <c r="M147" s="3"/>
+      <c r="N147" s="3"/>
+      <c r="O147" s="3"/>
+      <c r="P147" s="3"/>
+      <c r="Q147" s="3"/>
+      <c r="R147" s="3"/>
+      <c r="S147" s="3"/>
+      <c r="T147" s="3"/>
+      <c r="U147" s="3"/>
+      <c r="V147" s="3"/>
+      <c r="W147" s="3"/>
+      <c r="X147" s="3"/>
+      <c r="Y147" s="4"/>
       <c r="AE147" t="str">
-        <f t="shared" si="14"/>
-        <v>2A</v>
+        <f>DEC2HEX(J147*128+K147*64+L147*32+M147*16+N147*8+O147*4+P147*2+Q147*1, 2)</f>
+        <v>00</v>
       </c>
       <c r="AF147" t="str">
-        <f t="shared" si="15"/>
-        <v>A4</v>
-      </c>
-    </row>
-    <row r="148" spans="10:32" x14ac:dyDescent="0.4">
+        <f>DEC2HEX(R147*128+S147*64+T147*32+U147*16+V147*8+W147*4+X147*2+Y147*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI147" t="str">
+        <f>"0x"&amp;AE147&amp;",0x"&amp;AF147&amp;",0x"&amp;AE148&amp;",0x"&amp;AF148&amp;",0x"&amp;AE149&amp;",0x"&amp;AF149&amp;",0x"&amp;AE150&amp;",0x"&amp;AF150&amp;",0x"&amp;AE151&amp;",0x"&amp;AF151&amp;",0x"&amp;AE152&amp;",0x"&amp;AF152&amp;",0x"&amp;AE153&amp;",0x"&amp;AF153&amp;",0x"&amp;AE154&amp;",0x"&amp;AF154&amp;","</f>
+        <v>0x00,0x00,0x01,0x80,0x1B,0xD8,0x3F,0xFC,0x3E,0x7C,0x18,0x18,0x39,0x9C,0x72,0x4E,</v>
+      </c>
+    </row>
+    <row r="148" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J148" s="5"/>
       <c r="K148" s="1"/>
-      <c r="L148" s="10">
-        <v>1</v>
-      </c>
+      <c r="L148" s="1"/>
       <c r="M148" s="1"/>
       <c r="N148" s="1"/>
       <c r="O148" s="1"/>
       <c r="P148" s="1"/>
-      <c r="Q148" s="1"/>
-      <c r="R148" s="1"/>
+      <c r="Q148" s="10">
+        <v>1</v>
+      </c>
+      <c r="R148" s="10">
+        <v>1</v>
+      </c>
       <c r="S148" s="1"/>
       <c r="T148" s="1"/>
       <c r="U148" s="1"/>
       <c r="V148" s="1"/>
-      <c r="W148" s="10">
-        <v>1</v>
-      </c>
+      <c r="W148" s="1"/>
       <c r="X148" s="1"/>
       <c r="Y148" s="6"/>
       <c r="AE148" t="str">
-        <f t="shared" si="14"/>
-        <v>20</v>
+        <f t="shared" ref="AE148:AE162" si="16">DEC2HEX(J148*128+K148*64+L148*32+M148*16+N148*8+O148*4+P148*2+Q148*1, 2)</f>
+        <v>01</v>
       </c>
       <c r="AF148" t="str">
-        <f t="shared" si="15"/>
-        <v>04</v>
-      </c>
-    </row>
-    <row r="149" spans="10:32" x14ac:dyDescent="0.4">
+        <f t="shared" ref="AF148:AF162" si="17">DEC2HEX(R148*128+S148*64+T148*32+U148*16+V148*8+W148*4+X148*2+Y148*1, 2)</f>
+        <v>80</v>
+      </c>
+      <c r="AI148" t="str">
+        <f>"0x"&amp;AE155&amp;",0x"&amp;AF155&amp;",0x"&amp;AE156&amp;",0x"&amp;AF156&amp;",0x"&amp;AE157&amp;",0x"&amp;AF157&amp;",0x"&amp;AE158&amp;",0x"&amp;AF158&amp;",0x"&amp;AE159&amp;",0x"&amp;AF159&amp;",0x"&amp;AE160&amp;",0x"&amp;AF160&amp;",0x"&amp;AE161&amp;",0x"&amp;AF161&amp;",0x"&amp;AE162&amp;",0x"&amp;AF162&amp;","</f>
+        <v>0x72,0x4E,0x39,0x9C,0x18,0x18,0x3E,0x7C,0x3F,0xFC,0x1B,0xD8,0x01,0x80,0x00,0x00,</v>
+      </c>
+    </row>
+    <row r="149" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J149" s="5"/>
       <c r="K149" s="1"/>
-      <c r="L149" s="10">
-        <v>1</v>
-      </c>
-      <c r="M149" s="1"/>
+      <c r="L149" s="1"/>
+      <c r="M149" s="10">
+        <v>1</v>
+      </c>
       <c r="N149" s="10">
         <v>1</v>
       </c>
@@ -4735,167 +4975,1561 @@
       <c r="P149" s="10">
         <v>1</v>
       </c>
-      <c r="Q149" s="1"/>
+      <c r="Q149" s="10">
+        <v>1</v>
+      </c>
       <c r="R149" s="10">
         <v>1</v>
       </c>
-      <c r="S149" s="1"/>
-      <c r="T149" s="10">
-        <v>1</v>
-      </c>
+      <c r="S149" s="10">
+        <v>1</v>
+      </c>
+      <c r="T149" s="1"/>
       <c r="U149" s="10">
         <v>1</v>
       </c>
       <c r="V149" s="10">
         <v>1</v>
       </c>
-      <c r="W149" s="10">
-        <v>1</v>
-      </c>
+      <c r="W149" s="1"/>
       <c r="X149" s="1"/>
       <c r="Y149" s="6"/>
       <c r="AE149" t="str">
-        <f t="shared" si="14"/>
-        <v>2A</v>
+        <f t="shared" si="16"/>
+        <v>1B</v>
       </c>
       <c r="AF149" t="str">
-        <f t="shared" si="15"/>
-        <v>BC</v>
-      </c>
-    </row>
-    <row r="150" spans="10:32" x14ac:dyDescent="0.4">
+        <f t="shared" si="17"/>
+        <v>D8</v>
+      </c>
+    </row>
+    <row r="150" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J150" s="5"/>
       <c r="K150" s="1"/>
       <c r="L150" s="10">
         <v>1</v>
       </c>
-      <c r="M150" s="1"/>
-      <c r="N150" s="1"/>
-      <c r="O150" s="1"/>
-      <c r="P150" s="1"/>
-      <c r="Q150" s="1"/>
-      <c r="R150" s="1"/>
-      <c r="S150" s="1"/>
+      <c r="M150" s="10">
+        <v>1</v>
+      </c>
+      <c r="N150" s="10">
+        <v>1</v>
+      </c>
+      <c r="O150" s="10">
+        <v>1</v>
+      </c>
+      <c r="P150" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q150" s="10">
+        <v>1</v>
+      </c>
+      <c r="R150" s="10">
+        <v>1</v>
+      </c>
+      <c r="S150" s="10">
+        <v>1</v>
+      </c>
       <c r="T150" s="10">
         <v>1</v>
       </c>
-      <c r="U150" s="1"/>
-      <c r="V150" s="1"/>
+      <c r="U150" s="10">
+        <v>1</v>
+      </c>
+      <c r="V150" s="10">
+        <v>1</v>
+      </c>
       <c r="W150" s="10">
         <v>1</v>
       </c>
       <c r="X150" s="1"/>
       <c r="Y150" s="6"/>
       <c r="AE150" t="str">
-        <f t="shared" si="14"/>
-        <v>20</v>
+        <f t="shared" si="16"/>
+        <v>3F</v>
       </c>
       <c r="AF150" t="str">
-        <f t="shared" si="15"/>
-        <v>24</v>
-      </c>
-    </row>
-    <row r="151" spans="10:32" x14ac:dyDescent="0.4">
+        <f t="shared" si="17"/>
+        <v>FC</v>
+      </c>
+    </row>
+    <row r="151" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J151" s="5"/>
       <c r="K151" s="1"/>
       <c r="L151" s="10">
         <v>1</v>
       </c>
-      <c r="M151" s="1"/>
-      <c r="N151" s="1"/>
-      <c r="O151" s="1"/>
-      <c r="P151" s="1"/>
+      <c r="M151" s="10">
+        <v>1</v>
+      </c>
+      <c r="N151" s="10">
+        <v>1</v>
+      </c>
+      <c r="O151" s="10">
+        <v>1</v>
+      </c>
+      <c r="P151" s="10">
+        <v>1</v>
+      </c>
       <c r="Q151" s="1"/>
       <c r="R151" s="1"/>
-      <c r="S151" s="1"/>
+      <c r="S151" s="10">
+        <v>1</v>
+      </c>
       <c r="T151" s="10">
         <v>1</v>
       </c>
-      <c r="U151" s="1"/>
+      <c r="U151" s="10">
+        <v>1</v>
+      </c>
       <c r="V151" s="10">
         <v>1</v>
       </c>
-      <c r="W151" s="1"/>
+      <c r="W151" s="10">
+        <v>1</v>
+      </c>
       <c r="X151" s="1"/>
       <c r="Y151" s="6"/>
       <c r="AE151" t="str">
-        <f t="shared" si="14"/>
-        <v>20</v>
+        <f t="shared" si="16"/>
+        <v>3E</v>
       </c>
       <c r="AF151" t="str">
-        <f t="shared" si="15"/>
-        <v>28</v>
-      </c>
-    </row>
-    <row r="152" spans="10:32" x14ac:dyDescent="0.4">
+        <f t="shared" si="17"/>
+        <v>7C</v>
+      </c>
+    </row>
+    <row r="152" spans="10:35" x14ac:dyDescent="0.4">
       <c r="J152" s="5"/>
       <c r="K152" s="1"/>
-      <c r="L152" s="10">
-        <v>1</v>
-      </c>
+      <c r="L152" s="1"/>
       <c r="M152" s="10">
         <v>1</v>
       </c>
       <c r="N152" s="10">
         <v>1</v>
       </c>
-      <c r="O152" s="10">
-        <v>1</v>
-      </c>
-      <c r="P152" s="10">
-        <v>1</v>
-      </c>
-      <c r="Q152" s="10">
-        <v>1</v>
-      </c>
-      <c r="R152" s="10">
-        <v>1</v>
-      </c>
-      <c r="S152" s="10">
-        <v>1</v>
-      </c>
-      <c r="T152" s="10">
-        <v>1</v>
-      </c>
+      <c r="O152" s="1"/>
+      <c r="P152" s="1"/>
+      <c r="Q152" s="1"/>
+      <c r="R152" s="1"/>
+      <c r="S152" s="1"/>
+      <c r="T152" s="1"/>
       <c r="U152" s="10">
         <v>1</v>
       </c>
-      <c r="V152" s="1"/>
+      <c r="V152" s="10">
+        <v>1</v>
+      </c>
       <c r="W152" s="1"/>
       <c r="X152" s="1"/>
       <c r="Y152" s="6"/>
       <c r="AE152" t="str">
-        <f t="shared" si="14"/>
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="AF152" t="str">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="153" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J153" s="5"/>
+      <c r="K153" s="1"/>
+      <c r="L153" s="10">
+        <v>1</v>
+      </c>
+      <c r="M153" s="10">
+        <v>1</v>
+      </c>
+      <c r="N153" s="10">
+        <v>1</v>
+      </c>
+      <c r="O153" s="1"/>
+      <c r="P153" s="1"/>
+      <c r="Q153" s="10">
+        <v>1</v>
+      </c>
+      <c r="R153" s="10">
+        <v>1</v>
+      </c>
+      <c r="S153" s="1"/>
+      <c r="T153" s="1"/>
+      <c r="U153" s="10">
+        <v>1</v>
+      </c>
+      <c r="V153" s="10">
+        <v>1</v>
+      </c>
+      <c r="W153" s="10">
+        <v>1</v>
+      </c>
+      <c r="X153" s="1"/>
+      <c r="Y153" s="6"/>
+      <c r="AE153" t="str">
+        <f t="shared" si="16"/>
+        <v>39</v>
+      </c>
+      <c r="AF153" t="str">
+        <f t="shared" si="17"/>
+        <v>9C</v>
+      </c>
+    </row>
+    <row r="154" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J154" s="5"/>
+      <c r="K154" s="10">
+        <v>1</v>
+      </c>
+      <c r="L154" s="10">
+        <v>1</v>
+      </c>
+      <c r="M154" s="10">
+        <v>1</v>
+      </c>
+      <c r="N154" s="1"/>
+      <c r="O154" s="1"/>
+      <c r="P154" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q154" s="1"/>
+      <c r="R154" s="1"/>
+      <c r="S154" s="10">
+        <v>1</v>
+      </c>
+      <c r="T154" s="1"/>
+      <c r="U154" s="1"/>
+      <c r="V154" s="10">
+        <v>1</v>
+      </c>
+      <c r="W154" s="10">
+        <v>1</v>
+      </c>
+      <c r="X154" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y154" s="6"/>
+      <c r="AE154" t="str">
+        <f t="shared" si="16"/>
+        <v>72</v>
+      </c>
+      <c r="AF154" t="str">
+        <f t="shared" si="17"/>
+        <v>4E</v>
+      </c>
+    </row>
+    <row r="155" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J155" s="5"/>
+      <c r="K155" s="10">
+        <v>1</v>
+      </c>
+      <c r="L155" s="10">
+        <v>1</v>
+      </c>
+      <c r="M155" s="10">
+        <v>1</v>
+      </c>
+      <c r="N155" s="1"/>
+      <c r="O155" s="1"/>
+      <c r="P155" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q155" s="1"/>
+      <c r="R155" s="1"/>
+      <c r="S155" s="10">
+        <v>1</v>
+      </c>
+      <c r="T155" s="1"/>
+      <c r="U155" s="1"/>
+      <c r="V155" s="10">
+        <v>1</v>
+      </c>
+      <c r="W155" s="10">
+        <v>1</v>
+      </c>
+      <c r="X155" s="10">
+        <v>1</v>
+      </c>
+      <c r="Y155" s="6"/>
+      <c r="AE155" t="str">
+        <f t="shared" si="16"/>
+        <v>72</v>
+      </c>
+      <c r="AF155" t="str">
+        <f t="shared" si="17"/>
+        <v>4E</v>
+      </c>
+    </row>
+    <row r="156" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J156" s="5"/>
+      <c r="K156" s="1"/>
+      <c r="L156" s="10">
+        <v>1</v>
+      </c>
+      <c r="M156" s="10">
+        <v>1</v>
+      </c>
+      <c r="N156" s="10">
+        <v>1</v>
+      </c>
+      <c r="O156" s="1"/>
+      <c r="P156" s="1"/>
+      <c r="Q156" s="10">
+        <v>1</v>
+      </c>
+      <c r="R156" s="10">
+        <v>1</v>
+      </c>
+      <c r="S156" s="1"/>
+      <c r="T156" s="1"/>
+      <c r="U156" s="10">
+        <v>1</v>
+      </c>
+      <c r="V156" s="10">
+        <v>1</v>
+      </c>
+      <c r="W156" s="10">
+        <v>1</v>
+      </c>
+      <c r="X156" s="1"/>
+      <c r="Y156" s="6"/>
+      <c r="AE156" t="str">
+        <f t="shared" si="16"/>
+        <v>39</v>
+      </c>
+      <c r="AF156" t="str">
+        <f t="shared" si="17"/>
+        <v>9C</v>
+      </c>
+    </row>
+    <row r="157" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J157" s="5"/>
+      <c r="K157" s="1"/>
+      <c r="L157" s="1"/>
+      <c r="M157" s="10">
+        <v>1</v>
+      </c>
+      <c r="N157" s="10">
+        <v>1</v>
+      </c>
+      <c r="O157" s="1"/>
+      <c r="P157" s="1"/>
+      <c r="Q157" s="1"/>
+      <c r="R157" s="1"/>
+      <c r="S157" s="1"/>
+      <c r="T157" s="1"/>
+      <c r="U157" s="10">
+        <v>1</v>
+      </c>
+      <c r="V157" s="10">
+        <v>1</v>
+      </c>
+      <c r="W157" s="1"/>
+      <c r="X157" s="1"/>
+      <c r="Y157" s="6"/>
+      <c r="AE157" t="str">
+        <f t="shared" si="16"/>
+        <v>18</v>
+      </c>
+      <c r="AF157" t="str">
+        <f t="shared" si="17"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="158" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J158" s="5"/>
+      <c r="K158" s="1"/>
+      <c r="L158" s="10">
+        <v>1</v>
+      </c>
+      <c r="M158" s="10">
+        <v>1</v>
+      </c>
+      <c r="N158" s="10">
+        <v>1</v>
+      </c>
+      <c r="O158" s="10">
+        <v>1</v>
+      </c>
+      <c r="P158" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q158" s="1"/>
+      <c r="R158" s="1"/>
+      <c r="S158" s="10">
+        <v>1</v>
+      </c>
+      <c r="T158" s="10">
+        <v>1</v>
+      </c>
+      <c r="U158" s="10">
+        <v>1</v>
+      </c>
+      <c r="V158" s="10">
+        <v>1</v>
+      </c>
+      <c r="W158" s="10">
+        <v>1</v>
+      </c>
+      <c r="X158" s="1"/>
+      <c r="Y158" s="6"/>
+      <c r="AE158" t="str">
+        <f t="shared" si="16"/>
+        <v>3E</v>
+      </c>
+      <c r="AF158" t="str">
+        <f t="shared" si="17"/>
+        <v>7C</v>
+      </c>
+    </row>
+    <row r="159" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J159" s="5"/>
+      <c r="K159" s="1"/>
+      <c r="L159" s="10">
+        <v>1</v>
+      </c>
+      <c r="M159" s="10">
+        <v>1</v>
+      </c>
+      <c r="N159" s="10">
+        <v>1</v>
+      </c>
+      <c r="O159" s="10">
+        <v>1</v>
+      </c>
+      <c r="P159" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q159" s="10">
+        <v>1</v>
+      </c>
+      <c r="R159" s="10">
+        <v>1</v>
+      </c>
+      <c r="S159" s="10">
+        <v>1</v>
+      </c>
+      <c r="T159" s="10">
+        <v>1</v>
+      </c>
+      <c r="U159" s="10">
+        <v>1</v>
+      </c>
+      <c r="V159" s="10">
+        <v>1</v>
+      </c>
+      <c r="W159" s="10">
+        <v>1</v>
+      </c>
+      <c r="X159" s="1"/>
+      <c r="Y159" s="6"/>
+      <c r="AE159" t="str">
+        <f t="shared" si="16"/>
         <v>3F</v>
       </c>
-      <c r="AF152" t="str">
-        <f t="shared" si="15"/>
-        <v>F0</v>
-      </c>
-    </row>
-    <row r="153" spans="10:32" x14ac:dyDescent="0.4">
-      <c r="J153" s="7"/>
-      <c r="K153" s="8"/>
-      <c r="L153" s="8"/>
-      <c r="M153" s="8"/>
-      <c r="N153" s="8"/>
-      <c r="O153" s="8"/>
-      <c r="P153" s="8"/>
-      <c r="Q153" s="8"/>
-      <c r="R153" s="8"/>
-      <c r="S153" s="8"/>
-      <c r="T153" s="8"/>
-      <c r="U153" s="8"/>
-      <c r="V153" s="8"/>
-      <c r="W153" s="8"/>
-      <c r="X153" s="8"/>
-      <c r="Y153" s="9"/>
-      <c r="AE153" t="str">
-        <f t="shared" si="14"/>
+      <c r="AF159" t="str">
+        <f t="shared" si="17"/>
+        <v>FC</v>
+      </c>
+    </row>
+    <row r="160" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J160" s="5"/>
+      <c r="K160" s="1"/>
+      <c r="L160" s="1"/>
+      <c r="M160" s="10">
+        <v>1</v>
+      </c>
+      <c r="N160" s="10">
+        <v>1</v>
+      </c>
+      <c r="O160" s="1"/>
+      <c r="P160" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q160" s="10">
+        <v>1</v>
+      </c>
+      <c r="R160" s="10">
+        <v>1</v>
+      </c>
+      <c r="S160" s="10">
+        <v>1</v>
+      </c>
+      <c r="T160" s="1"/>
+      <c r="U160" s="10">
+        <v>1</v>
+      </c>
+      <c r="V160" s="10">
+        <v>1</v>
+      </c>
+      <c r="W160" s="1"/>
+      <c r="X160" s="1"/>
+      <c r="Y160" s="6"/>
+      <c r="AE160" t="str">
+        <f t="shared" si="16"/>
+        <v>1B</v>
+      </c>
+      <c r="AF160" t="str">
+        <f t="shared" si="17"/>
+        <v>D8</v>
+      </c>
+    </row>
+    <row r="161" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J161" s="5"/>
+      <c r="K161" s="1"/>
+      <c r="L161" s="1"/>
+      <c r="M161" s="1"/>
+      <c r="N161" s="1"/>
+      <c r="O161" s="1"/>
+      <c r="P161" s="1"/>
+      <c r="Q161" s="10">
+        <v>1</v>
+      </c>
+      <c r="R161" s="10">
+        <v>1</v>
+      </c>
+      <c r="S161" s="1"/>
+      <c r="T161" s="1"/>
+      <c r="U161" s="1"/>
+      <c r="V161" s="1"/>
+      <c r="W161" s="1"/>
+      <c r="X161" s="1"/>
+      <c r="Y161" s="6"/>
+      <c r="AE161" t="str">
+        <f t="shared" si="16"/>
+        <v>01</v>
+      </c>
+      <c r="AF161" t="str">
+        <f t="shared" si="17"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="162" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J162" s="7"/>
+      <c r="K162" s="8"/>
+      <c r="L162" s="8"/>
+      <c r="M162" s="8"/>
+      <c r="N162" s="8"/>
+      <c r="O162" s="8"/>
+      <c r="P162" s="8"/>
+      <c r="Q162" s="8"/>
+      <c r="R162" s="8"/>
+      <c r="S162" s="8"/>
+      <c r="T162" s="8"/>
+      <c r="U162" s="8"/>
+      <c r="V162" s="8"/>
+      <c r="W162" s="8"/>
+      <c r="X162" s="8"/>
+      <c r="Y162" s="9"/>
+      <c r="AE162" t="str">
+        <f t="shared" si="16"/>
         <v>00</v>
       </c>
-      <c r="AF153" t="str">
-        <f t="shared" si="15"/>
+      <c r="AF162" t="str">
+        <f t="shared" si="17"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="165" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J165" s="2"/>
+      <c r="K165" s="3"/>
+      <c r="L165" s="3"/>
+      <c r="M165" s="3"/>
+      <c r="N165" s="3"/>
+      <c r="O165" s="3"/>
+      <c r="P165" s="3"/>
+      <c r="Q165" s="3"/>
+      <c r="R165" s="3"/>
+      <c r="S165" s="3"/>
+      <c r="T165" s="3"/>
+      <c r="U165" s="3"/>
+      <c r="V165" s="3"/>
+      <c r="W165" s="3"/>
+      <c r="X165" s="3"/>
+      <c r="Y165" s="4"/>
+      <c r="AE165" t="str">
+        <f>DEC2HEX(J165*128+K165*64+L165*32+M165*16+N165*8+O165*4+P165*2+Q165*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AF165" t="str">
+        <f>DEC2HEX(R165*128+S165*64+T165*32+U165*16+V165*8+W165*4+X165*2+Y165*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI165" t="str">
+        <f>"0x"&amp;AE165&amp;",0x"&amp;AF165&amp;",0x"&amp;AE166&amp;",0x"&amp;AF166&amp;",0x"&amp;AE167&amp;",0x"&amp;AF167&amp;",0x"&amp;AE168&amp;",0x"&amp;AF168&amp;",0x"&amp;AE169&amp;",0x"&amp;AF169&amp;",0x"&amp;AE170&amp;",0x"&amp;AF170&amp;",0x"&amp;AE171&amp;",0x"&amp;AF171&amp;",0x"&amp;AE172&amp;",0x"&amp;AF172&amp;","</f>
+        <v>0x00,0x00,0x00,0x00,0x00,0x08,0x00,0x08,0x00,0x18,0x00,0x10,0x00,0x30,0x00,0x20,</v>
+      </c>
+    </row>
+    <row r="166" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J166" s="5"/>
+      <c r="K166" s="1"/>
+      <c r="L166" s="1"/>
+      <c r="M166" s="1"/>
+      <c r="N166" s="1"/>
+      <c r="O166" s="1"/>
+      <c r="P166" s="1"/>
+      <c r="Q166" s="1"/>
+      <c r="R166" s="1"/>
+      <c r="S166" s="1"/>
+      <c r="T166" s="1"/>
+      <c r="U166" s="1"/>
+      <c r="V166" s="1"/>
+      <c r="W166" s="1"/>
+      <c r="X166" s="1"/>
+      <c r="Y166" s="6"/>
+      <c r="AE166" t="str">
+        <f t="shared" ref="AE166:AE180" si="18">DEC2HEX(J166*128+K166*64+L166*32+M166*16+N166*8+O166*4+P166*2+Q166*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AF166" t="str">
+        <f t="shared" ref="AF166:AF180" si="19">DEC2HEX(R166*128+S166*64+T166*32+U166*16+V166*8+W166*4+X166*2+Y166*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI166" t="str">
+        <f>"0x"&amp;AE173&amp;",0x"&amp;AF173&amp;",0x"&amp;AE174&amp;",0x"&amp;AF174&amp;",0x"&amp;AE175&amp;",0x"&amp;AF175&amp;",0x"&amp;AE176&amp;",0x"&amp;AF176&amp;",0x"&amp;AE177&amp;",0x"&amp;AF177&amp;",0x"&amp;AE178&amp;",0x"&amp;AF178&amp;",0x"&amp;AE179&amp;",0x"&amp;AF179&amp;",0x"&amp;AE180&amp;",0x"&amp;AF180&amp;","</f>
+        <v>0x00,0x60,0x00,0x40,0x10,0xC0,0x18,0x80,0x0D,0x80,0x07,0x00,0x03,0x00,0x00,0x00,</v>
+      </c>
+    </row>
+    <row r="167" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J167" s="5"/>
+      <c r="K167" s="1"/>
+      <c r="L167" s="1"/>
+      <c r="M167" s="1"/>
+      <c r="N167" s="1"/>
+      <c r="O167" s="1"/>
+      <c r="P167" s="1"/>
+      <c r="Q167" s="1"/>
+      <c r="R167" s="1"/>
+      <c r="S167" s="1"/>
+      <c r="T167" s="1"/>
+      <c r="U167" s="1"/>
+      <c r="V167" s="10">
+        <v>1</v>
+      </c>
+      <c r="W167" s="1"/>
+      <c r="X167" s="1"/>
+      <c r="Y167" s="6"/>
+      <c r="AE167" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="AF167" t="str">
+        <f t="shared" si="19"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="168" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J168" s="5"/>
+      <c r="K168" s="1"/>
+      <c r="L168" s="1"/>
+      <c r="M168" s="1"/>
+      <c r="N168" s="1"/>
+      <c r="O168" s="1"/>
+      <c r="P168" s="1"/>
+      <c r="Q168" s="1"/>
+      <c r="R168" s="1"/>
+      <c r="S168" s="1"/>
+      <c r="T168" s="1"/>
+      <c r="U168" s="1"/>
+      <c r="V168" s="10">
+        <v>1</v>
+      </c>
+      <c r="W168" s="1"/>
+      <c r="X168" s="1"/>
+      <c r="Y168" s="6"/>
+      <c r="AE168" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="AF168" t="str">
+        <f t="shared" si="19"/>
+        <v>08</v>
+      </c>
+    </row>
+    <row r="169" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J169" s="5"/>
+      <c r="K169" s="1"/>
+      <c r="L169" s="1"/>
+      <c r="M169" s="1"/>
+      <c r="N169" s="1"/>
+      <c r="O169" s="1"/>
+      <c r="P169" s="1"/>
+      <c r="Q169" s="1"/>
+      <c r="R169" s="1"/>
+      <c r="S169" s="1"/>
+      <c r="T169" s="1"/>
+      <c r="U169" s="10">
+        <v>1</v>
+      </c>
+      <c r="V169" s="10">
+        <v>1</v>
+      </c>
+      <c r="W169" s="1"/>
+      <c r="X169" s="1"/>
+      <c r="Y169" s="6"/>
+      <c r="AE169" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="AF169" t="str">
+        <f t="shared" si="19"/>
+        <v>18</v>
+      </c>
+    </row>
+    <row r="170" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J170" s="5"/>
+      <c r="K170" s="1"/>
+      <c r="L170" s="1"/>
+      <c r="M170" s="1"/>
+      <c r="N170" s="1"/>
+      <c r="O170" s="1"/>
+      <c r="P170" s="1"/>
+      <c r="Q170" s="1"/>
+      <c r="R170" s="1"/>
+      <c r="S170" s="1"/>
+      <c r="T170" s="1"/>
+      <c r="U170" s="10">
+        <v>1</v>
+      </c>
+      <c r="V170" s="1"/>
+      <c r="W170" s="1"/>
+      <c r="X170" s="1"/>
+      <c r="Y170" s="6"/>
+      <c r="AE170" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="AF170" t="str">
+        <f t="shared" si="19"/>
+        <v>10</v>
+      </c>
+    </row>
+    <row r="171" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J171" s="5"/>
+      <c r="K171" s="1"/>
+      <c r="L171" s="1"/>
+      <c r="M171" s="1"/>
+      <c r="N171" s="1"/>
+      <c r="O171" s="1"/>
+      <c r="P171" s="1"/>
+      <c r="Q171" s="1"/>
+      <c r="R171" s="1"/>
+      <c r="S171" s="1"/>
+      <c r="T171" s="10">
+        <v>1</v>
+      </c>
+      <c r="U171" s="10">
+        <v>1</v>
+      </c>
+      <c r="V171" s="1"/>
+      <c r="W171" s="1"/>
+      <c r="X171" s="1"/>
+      <c r="Y171" s="6"/>
+      <c r="AE171" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="AF171" t="str">
+        <f t="shared" si="19"/>
+        <v>30</v>
+      </c>
+    </row>
+    <row r="172" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J172" s="5"/>
+      <c r="K172" s="1"/>
+      <c r="L172" s="1"/>
+      <c r="M172" s="1"/>
+      <c r="N172" s="1"/>
+      <c r="O172" s="1"/>
+      <c r="P172" s="1"/>
+      <c r="Q172" s="1"/>
+      <c r="R172" s="1"/>
+      <c r="S172" s="1"/>
+      <c r="T172" s="10">
+        <v>1</v>
+      </c>
+      <c r="U172" s="1"/>
+      <c r="V172" s="1"/>
+      <c r="W172" s="1"/>
+      <c r="X172" s="1"/>
+      <c r="Y172" s="6"/>
+      <c r="AE172" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="AF172" t="str">
+        <f t="shared" si="19"/>
+        <v>20</v>
+      </c>
+    </row>
+    <row r="173" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J173" s="5"/>
+      <c r="K173" s="1"/>
+      <c r="L173" s="1"/>
+      <c r="M173" s="1"/>
+      <c r="N173" s="1"/>
+      <c r="O173" s="1"/>
+      <c r="P173" s="1"/>
+      <c r="Q173" s="1"/>
+      <c r="R173" s="1"/>
+      <c r="S173" s="10">
+        <v>1</v>
+      </c>
+      <c r="T173" s="10">
+        <v>1</v>
+      </c>
+      <c r="U173" s="1"/>
+      <c r="V173" s="1"/>
+      <c r="W173" s="1"/>
+      <c r="X173" s="1"/>
+      <c r="Y173" s="6"/>
+      <c r="AE173" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="AF173" t="str">
+        <f t="shared" si="19"/>
+        <v>60</v>
+      </c>
+    </row>
+    <row r="174" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J174" s="5"/>
+      <c r="K174" s="1"/>
+      <c r="L174" s="1"/>
+      <c r="M174" s="1"/>
+      <c r="N174" s="1"/>
+      <c r="O174" s="1"/>
+      <c r="P174" s="1"/>
+      <c r="Q174" s="1"/>
+      <c r="R174" s="1"/>
+      <c r="S174" s="10">
+        <v>1</v>
+      </c>
+      <c r="T174" s="1"/>
+      <c r="U174" s="1"/>
+      <c r="V174" s="1"/>
+      <c r="W174" s="1"/>
+      <c r="X174" s="1"/>
+      <c r="Y174" s="6"/>
+      <c r="AE174" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="AF174" t="str">
+        <f t="shared" si="19"/>
+        <v>40</v>
+      </c>
+    </row>
+    <row r="175" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J175" s="5"/>
+      <c r="K175" s="1"/>
+      <c r="L175" s="1"/>
+      <c r="M175" s="10">
+        <v>1</v>
+      </c>
+      <c r="N175" s="1"/>
+      <c r="O175" s="1"/>
+      <c r="P175" s="1"/>
+      <c r="Q175" s="1"/>
+      <c r="R175" s="10">
+        <v>1</v>
+      </c>
+      <c r="S175" s="10">
+        <v>1</v>
+      </c>
+      <c r="T175" s="1"/>
+      <c r="U175" s="1"/>
+      <c r="V175" s="1"/>
+      <c r="W175" s="1"/>
+      <c r="X175" s="1"/>
+      <c r="Y175" s="6"/>
+      <c r="AE175" t="str">
+        <f t="shared" si="18"/>
+        <v>10</v>
+      </c>
+      <c r="AF175" t="str">
+        <f t="shared" si="19"/>
+        <v>C0</v>
+      </c>
+    </row>
+    <row r="176" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J176" s="5"/>
+      <c r="K176" s="1"/>
+      <c r="L176" s="1"/>
+      <c r="M176" s="10">
+        <v>1</v>
+      </c>
+      <c r="N176" s="10">
+        <v>1</v>
+      </c>
+      <c r="O176" s="1"/>
+      <c r="P176" s="1"/>
+      <c r="Q176" s="1"/>
+      <c r="R176" s="10">
+        <v>1</v>
+      </c>
+      <c r="S176" s="1"/>
+      <c r="T176" s="1"/>
+      <c r="U176" s="1"/>
+      <c r="V176" s="1"/>
+      <c r="W176" s="1"/>
+      <c r="X176" s="1"/>
+      <c r="Y176" s="6"/>
+      <c r="AE176" t="str">
+        <f t="shared" si="18"/>
+        <v>18</v>
+      </c>
+      <c r="AF176" t="str">
+        <f t="shared" si="19"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="177" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J177" s="5"/>
+      <c r="K177" s="1"/>
+      <c r="L177" s="1"/>
+      <c r="M177" s="1"/>
+      <c r="N177" s="10">
+        <v>1</v>
+      </c>
+      <c r="O177" s="10">
+        <v>1</v>
+      </c>
+      <c r="P177" s="1"/>
+      <c r="Q177" s="10">
+        <v>1</v>
+      </c>
+      <c r="R177" s="10">
+        <v>1</v>
+      </c>
+      <c r="S177" s="1"/>
+      <c r="T177" s="1"/>
+      <c r="U177" s="1"/>
+      <c r="V177" s="1"/>
+      <c r="W177" s="1"/>
+      <c r="X177" s="1"/>
+      <c r="Y177" s="6"/>
+      <c r="AE177" t="str">
+        <f t="shared" si="18"/>
+        <v>0D</v>
+      </c>
+      <c r="AF177" t="str">
+        <f t="shared" si="19"/>
+        <v>80</v>
+      </c>
+    </row>
+    <row r="178" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J178" s="5"/>
+      <c r="K178" s="1"/>
+      <c r="L178" s="1"/>
+      <c r="M178" s="1"/>
+      <c r="N178" s="1"/>
+      <c r="O178" s="10">
+        <v>1</v>
+      </c>
+      <c r="P178" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q178" s="10">
+        <v>1</v>
+      </c>
+      <c r="R178" s="1"/>
+      <c r="S178" s="1"/>
+      <c r="T178" s="1"/>
+      <c r="U178" s="1"/>
+      <c r="V178" s="1"/>
+      <c r="W178" s="1"/>
+      <c r="X178" s="1"/>
+      <c r="Y178" s="6"/>
+      <c r="AE178" t="str">
+        <f t="shared" si="18"/>
+        <v>07</v>
+      </c>
+      <c r="AF178" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="179" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J179" s="5"/>
+      <c r="K179" s="1"/>
+      <c r="L179" s="1"/>
+      <c r="M179" s="1"/>
+      <c r="N179" s="1"/>
+      <c r="O179" s="1"/>
+      <c r="P179" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q179" s="10">
+        <v>1</v>
+      </c>
+      <c r="R179" s="1"/>
+      <c r="S179" s="1"/>
+      <c r="T179" s="1"/>
+      <c r="U179" s="1"/>
+      <c r="V179" s="1"/>
+      <c r="W179" s="1"/>
+      <c r="X179" s="1"/>
+      <c r="Y179" s="6"/>
+      <c r="AE179" t="str">
+        <f t="shared" si="18"/>
+        <v>03</v>
+      </c>
+      <c r="AF179" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="180" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J180" s="7"/>
+      <c r="K180" s="8"/>
+      <c r="L180" s="8"/>
+      <c r="M180" s="8"/>
+      <c r="N180" s="8"/>
+      <c r="O180" s="8"/>
+      <c r="P180" s="8"/>
+      <c r="Q180" s="8"/>
+      <c r="R180" s="8"/>
+      <c r="S180" s="8"/>
+      <c r="T180" s="8"/>
+      <c r="U180" s="8"/>
+      <c r="V180" s="8"/>
+      <c r="W180" s="8"/>
+      <c r="X180" s="8"/>
+      <c r="Y180" s="9"/>
+      <c r="AE180" t="str">
+        <f t="shared" si="18"/>
+        <v>00</v>
+      </c>
+      <c r="AF180" t="str">
+        <f t="shared" si="19"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="183" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J183" s="2"/>
+      <c r="K183" s="3"/>
+      <c r="L183" s="3"/>
+      <c r="M183" s="3"/>
+      <c r="N183" s="3"/>
+      <c r="O183" s="3"/>
+      <c r="P183" s="3"/>
+      <c r="Q183" s="3"/>
+      <c r="R183" s="3"/>
+      <c r="S183" s="3"/>
+      <c r="T183" s="3"/>
+      <c r="U183" s="3"/>
+      <c r="V183" s="3"/>
+      <c r="W183" s="3"/>
+      <c r="X183" s="3"/>
+      <c r="Y183" s="4"/>
+      <c r="AE183" t="str">
+        <f>DEC2HEX(J183*128+K183*64+L183*32+M183*16+N183*8+O183*4+P183*2+Q183*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AF183" t="str">
+        <f>DEC2HEX(R183*128+S183*64+T183*32+U183*16+V183*8+W183*4+X183*2+Y183*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI183" t="str">
+        <f>"0x"&amp;AE183&amp;",0x"&amp;AF183&amp;",0x"&amp;AE184&amp;",0x"&amp;AF184&amp;",0x"&amp;AE185&amp;",0x"&amp;AF185&amp;",0x"&amp;AE186&amp;",0x"&amp;AF186&amp;",0x"&amp;AE187&amp;",0x"&amp;AF187&amp;",0x"&amp;AE188&amp;",0x"&amp;AF188&amp;",0x"&amp;AE189&amp;",0x"&amp;AF189&amp;",0x"&amp;AE190&amp;",0x"&amp;AF190&amp;","</f>
+        <v>0x00,0x00,0x00,0x00,0x00,0x00,0x00,0x00,0x04,0x00,0x0C,0x00,0x1F,0xFC,0x3F,0xFC,</v>
+      </c>
+    </row>
+    <row r="184" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J184" s="5"/>
+      <c r="K184" s="1"/>
+      <c r="L184" s="1"/>
+      <c r="M184" s="1"/>
+      <c r="N184" s="1"/>
+      <c r="O184" s="1"/>
+      <c r="P184" s="1"/>
+      <c r="Q184" s="1"/>
+      <c r="R184" s="1"/>
+      <c r="S184" s="1"/>
+      <c r="T184" s="1"/>
+      <c r="U184" s="1"/>
+      <c r="V184" s="1"/>
+      <c r="W184" s="1"/>
+      <c r="X184" s="1"/>
+      <c r="Y184" s="6"/>
+      <c r="AE184" t="str">
+        <f t="shared" ref="AE184:AE198" si="20">DEC2HEX(J184*128+K184*64+L184*32+M184*16+N184*8+O184*4+P184*2+Q184*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AF184" t="str">
+        <f t="shared" ref="AF184:AF198" si="21">DEC2HEX(R184*128+S184*64+T184*32+U184*16+V184*8+W184*4+X184*2+Y184*1, 2)</f>
+        <v>00</v>
+      </c>
+      <c r="AI184" t="str">
+        <f>"0x"&amp;AE191&amp;",0x"&amp;AF191&amp;",0x"&amp;AE192&amp;",0x"&amp;AF192&amp;",0x"&amp;AE193&amp;",0x"&amp;AF193&amp;",0x"&amp;AE194&amp;",0x"&amp;AF194&amp;",0x"&amp;AE195&amp;",0x"&amp;AF195&amp;",0x"&amp;AE196&amp;",0x"&amp;AF196&amp;",0x"&amp;AE197&amp;",0x"&amp;AF197&amp;",0x"&amp;AE198&amp;",0x"&amp;AF198&amp;","</f>
+        <v>0x3F,0xFC,0x1F,0xFC,0x0C,0x00,0x04,0x00,0x00,0x00,0x00,0x00,0x00,0x00,0x00,0x00,</v>
+      </c>
+    </row>
+    <row r="185" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J185" s="5"/>
+      <c r="K185" s="1"/>
+      <c r="L185" s="1"/>
+      <c r="M185" s="1"/>
+      <c r="N185" s="1"/>
+      <c r="O185" s="1"/>
+      <c r="P185" s="1"/>
+      <c r="Q185" s="1"/>
+      <c r="R185" s="1"/>
+      <c r="S185" s="1"/>
+      <c r="T185" s="1"/>
+      <c r="U185" s="1"/>
+      <c r="V185" s="1"/>
+      <c r="W185" s="1"/>
+      <c r="X185" s="1"/>
+      <c r="Y185" s="6"/>
+      <c r="AE185" t="str">
+        <f t="shared" si="20"/>
+        <v>00</v>
+      </c>
+      <c r="AF185" t="str">
+        <f t="shared" si="21"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="186" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J186" s="5"/>
+      <c r="K186" s="1"/>
+      <c r="L186" s="1"/>
+      <c r="M186" s="1"/>
+      <c r="N186" s="1"/>
+      <c r="O186" s="1"/>
+      <c r="P186" s="1"/>
+      <c r="Q186" s="1"/>
+      <c r="R186" s="1"/>
+      <c r="S186" s="1"/>
+      <c r="T186" s="1"/>
+      <c r="U186" s="1"/>
+      <c r="V186" s="1"/>
+      <c r="W186" s="1"/>
+      <c r="X186" s="1"/>
+      <c r="Y186" s="6"/>
+      <c r="AE186" t="str">
+        <f t="shared" si="20"/>
+        <v>00</v>
+      </c>
+      <c r="AF186" t="str">
+        <f t="shared" si="21"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="187" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J187" s="5"/>
+      <c r="K187" s="1"/>
+      <c r="L187" s="1"/>
+      <c r="M187" s="1"/>
+      <c r="N187" s="1"/>
+      <c r="O187" s="10">
+        <v>1</v>
+      </c>
+      <c r="P187" s="1"/>
+      <c r="Q187" s="1"/>
+      <c r="R187" s="1"/>
+      <c r="S187" s="1"/>
+      <c r="T187" s="1"/>
+      <c r="U187" s="1"/>
+      <c r="V187" s="1"/>
+      <c r="W187" s="1"/>
+      <c r="X187" s="1"/>
+      <c r="Y187" s="6"/>
+      <c r="AE187" t="str">
+        <f t="shared" si="20"/>
+        <v>04</v>
+      </c>
+      <c r="AF187" t="str">
+        <f t="shared" si="21"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="188" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J188" s="5"/>
+      <c r="K188" s="1"/>
+      <c r="L188" s="1"/>
+      <c r="M188" s="1"/>
+      <c r="N188" s="10">
+        <v>1</v>
+      </c>
+      <c r="O188" s="10">
+        <v>1</v>
+      </c>
+      <c r="P188" s="1"/>
+      <c r="Q188" s="1"/>
+      <c r="R188" s="1"/>
+      <c r="S188" s="1"/>
+      <c r="T188" s="1"/>
+      <c r="U188" s="1"/>
+      <c r="V188" s="1"/>
+      <c r="W188" s="1"/>
+      <c r="X188" s="1"/>
+      <c r="Y188" s="6"/>
+      <c r="AE188" t="str">
+        <f t="shared" si="20"/>
+        <v>0C</v>
+      </c>
+      <c r="AF188" t="str">
+        <f t="shared" si="21"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="189" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J189" s="5"/>
+      <c r="K189" s="1"/>
+      <c r="L189" s="1"/>
+      <c r="M189" s="10">
+        <v>1</v>
+      </c>
+      <c r="N189" s="10">
+        <v>1</v>
+      </c>
+      <c r="O189" s="10">
+        <v>1</v>
+      </c>
+      <c r="P189" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q189" s="10">
+        <v>1</v>
+      </c>
+      <c r="R189" s="10">
+        <v>1</v>
+      </c>
+      <c r="S189" s="10">
+        <v>1</v>
+      </c>
+      <c r="T189" s="10">
+        <v>1</v>
+      </c>
+      <c r="U189" s="10">
+        <v>1</v>
+      </c>
+      <c r="V189" s="10">
+        <v>1</v>
+      </c>
+      <c r="W189" s="10">
+        <v>1</v>
+      </c>
+      <c r="X189" s="1"/>
+      <c r="Y189" s="6"/>
+      <c r="AE189" t="str">
+        <f t="shared" si="20"/>
+        <v>1F</v>
+      </c>
+      <c r="AF189" t="str">
+        <f t="shared" si="21"/>
+        <v>FC</v>
+      </c>
+    </row>
+    <row r="190" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J190" s="5"/>
+      <c r="K190" s="1"/>
+      <c r="L190" s="10">
+        <v>1</v>
+      </c>
+      <c r="M190" s="10">
+        <v>1</v>
+      </c>
+      <c r="N190" s="10">
+        <v>1</v>
+      </c>
+      <c r="O190" s="10">
+        <v>1</v>
+      </c>
+      <c r="P190" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q190" s="10">
+        <v>1</v>
+      </c>
+      <c r="R190" s="10">
+        <v>1</v>
+      </c>
+      <c r="S190" s="10">
+        <v>1</v>
+      </c>
+      <c r="T190" s="10">
+        <v>1</v>
+      </c>
+      <c r="U190" s="10">
+        <v>1</v>
+      </c>
+      <c r="V190" s="10">
+        <v>1</v>
+      </c>
+      <c r="W190" s="10">
+        <v>1</v>
+      </c>
+      <c r="X190" s="1"/>
+      <c r="Y190" s="6"/>
+      <c r="AE190" t="str">
+        <f t="shared" si="20"/>
+        <v>3F</v>
+      </c>
+      <c r="AF190" t="str">
+        <f t="shared" si="21"/>
+        <v>FC</v>
+      </c>
+    </row>
+    <row r="191" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J191" s="5"/>
+      <c r="K191" s="1"/>
+      <c r="L191" s="10">
+        <v>1</v>
+      </c>
+      <c r="M191" s="10">
+        <v>1</v>
+      </c>
+      <c r="N191" s="10">
+        <v>1</v>
+      </c>
+      <c r="O191" s="10">
+        <v>1</v>
+      </c>
+      <c r="P191" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q191" s="10">
+        <v>1</v>
+      </c>
+      <c r="R191" s="10">
+        <v>1</v>
+      </c>
+      <c r="S191" s="10">
+        <v>1</v>
+      </c>
+      <c r="T191" s="10">
+        <v>1</v>
+      </c>
+      <c r="U191" s="10">
+        <v>1</v>
+      </c>
+      <c r="V191" s="10">
+        <v>1</v>
+      </c>
+      <c r="W191" s="10">
+        <v>1</v>
+      </c>
+      <c r="X191" s="1"/>
+      <c r="Y191" s="6"/>
+      <c r="AE191" t="str">
+        <f t="shared" si="20"/>
+        <v>3F</v>
+      </c>
+      <c r="AF191" t="str">
+        <f t="shared" si="21"/>
+        <v>FC</v>
+      </c>
+    </row>
+    <row r="192" spans="10:35" x14ac:dyDescent="0.4">
+      <c r="J192" s="5"/>
+      <c r="K192" s="1"/>
+      <c r="L192" s="1"/>
+      <c r="M192" s="10">
+        <v>1</v>
+      </c>
+      <c r="N192" s="10">
+        <v>1</v>
+      </c>
+      <c r="O192" s="10">
+        <v>1</v>
+      </c>
+      <c r="P192" s="10">
+        <v>1</v>
+      </c>
+      <c r="Q192" s="10">
+        <v>1</v>
+      </c>
+      <c r="R192" s="10">
+        <v>1</v>
+      </c>
+      <c r="S192" s="10">
+        <v>1</v>
+      </c>
+      <c r="T192" s="10">
+        <v>1</v>
+      </c>
+      <c r="U192" s="10">
+        <v>1</v>
+      </c>
+      <c r="V192" s="10">
+        <v>1</v>
+      </c>
+      <c r="W192" s="10">
+        <v>1</v>
+      </c>
+      <c r="X192" s="1"/>
+      <c r="Y192" s="6"/>
+      <c r="AE192" t="str">
+        <f t="shared" si="20"/>
+        <v>1F</v>
+      </c>
+      <c r="AF192" t="str">
+        <f t="shared" si="21"/>
+        <v>FC</v>
+      </c>
+    </row>
+    <row r="193" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J193" s="5"/>
+      <c r="K193" s="1"/>
+      <c r="L193" s="1"/>
+      <c r="M193" s="1"/>
+      <c r="N193" s="10">
+        <v>1</v>
+      </c>
+      <c r="O193" s="10">
+        <v>1</v>
+      </c>
+      <c r="P193" s="1"/>
+      <c r="Q193" s="1"/>
+      <c r="R193" s="1"/>
+      <c r="S193" s="1"/>
+      <c r="T193" s="1"/>
+      <c r="U193" s="1"/>
+      <c r="V193" s="1"/>
+      <c r="W193" s="1"/>
+      <c r="X193" s="1"/>
+      <c r="Y193" s="6"/>
+      <c r="AE193" t="str">
+        <f t="shared" si="20"/>
+        <v>0C</v>
+      </c>
+      <c r="AF193" t="str">
+        <f t="shared" si="21"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="194" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J194" s="5"/>
+      <c r="K194" s="1"/>
+      <c r="L194" s="1"/>
+      <c r="M194" s="1"/>
+      <c r="N194" s="1"/>
+      <c r="O194" s="10">
+        <v>1</v>
+      </c>
+      <c r="P194" s="1"/>
+      <c r="Q194" s="1"/>
+      <c r="R194" s="1"/>
+      <c r="S194" s="1"/>
+      <c r="T194" s="1"/>
+      <c r="U194" s="1"/>
+      <c r="V194" s="1"/>
+      <c r="W194" s="1"/>
+      <c r="X194" s="1"/>
+      <c r="Y194" s="6"/>
+      <c r="AE194" t="str">
+        <f t="shared" si="20"/>
+        <v>04</v>
+      </c>
+      <c r="AF194" t="str">
+        <f t="shared" si="21"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="195" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J195" s="5"/>
+      <c r="K195" s="1"/>
+      <c r="L195" s="1"/>
+      <c r="M195" s="1"/>
+      <c r="N195" s="1"/>
+      <c r="O195" s="1"/>
+      <c r="P195" s="1"/>
+      <c r="Q195" s="1"/>
+      <c r="R195" s="1"/>
+      <c r="S195" s="1"/>
+      <c r="T195" s="1"/>
+      <c r="U195" s="1"/>
+      <c r="V195" s="1"/>
+      <c r="W195" s="1"/>
+      <c r="X195" s="1"/>
+      <c r="Y195" s="6"/>
+      <c r="AE195" t="str">
+        <f t="shared" si="20"/>
+        <v>00</v>
+      </c>
+      <c r="AF195" t="str">
+        <f t="shared" si="21"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="196" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J196" s="5"/>
+      <c r="K196" s="1"/>
+      <c r="L196" s="1"/>
+      <c r="M196" s="1"/>
+      <c r="N196" s="1"/>
+      <c r="O196" s="1"/>
+      <c r="P196" s="1"/>
+      <c r="Q196" s="1"/>
+      <c r="R196" s="1"/>
+      <c r="S196" s="1"/>
+      <c r="T196" s="1"/>
+      <c r="U196" s="1"/>
+      <c r="V196" s="1"/>
+      <c r="W196" s="1"/>
+      <c r="X196" s="1"/>
+      <c r="Y196" s="6"/>
+      <c r="AE196" t="str">
+        <f t="shared" si="20"/>
+        <v>00</v>
+      </c>
+      <c r="AF196" t="str">
+        <f t="shared" si="21"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="197" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J197" s="5"/>
+      <c r="K197" s="1"/>
+      <c r="L197" s="1"/>
+      <c r="M197" s="1"/>
+      <c r="N197" s="1"/>
+      <c r="O197" s="1"/>
+      <c r="P197" s="1"/>
+      <c r="Q197" s="1"/>
+      <c r="R197" s="1"/>
+      <c r="S197" s="1"/>
+      <c r="T197" s="1"/>
+      <c r="U197" s="1"/>
+      <c r="V197" s="1"/>
+      <c r="W197" s="1"/>
+      <c r="X197" s="1"/>
+      <c r="Y197" s="6"/>
+      <c r="AE197" t="str">
+        <f t="shared" si="20"/>
+        <v>00</v>
+      </c>
+      <c r="AF197" t="str">
+        <f t="shared" si="21"/>
+        <v>00</v>
+      </c>
+    </row>
+    <row r="198" spans="10:32" x14ac:dyDescent="0.4">
+      <c r="J198" s="7"/>
+      <c r="K198" s="8"/>
+      <c r="L198" s="8"/>
+      <c r="M198" s="8"/>
+      <c r="N198" s="8"/>
+      <c r="O198" s="8"/>
+      <c r="P198" s="8"/>
+      <c r="Q198" s="8"/>
+      <c r="R198" s="8"/>
+      <c r="S198" s="8"/>
+      <c r="T198" s="8"/>
+      <c r="U198" s="8"/>
+      <c r="V198" s="8"/>
+      <c r="W198" s="8"/>
+      <c r="X198" s="8"/>
+      <c r="Y198" s="9"/>
+      <c r="AE198" t="str">
+        <f t="shared" si="20"/>
+        <v>00</v>
+      </c>
+      <c r="AF198" t="str">
+        <f t="shared" si="21"/>
         <v>00</v>
       </c>
     </row>
@@ -4910,8 +6544,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{135F94CE-4F90-4E2C-9BA7-A72E307E0FDF}">
   <dimension ref="J10:CS226"/>
   <sheetViews>
-    <sheetView topLeftCell="A164" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
-      <selection activeCell="J211" sqref="J211:Y226"/>
+    <sheetView topLeftCell="A29" zoomScale="40" zoomScaleNormal="40" workbookViewId="0">
+      <selection activeCell="J47" sqref="J47:Y62"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="3.125" defaultRowHeight="18.75" x14ac:dyDescent="0.4"/>
